--- a/data/summary/22_22_36.xlsx
+++ b/data/summary/22_22_36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="avg_plaquette" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="mminus_mass" sheetId="3" r:id="rId3"/>
     <sheet name="flux_re_energy" sheetId="4" r:id="rId4"/>
     <sheet name="flux_im_energy" sheetId="5" r:id="rId5"/>
+    <sheet name="flux_abs_energy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>Sample Number</t>
   </si>
@@ -124,8 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -153,19 +156,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,7 +968,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1026,31 +1031,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.78067257325782102</v>
+        <v>2.44047643447092</v>
       </c>
       <c r="C3">
-        <v>-0.51874220279759298</v>
+        <v>-3.21377219747448</v>
       </c>
       <c r="D3">
-        <v>2.0800873493132301</v>
+        <v>8.0947250664163199</v>
       </c>
       <c r="E3">
-        <v>0.27062760116581902</v>
+        <v>7.3780515107987696</v>
       </c>
       <c r="F3">
-        <v>-0.34642449979517398</v>
+        <v>-5458.3483223182402</v>
       </c>
       <c r="G3">
-        <v>0.88767970212681202</v>
+        <v>5473.1044253398404</v>
       </c>
       <c r="H3">
-        <v>0.51286868037859701</v>
+        <v>0.69356272583674905</v>
       </c>
       <c r="I3">
-        <v>-7.5392040582158704E-2</v>
+        <v>-2.4785704816110798</v>
       </c>
       <c r="J3">
-        <v>1.10112940133935</v>
+        <v>3.8656959332845702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1058,31 +1063,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97825003874955596</v>
+        <v>1.08546051354219</v>
       </c>
       <c r="C4">
-        <v>-0.170419378878328</v>
+        <v>-0.88102548056570595</v>
       </c>
       <c r="D4">
-        <v>2.1269194563774398</v>
+        <v>3.05194650765009</v>
       </c>
       <c r="E4">
-        <v>5.4327227581467699E-2</v>
+        <v>1.42099160790635</v>
       </c>
       <c r="F4">
-        <v>-0.31498257522224699</v>
+        <v>-3.7341975007953301</v>
       </c>
       <c r="G4">
-        <v>0.42363703038518202</v>
+        <v>6.5761807166080404</v>
       </c>
       <c r="H4">
-        <v>0.32190176889658501</v>
+        <v>1.57539787240628</v>
       </c>
       <c r="I4">
-        <v>-3.2534130968644603E-2</v>
+        <v>1.20431707841882</v>
       </c>
       <c r="J4">
-        <v>0.676337668761815</v>
+        <v>1.9464786663937499</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1090,31 +1095,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.254870012701434</v>
+        <v>0.757415713458232</v>
       </c>
       <c r="C5">
-        <v>-0.163457305009506</v>
+        <v>-2.6874231589366002</v>
       </c>
       <c r="D5">
-        <v>0.67319733041237395</v>
+        <v>4.20225458585307</v>
       </c>
       <c r="E5">
-        <v>0.10817157035769299</v>
+        <v>7.8072153463242797</v>
       </c>
       <c r="F5">
-        <v>-0.34101547076425898</v>
+        <v>-10561.749561423499</v>
       </c>
       <c r="G5">
-        <v>0.55735861147964505</v>
+        <v>10577.363992116199</v>
       </c>
       <c r="H5">
-        <v>7.2795721959908605E-2</v>
+        <v>0.901423873834026</v>
       </c>
       <c r="I5">
-        <v>-0.231670108720609</v>
+        <v>-5.9478531081049697</v>
       </c>
       <c r="J5">
-        <v>0.37726155264042599</v>
+        <v>7.7507008557730197</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1122,31 +1127,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.1527823996620801</v>
+        <v>2.1267254587776501</v>
       </c>
       <c r="C6">
-        <v>-0.73020427429026802</v>
+        <v>1.0202816366788701</v>
       </c>
       <c r="D6">
-        <v>3.0357690736144298</v>
+        <v>3.2331692808764201</v>
       </c>
       <c r="E6">
-        <v>1.02806750402092</v>
+        <v>1.1244274459236001</v>
       </c>
       <c r="F6">
-        <v>-0.61743148421306604</v>
+        <v>0.44219508515442302</v>
       </c>
       <c r="G6">
-        <v>2.6735664922549001</v>
+        <v>1.8066598066927799</v>
       </c>
       <c r="H6">
-        <v>0.41703221655504102</v>
+        <v>1.0968915075880199</v>
       </c>
       <c r="I6">
-        <v>-5.9943116443107E-2</v>
+        <v>-1.3320033049698801</v>
       </c>
       <c r="J6">
-        <v>0.89400754955318895</v>
+        <v>3.5257863201459099</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1154,31 +1159,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.1939783733689799</v>
+        <v>1.22572066246623</v>
       </c>
       <c r="C7">
-        <v>-1.3862467689854401</v>
+        <v>-2.4925760615588599</v>
       </c>
       <c r="D7">
-        <v>3.7742035157234</v>
+        <v>4.9440173864913204</v>
       </c>
       <c r="E7">
-        <v>0.33510930991372201</v>
+        <v>0.80708085755752201</v>
       </c>
       <c r="F7">
-        <v>-9.8762257954454202E-2</v>
+        <v>-1.30707458855851</v>
       </c>
       <c r="G7">
-        <v>0.76898087778189805</v>
+        <v>2.92123630367356</v>
       </c>
       <c r="H7">
-        <v>0.21979201017806099</v>
+        <v>0.80352304437583699</v>
       </c>
       <c r="I7">
-        <v>5.4094890733305E-2</v>
+        <v>-1.7496377849567699</v>
       </c>
       <c r="J7">
-        <v>0.38548912962281701</v>
+        <v>3.3566838737084499</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1186,31 +1191,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.26965183544072102</v>
+        <v>0.605336461759585</v>
       </c>
       <c r="C8">
-        <v>-7.7338535837118194E-2</v>
+        <v>-1.29343704320298</v>
       </c>
       <c r="D8">
-        <v>0.61664220671855996</v>
+        <v>2.50410996672215</v>
       </c>
       <c r="E8">
-        <v>0.38294095301211101</v>
+        <v>0.83802403070505904</v>
       </c>
       <c r="F8">
-        <v>-0.20591545084545401</v>
+        <v>-3.0628369564157101</v>
       </c>
       <c r="G8">
-        <v>0.97179735686967705</v>
+        <v>4.7388850178258304</v>
       </c>
       <c r="H8">
-        <v>0.16830453928727099</v>
+        <v>7.24219442825299</v>
       </c>
       <c r="I8">
-        <v>-0.30936509724248001</v>
+        <v>-3404.3359296500598</v>
       </c>
       <c r="J8">
-        <v>0.64597417581702099</v>
+        <v>3418.8203185065599</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1218,31 +1223,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.48895267219646998</v>
+        <v>0.86700713845005195</v>
       </c>
       <c r="C9">
-        <v>0.24873936688241699</v>
+        <v>-0.735456023706898</v>
       </c>
       <c r="D9">
-        <v>0.72916597751052403</v>
+        <v>2.469470300607</v>
       </c>
       <c r="E9">
-        <v>2.3619583357354399</v>
+        <v>2.367374985748</v>
       </c>
       <c r="F9">
-        <v>-2.9385785482205602</v>
+        <v>-14.4449290675227</v>
       </c>
       <c r="G9">
-        <v>7.6624952196914302</v>
+        <v>19.179679039018701</v>
       </c>
       <c r="H9">
-        <v>1.5092505297093699E-2</v>
+        <v>1.1789872668514001</v>
       </c>
       <c r="I9">
-        <v>-0.37700128900187402</v>
+        <v>-1.1276363099143301</v>
       </c>
       <c r="J9">
-        <v>0.40718629959606201</v>
+        <v>3.4856108436171298</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1250,31 +1255,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.03146929919562</v>
+        <v>1.51950374949843</v>
       </c>
       <c r="C10">
-        <v>-0.20637758121593799</v>
+        <v>1.0157441502628499</v>
       </c>
       <c r="D10">
-        <v>2.2693161796071899</v>
+        <v>2.0232633487340199</v>
       </c>
       <c r="E10">
-        <v>0.31880250172977698</v>
+        <v>1.48679176939987</v>
       </c>
       <c r="F10">
-        <v>-3.42130938636711E-2</v>
+        <v>-7.4559620759230301</v>
       </c>
       <c r="G10">
-        <v>0.67181809732322495</v>
+        <v>10.4295456147228</v>
       </c>
       <c r="H10">
-        <v>0.113689756224293</v>
+        <v>2.7518434154264799</v>
       </c>
       <c r="I10">
-        <v>-0.24109252298262501</v>
+        <v>-23.115267124717601</v>
       </c>
       <c r="J10">
-        <v>0.46847203543121102</v>
+        <v>28.6189539555706</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1282,31 +1287,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.239697674105327</v>
+        <v>1.5822894883787599</v>
       </c>
       <c r="C11">
-        <v>-0.16541180231597499</v>
+        <v>-3.07313350387623</v>
       </c>
       <c r="D11">
-        <v>0.64480715052662996</v>
+        <v>6.2377124806337401</v>
       </c>
       <c r="E11">
-        <v>3.0376872013634801</v>
+        <v>8.0381283466666407</v>
       </c>
       <c r="F11">
-        <v>-15.544358931137101</v>
+        <v>-2328.3483182672098</v>
       </c>
       <c r="G11">
-        <v>21.619733333864101</v>
+        <v>2344.4245749605502</v>
       </c>
       <c r="H11">
-        <v>0.24098253207089401</v>
+        <v>0.48043294145597598</v>
       </c>
       <c r="I11">
-        <v>-0.129057755577764</v>
+        <v>-3.0299484534585002</v>
       </c>
       <c r="J11">
-        <v>0.61102281971955297</v>
+        <v>3.9908143363704598</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1314,31 +1319,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.52152515446124503</v>
+        <v>0.72122468447737098</v>
       </c>
       <c r="C12">
-        <v>-0.40659131462067</v>
+        <v>-2.5409737923229501</v>
       </c>
       <c r="D12">
-        <v>1.44964162354316</v>
+        <v>3.98342316127769</v>
       </c>
       <c r="E12">
-        <v>0.205339852378013</v>
+        <v>2.25102801458902</v>
       </c>
       <c r="F12">
-        <v>-7.8115014651885098E-2</v>
+        <v>-14.2862867808375</v>
       </c>
       <c r="G12">
-        <v>0.48879471940791203</v>
+        <v>18.7883428100155</v>
       </c>
       <c r="H12">
-        <v>1.6486780232332101</v>
+        <v>3.4358210703743799</v>
       </c>
       <c r="I12">
-        <v>-0.52734719785915596</v>
+        <v>-33.899602660304097</v>
       </c>
       <c r="J12">
-        <v>3.8247032443255802</v>
+        <v>40.771244801052902</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1346,31 +1351,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.436101078861867</v>
+        <v>0.77503910974215995</v>
       </c>
       <c r="C13">
-        <v>-0.229574770299773</v>
+        <v>-0.74187332778219095</v>
       </c>
       <c r="D13">
-        <v>1.1017769280235099</v>
+        <v>2.29195154726651</v>
       </c>
       <c r="E13">
-        <v>1.09686859176036</v>
+        <v>7.4449282793171099</v>
       </c>
       <c r="F13">
-        <v>-0.70954915581057698</v>
+        <v>-2995.6557777477801</v>
       </c>
       <c r="G13">
-        <v>2.9032863393313</v>
+        <v>3010.5456343064202</v>
       </c>
       <c r="H13">
-        <v>0.229857244985083</v>
+        <v>3.2701788081497098</v>
       </c>
       <c r="I13">
-        <v>-0.22663737886920499</v>
+        <v>-87.780341487043799</v>
       </c>
       <c r="J13">
-        <v>0.68635186883937105</v>
+        <v>94.320699103343202</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1378,31 +1383,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.69681845547983</v>
+        <v>1.72650840923618</v>
       </c>
       <c r="C14">
-        <v>-1.29733889243389</v>
+        <v>-0.980555151777047</v>
       </c>
       <c r="D14">
-        <v>4.6909758033935498</v>
+        <v>4.4335719702494103</v>
       </c>
       <c r="E14">
-        <v>0.85637230265639297</v>
+        <v>0.96280811584637205</v>
       </c>
       <c r="F14">
-        <v>-0.177860730688646</v>
+        <v>-0.285344452903741</v>
       </c>
       <c r="G14">
-        <v>1.8906053360014301</v>
+        <v>2.2109606845964902</v>
       </c>
       <c r="H14">
-        <v>0.568738153669614</v>
+        <v>0.93667939202552397</v>
       </c>
       <c r="I14">
-        <v>-0.32021270914028099</v>
+        <v>-1.4679361583275301</v>
       </c>
       <c r="J14">
-        <v>1.45768901647951</v>
+        <v>3.34129494237858</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1410,31 +1415,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.124313342741653</v>
+        <v>0.83323084192179897</v>
       </c>
       <c r="C15">
-        <v>-0.185729004311389</v>
+        <v>-3.24671627975358</v>
       </c>
       <c r="D15">
-        <v>0.43435568979469502</v>
+        <v>4.91317796359718</v>
       </c>
       <c r="E15">
-        <v>0.29240169230927099</v>
+        <v>7.34100531212846</v>
       </c>
       <c r="F15">
-        <v>-0.110560214329611</v>
+        <v>-3000.4061941858799</v>
       </c>
       <c r="G15">
-        <v>0.69536359894815403</v>
+        <v>3015.0882048101398</v>
       </c>
       <c r="H15">
-        <v>0.56559299673029195</v>
+        <v>1.73616035649399</v>
       </c>
       <c r="I15">
-        <v>4.5901830781182998E-2</v>
+        <v>-0.61111671848377003</v>
       </c>
       <c r="J15">
-        <v>1.0852841626794001</v>
+        <v>4.0834374314717499</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1442,31 +1447,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.25818038798306597</v>
+        <v>1.3426323782369201</v>
       </c>
       <c r="C16">
-        <v>-0.26309505786679599</v>
+        <v>-6.2213701496318397</v>
       </c>
       <c r="D16">
-        <v>0.77945583383292905</v>
+        <v>8.9066349061056709</v>
       </c>
       <c r="E16">
-        <v>0.63358765138962903</v>
+        <v>1.47602259352945</v>
       </c>
       <c r="F16">
-        <v>-0.11824603580231199</v>
+        <v>-2.1457296727583799</v>
       </c>
       <c r="G16">
-        <v>1.3854213385815699</v>
+        <v>5.0977748598172798</v>
       </c>
       <c r="H16">
-        <v>1.27310196957231</v>
+        <v>7.9615190669423201</v>
       </c>
       <c r="I16">
-        <v>-0.333006488613386</v>
+        <v>-1612.6979137129599</v>
       </c>
       <c r="J16">
-        <v>2.8792104277580099</v>
+        <v>1628.6209518468499</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1474,31 +1479,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.63002259089032198</v>
+        <v>1.2055308284030699</v>
       </c>
       <c r="C17">
-        <v>-0.10493770801021</v>
+        <v>-1.94943208402409</v>
       </c>
       <c r="D17">
-        <v>1.36498288979085</v>
+        <v>4.36049374083023</v>
       </c>
       <c r="E17">
-        <v>0.109084346882781</v>
+        <v>0.80903514449269698</v>
       </c>
       <c r="F17">
-        <v>-0.19604456826505601</v>
+        <v>-0.44045116420365799</v>
       </c>
       <c r="G17">
-        <v>0.41421326203061898</v>
+        <v>2.0585214531890501</v>
       </c>
       <c r="H17">
-        <v>0.25749486170636399</v>
+        <v>1.1213609173724199</v>
       </c>
       <c r="I17">
-        <v>6.7444829121345806E-2</v>
+        <v>-0.94031682567863795</v>
       </c>
       <c r="J17">
-        <v>0.447544894291381</v>
+        <v>3.1830386604234699</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1506,31 +1511,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.57330729835533401</v>
+        <v>1.4605211057321601</v>
       </c>
       <c r="C18">
-        <v>-0.12766349300565299</v>
+        <v>-5.5181754476857101</v>
       </c>
       <c r="D18">
-        <v>1.27427808971632</v>
+        <v>8.4392176591500405</v>
       </c>
       <c r="E18">
-        <v>0.32677246067966198</v>
+        <v>1.2081320942826901</v>
       </c>
       <c r="F18">
-        <v>-7.3955590801135203E-3</v>
+        <v>-5.1394775999946596</v>
       </c>
       <c r="G18">
-        <v>0.66094048043943798</v>
+        <v>7.5557417885600504</v>
       </c>
       <c r="H18">
-        <v>0.225483519317977</v>
+        <v>1.13067298022166</v>
       </c>
       <c r="I18">
-        <v>-0.15062387312362399</v>
+        <v>-7.5623414699133802</v>
       </c>
       <c r="J18">
-        <v>0.60159091175957802</v>
+        <v>9.8236874303566992</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1538,31 +1543,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.32782581280336298</v>
+        <v>2.1847822741690202</v>
       </c>
       <c r="C19">
-        <v>-0.29958366232699701</v>
+        <v>-1.08870371558596</v>
       </c>
       <c r="D19">
-        <v>0.95523528793372403</v>
+        <v>5.4582682639239897</v>
       </c>
       <c r="E19">
-        <v>1.02867406279247</v>
+        <v>1.1287019839130801</v>
       </c>
       <c r="F19">
-        <v>-0.49780139714661098</v>
+        <v>-4.1111864748241498</v>
       </c>
       <c r="G19">
-        <v>2.5551495227315502</v>
+        <v>6.3685904426502997</v>
       </c>
       <c r="H19">
-        <v>0.15063396240699001</v>
+        <v>0.73741087276701101</v>
       </c>
       <c r="I19">
-        <v>-0.15815323439020301</v>
+        <v>-7.04450942916489</v>
       </c>
       <c r="J19">
-        <v>0.45942115920418403</v>
+        <v>8.5193311746989195</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1570,31 +1575,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.69151904041475598</v>
+        <v>0.87835723680689803</v>
       </c>
       <c r="C20">
-        <v>-0.119559912834229</v>
+        <v>-0.44717243490977299</v>
       </c>
       <c r="D20">
-        <v>1.5025979936637399</v>
+        <v>2.2038869085235699</v>
       </c>
       <c r="E20">
-        <v>0.13151606847129399</v>
+        <v>0.55815562621679504</v>
       </c>
       <c r="F20">
-        <v>-0.230527393241241</v>
+        <v>-5.32036619489425</v>
       </c>
       <c r="G20">
-        <v>0.49355953018382798</v>
+        <v>6.4366774473278401</v>
       </c>
       <c r="H20">
-        <v>0.57311732970221196</v>
+        <v>0.69377630248268995</v>
       </c>
       <c r="I20">
-        <v>-0.16948058524024201</v>
+        <v>-1.13133200265222</v>
       </c>
       <c r="J20">
-        <v>1.31571524464467</v>
+        <v>2.5188846076176001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1602,31 +1607,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.76605861830777</v>
+        <v>0.940787213369076</v>
       </c>
       <c r="C21">
-        <v>0.55422623257385994</v>
+        <v>-0.29104197587519298</v>
       </c>
       <c r="D21">
-        <v>0.97789100404167995</v>
+        <v>2.1726164026133499</v>
       </c>
       <c r="E21">
-        <v>0.12826374640733201</v>
+        <v>2.32668753276179</v>
       </c>
       <c r="F21">
-        <v>-0.21322826160547401</v>
+        <v>-1.67462637484766</v>
       </c>
       <c r="G21">
-        <v>0.46975575442013801</v>
+        <v>6.3280014403712403</v>
       </c>
       <c r="H21">
-        <v>0.33954371105590903</v>
+        <v>0.85522674986979097</v>
       </c>
       <c r="I21">
-        <v>7.02970086162331E-2</v>
+        <v>-2.0829519169818198</v>
       </c>
       <c r="J21">
-        <v>0.60879041349558505</v>
+        <v>3.7934054167214</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1634,31 +1639,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.25772232238416398</v>
+        <v>1.1185128608475901</v>
       </c>
       <c r="C22">
-        <v>-0.16388355108691499</v>
+        <v>-3.10803806291967</v>
       </c>
       <c r="D22">
-        <v>0.67932819585524296</v>
+        <v>5.3450637846148599</v>
       </c>
       <c r="E22">
-        <v>0.30910209150836199</v>
+        <v>0.930684438037641</v>
       </c>
       <c r="F22">
-        <v>-0.101988428783636</v>
+        <v>-1.76989350434879</v>
       </c>
       <c r="G22">
-        <v>0.72019261180035898</v>
+        <v>3.6312623804240798</v>
       </c>
       <c r="H22">
-        <v>7.6817793431686203</v>
+        <v>7.5664460911381202</v>
       </c>
       <c r="I22">
-        <v>-1586.6302371843699</v>
+        <v>-4687.06512301363</v>
       </c>
       <c r="J22">
-        <v>1601.9937958707101</v>
+        <v>4702.1980151959096</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1666,31 +1671,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.145713451759344</v>
+        <v>7.8108911487209003</v>
       </c>
       <c r="C23">
-        <v>-0.276781439803296</v>
+        <v>-9551.4955091662905</v>
       </c>
       <c r="D23">
-        <v>0.568208343321985</v>
+        <v>9567.11729146373</v>
       </c>
       <c r="E23">
-        <v>0.32940937456179198</v>
+        <v>1.3625758882007699</v>
       </c>
       <c r="F23">
-        <v>3.73044182450709E-2</v>
+        <v>-1.32520742947922</v>
       </c>
       <c r="G23">
-        <v>0.62151433087851204</v>
+        <v>4.0503592058807598</v>
       </c>
       <c r="H23">
-        <v>0.53861753072214902</v>
+        <v>1.0353991168416801</v>
       </c>
       <c r="I23">
-        <v>-0.12734189993567699</v>
+        <v>-3.0460485145026701</v>
       </c>
       <c r="J23">
-        <v>1.2045769613799799</v>
+        <v>5.1168467481860302</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1698,31 +1703,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.61802594617742</v>
+        <v>1.9711612974292201</v>
       </c>
       <c r="C24">
-        <v>-2.1591697386650499</v>
+        <v>-9.0271687190510495</v>
       </c>
       <c r="D24">
-        <v>5.3952216310198802</v>
+        <v>12.969491313909501</v>
       </c>
       <c r="E24">
-        <v>1.1262496195910701</v>
+        <v>1.3082015931711699</v>
       </c>
       <c r="F24">
-        <v>-5.3973436307333603E-2</v>
+        <v>-2.9937013358153299</v>
       </c>
       <c r="G24">
-        <v>2.30647267548947</v>
+        <v>5.6101045221576804</v>
       </c>
       <c r="H24">
-        <v>3.7073429257247099</v>
+        <v>3.7080960470993798</v>
       </c>
       <c r="I24">
-        <v>-18.631234862387402</v>
+        <v>-18.4273092345063</v>
       </c>
       <c r="J24">
-        <v>26.0459207138369</v>
+        <v>25.843501328704999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1730,31 +1735,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.266331227120577</v>
+        <v>1.17421844620224</v>
       </c>
       <c r="C25">
-        <v>-0.27565494367691401</v>
+        <v>-2.5205002460221402</v>
       </c>
       <c r="D25">
-        <v>0.808317397918067</v>
+        <v>4.8689371384266096</v>
       </c>
       <c r="E25">
-        <v>0.118012499417035</v>
+        <v>0.49815963838880201</v>
       </c>
       <c r="F25">
-        <v>-0.14185531314864799</v>
+        <v>-2.4108892014632399</v>
       </c>
       <c r="G25">
-        <v>0.37788031198271799</v>
+        <v>3.4072084782408498</v>
       </c>
       <c r="H25">
-        <v>-3.5060373482972002E-2</v>
+        <v>2.0165760890400999</v>
       </c>
       <c r="I25">
-        <v>-0.33924333353623098</v>
+        <v>-24.352522741382302</v>
       </c>
       <c r="J25">
-        <v>0.26912258657028698</v>
+        <v>28.385674919462499</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1762,31 +1767,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.34453745840803401</v>
+        <v>1.82969998083872</v>
       </c>
       <c r="C26">
-        <v>-8.8488689460660006E-2</v>
+        <v>-9.9702344527046396</v>
       </c>
       <c r="D26">
-        <v>0.77756360627672805</v>
+        <v>13.6296344143821</v>
       </c>
       <c r="E26">
-        <v>0.199183505818252</v>
+        <v>7.0952234280854896</v>
       </c>
       <c r="F26">
-        <v>-0.29367663451454401</v>
+        <v>-5084.3886029018604</v>
       </c>
       <c r="G26">
-        <v>0.69204364615104697</v>
+        <v>5098.5790497580301</v>
       </c>
       <c r="H26">
-        <v>0.146147727717787</v>
+        <v>0.85307723466752905</v>
       </c>
       <c r="I26">
-        <v>-0.251497745915433</v>
+        <v>-7.9862936087093201</v>
       </c>
       <c r="J26">
-        <v>0.54379320135100695</v>
+        <v>9.6924480780443805</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1794,31 +1799,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.53240400559416101</v>
+        <v>0.70400574040187003</v>
       </c>
       <c r="C27">
-        <v>-5.8314008022330298E-2</v>
+        <v>-1.1371302852207299</v>
       </c>
       <c r="D27">
-        <v>1.1231220192106499</v>
+        <v>2.5451417660244702</v>
       </c>
       <c r="E27">
-        <v>1.22881739907193</v>
+        <v>1.33825705552716</v>
       </c>
       <c r="F27">
-        <v>-0.964864380060245</v>
+        <v>-3.85816193916961</v>
       </c>
       <c r="G27">
-        <v>3.4224991782041099</v>
+        <v>6.5346760502239203</v>
       </c>
       <c r="H27">
-        <v>-2.9406174243731101E-2</v>
+        <v>6.74721929266821</v>
       </c>
       <c r="I27">
-        <v>-0.389192212479331</v>
+        <v>-2428.7272548595802</v>
       </c>
       <c r="J27">
-        <v>0.33037986399186903</v>
+        <v>2442.2216934449102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1827,19 +1832,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.62322924281683656</v>
+        <v>1.5554815670934898</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.64069389882304295</v>
+        <v>2.7723077055807432</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.79696489931337067</v>
+        <v>2.4211950985672912</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1850,19 +1855,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.43822703958092035</v>
+        <v>1.4017766424804392</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.72920734466268355</v>
+        <v>2.7668303179889051</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>1.6266184641236945</v>
+        <v>2.3907255630198225</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1893,19 +1898,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.24514420594156686</v>
+        <v>0.78415385380355773</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.40791858860430519</v>
+        <v>1.5477648798829935</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.90993036883079481</v>
+        <v>1.3373718799532888</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1931,7 +1936,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1991,31 +1996,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.35331789729024998</v>
+        <v>0.35217993580690898</v>
       </c>
       <c r="C3">
-        <v>0.24189899378257801</v>
+        <v>0.25373426383577802</v>
       </c>
       <c r="D3">
-        <v>0.46473680079792201</v>
+        <v>0.45062560777804</v>
       </c>
       <c r="E3">
-        <v>1.43626925378264E-2</v>
+        <v>-5.6644890956958703E-2</v>
       </c>
       <c r="F3">
-        <v>-0.36602493665904501</v>
+        <v>-0.34271392004418499</v>
       </c>
       <c r="G3">
-        <v>0.39475032173469699</v>
+        <v>0.22942413813026699</v>
       </c>
       <c r="H3">
-        <v>0.354290083295908</v>
+        <v>0.35639817851178102</v>
       </c>
       <c r="I3">
-        <v>0.23632425410380301</v>
+        <v>0.25029453419396303</v>
       </c>
       <c r="J3">
-        <v>0.47225591248801402</v>
+        <v>0.46250182282959901</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2023,31 +2028,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.37115937551949402</v>
+        <v>0.26358390039430202</v>
       </c>
       <c r="C4">
-        <v>0.26895275745124197</v>
+        <v>0.18501344748652401</v>
       </c>
       <c r="D4">
-        <v>0.473365993587746</v>
+        <v>0.342154353302079</v>
       </c>
       <c r="E4">
-        <v>0.23162255968857001</v>
+        <v>0.23547477434657199</v>
       </c>
       <c r="F4">
-        <v>0.107799745033971</v>
+        <v>0.12185716965443499</v>
       </c>
       <c r="G4">
-        <v>0.35544537434316797</v>
+        <v>0.34909237903870899</v>
       </c>
       <c r="H4">
-        <v>0.24624714063639999</v>
+        <v>0.23956372234665599</v>
       </c>
       <c r="I4">
-        <v>0.14892425145532001</v>
+        <v>0.15319895155688701</v>
       </c>
       <c r="J4">
-        <v>0.34357002981748103</v>
+        <v>0.32592849313642602</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2055,31 +2060,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.41843132891192802</v>
+        <v>0.40437928584954902</v>
       </c>
       <c r="C5">
-        <v>0.34362437151277903</v>
+        <v>0.34390099967752802</v>
       </c>
       <c r="D5">
-        <v>0.49323828631107702</v>
+        <v>0.46485757202157002</v>
       </c>
       <c r="E5">
-        <v>0.438236179934961</v>
+        <v>0.31158002966385001</v>
       </c>
       <c r="F5">
-        <v>0.32513003953654901</v>
+        <v>0.241604228187974</v>
       </c>
       <c r="G5">
-        <v>0.55134232033337305</v>
+        <v>0.38155583113972602</v>
       </c>
       <c r="H5">
-        <v>0.37908018506597502</v>
+        <v>0.376101912863816</v>
       </c>
       <c r="I5">
-        <v>0.21710632798132201</v>
+        <v>0.23123368830118099</v>
       </c>
       <c r="J5">
-        <v>0.54105404215062702</v>
+        <v>0.52097013742645104</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2087,31 +2092,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.37796015201598898</v>
+        <v>0.376073585834723</v>
       </c>
       <c r="C6">
-        <v>0.247666566818532</v>
+        <v>0.26018843119791402</v>
       </c>
       <c r="D6">
-        <v>0.50825373721344702</v>
+        <v>0.49195874047153199</v>
       </c>
       <c r="E6">
-        <v>0.25752753096677</v>
+        <v>0.25810278071439802</v>
       </c>
       <c r="F6">
-        <v>0.17049634574387301</v>
+        <v>0.17558377939436001</v>
       </c>
       <c r="G6">
-        <v>0.34455871618966599</v>
+        <v>0.34062178203443599</v>
       </c>
       <c r="H6">
-        <v>0.20474858628829601</v>
+        <v>0.20964826616847701</v>
       </c>
       <c r="I6">
-        <v>4.6669924204213099E-2</v>
+        <v>7.2064376756229301E-2</v>
       </c>
       <c r="J6">
-        <v>0.36282724837238001</v>
+        <v>0.34723215558072601</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2119,31 +2124,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.90110875528291401</v>
+        <v>0.89894993166457005</v>
       </c>
       <c r="C7">
-        <v>0.10346846042171599</v>
+        <v>4.2131588847830498E-2</v>
       </c>
       <c r="D7">
-        <v>1.69874905014411</v>
+        <v>1.7557682744813099</v>
       </c>
       <c r="E7">
-        <v>0.31260623786781999</v>
+        <v>0.29778366105785298</v>
       </c>
       <c r="F7">
-        <v>0.152824962210866</v>
+        <v>0.17353649471549201</v>
       </c>
       <c r="G7">
-        <v>0.47238751352477398</v>
+        <v>0.42203082740021303</v>
       </c>
       <c r="H7">
-        <v>0.36517932497727201</v>
+        <v>0.17362991332654201</v>
       </c>
       <c r="I7">
-        <v>-4.6170658185416401E-2</v>
+        <v>2.4094110669408399E-2</v>
       </c>
       <c r="J7">
-        <v>0.77652930813996102</v>
+        <v>0.32316571598367599</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2151,31 +2156,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.39993767237150601</v>
+        <v>0.40133785956217199</v>
       </c>
       <c r="C8">
-        <v>0.30126658894499397</v>
+        <v>0.31260204911759898</v>
       </c>
       <c r="D8">
-        <v>0.498608755798019</v>
+        <v>0.49007367000674601</v>
       </c>
       <c r="E8">
-        <v>0.245351426090021</v>
+        <v>0.23855108314696</v>
       </c>
       <c r="F8">
-        <v>0.14703528371055399</v>
+        <v>0.151562362866728</v>
       </c>
       <c r="G8">
-        <v>0.34366756846948698</v>
+        <v>0.32553980342719202</v>
       </c>
       <c r="H8">
-        <v>0.254341203566045</v>
+        <v>0.22192259352131</v>
       </c>
       <c r="I8">
-        <v>0.17153060284098501</v>
+        <v>0.14963144739390699</v>
       </c>
       <c r="J8">
-        <v>0.33715180429110497</v>
+        <v>0.294213739648713</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2183,31 +2188,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.47984164667990897</v>
+        <v>0.478179296620245</v>
       </c>
       <c r="C9">
-        <v>0.28951357410955098</v>
+        <v>0.30750800665147099</v>
       </c>
       <c r="D9">
-        <v>0.67016971925026603</v>
+        <v>0.64885058658901895</v>
       </c>
       <c r="E9">
-        <v>0.24875406293600699</v>
+        <v>0.25428460526047902</v>
       </c>
       <c r="F9">
-        <v>0.117304328903861</v>
+        <v>0.13570430690199001</v>
       </c>
       <c r="G9">
-        <v>0.38020379696815298</v>
+        <v>0.37286490361896701</v>
       </c>
       <c r="H9">
-        <v>0.354164047799645</v>
+        <v>0.204021052867119</v>
       </c>
       <c r="I9">
-        <v>-0.138124104628262</v>
+        <v>-0.14139236141933301</v>
       </c>
       <c r="J9">
-        <v>0.84645220022755197</v>
+        <v>0.54943446715357003</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2215,31 +2220,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.45794781601228801</v>
+        <v>0.33014380970173202</v>
       </c>
       <c r="C10">
-        <v>0.37710926059953598</v>
+        <v>0.258104904805387</v>
       </c>
       <c r="D10">
-        <v>0.53878637142504104</v>
+        <v>0.40218271459807797</v>
       </c>
       <c r="E10">
-        <v>0.32325038742575901</v>
+        <v>0.266826049417064</v>
       </c>
       <c r="F10">
-        <v>0.140144914318028</v>
+        <v>0.165040470490077</v>
       </c>
       <c r="G10">
-        <v>0.50635586053349002</v>
+        <v>0.36861162834405098</v>
       </c>
       <c r="H10">
-        <v>0.44387147107895197</v>
+        <v>0.43098866503072603</v>
       </c>
       <c r="I10">
-        <v>0.287163068569667</v>
+        <v>0.230222566884</v>
       </c>
       <c r="J10">
-        <v>0.60057987358823794</v>
+        <v>0.63175476317745105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2247,31 +2252,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.56356856182785098</v>
+        <v>0.33904394914880498</v>
       </c>
       <c r="C11">
-        <v>0.39032632082038898</v>
+        <v>0.20924852780436501</v>
       </c>
       <c r="D11">
-        <v>0.73681080283531297</v>
+        <v>0.46883937049324498</v>
       </c>
       <c r="E11">
-        <v>-2.1500598008137501E-3</v>
+        <v>2.1923890257886401E-2</v>
       </c>
       <c r="F11">
-        <v>-0.38275770980882701</v>
+        <v>-0.279786986936711</v>
       </c>
       <c r="G11">
-        <v>0.37845759020719999</v>
+        <v>0.32363476745248398</v>
       </c>
       <c r="H11">
-        <v>1.8148335080684998E-2</v>
+        <v>-0.117782608040284</v>
       </c>
       <c r="I11">
-        <v>-0.33940423265546799</v>
+        <v>-0.40878968727936499</v>
       </c>
       <c r="J11">
-        <v>0.37570090281683799</v>
+        <v>0.173224471198797</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2279,31 +2284,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.28619596833112099</v>
+        <v>0.29109238469513798</v>
       </c>
       <c r="C12">
-        <v>0.11047351653124</v>
+        <v>0.134270222805559</v>
       </c>
       <c r="D12">
-        <v>0.46191842013100098</v>
+        <v>0.44791454658471702</v>
       </c>
       <c r="E12">
-        <v>0.27573259984916298</v>
+        <v>0.255029743231308</v>
       </c>
       <c r="F12">
-        <v>0.14614417259227899</v>
+        <v>0.15972896797988201</v>
       </c>
       <c r="G12">
-        <v>0.405321027106047</v>
+        <v>0.350330518482733</v>
       </c>
       <c r="H12">
-        <v>0.49202105024194398</v>
+        <v>0.41119537015720298</v>
       </c>
       <c r="I12">
-        <v>0.23352860777371501</v>
+        <v>0.20441149621718899</v>
       </c>
       <c r="J12">
-        <v>0.75051349271017298</v>
+        <v>0.61797924409721805</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2311,31 +2316,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.224581555290431</v>
+        <v>0.16423376449552801</v>
       </c>
       <c r="C13">
-        <v>9.8489555256960105E-3</v>
+        <v>3.06884345243481E-2</v>
       </c>
       <c r="D13">
-        <v>0.43931415505516502</v>
+        <v>0.29777909446670903</v>
       </c>
       <c r="E13">
-        <v>0.22516378410191501</v>
+        <v>0.22325810815977801</v>
       </c>
       <c r="F13">
-        <v>0.104880392726784</v>
+        <v>0.117382138401254</v>
       </c>
       <c r="G13">
-        <v>0.34544717547704501</v>
+        <v>0.32913407791830301</v>
       </c>
       <c r="H13">
-        <v>0.41831060914159102</v>
+        <v>0.256611235175633</v>
       </c>
       <c r="I13">
-        <v>0.266344042016808</v>
+        <v>0.169979097321698</v>
       </c>
       <c r="J13">
-        <v>0.57027717626637497</v>
+        <v>0.34324337302956798</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2343,31 +2348,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.32940736260522702</v>
+        <v>0.228428177616223</v>
       </c>
       <c r="C14">
-        <v>-0.107111096638398</v>
+        <v>-0.114281766711089</v>
       </c>
       <c r="D14">
-        <v>0.76592582184885105</v>
+        <v>0.57113812194353497</v>
       </c>
       <c r="E14">
-        <v>0.37444162034435002</v>
+        <v>0.37155103856624599</v>
       </c>
       <c r="F14">
-        <v>0.216501555531246</v>
+        <v>0.231063454721603</v>
       </c>
       <c r="G14">
-        <v>0.53238168515745299</v>
+        <v>0.51203862241088904</v>
       </c>
       <c r="H14">
-        <v>0.39827491389991398</v>
+        <v>0.39506634343443298</v>
       </c>
       <c r="I14">
-        <v>0.258774795003125</v>
+        <v>0.26823757085211197</v>
       </c>
       <c r="J14">
-        <v>0.53777503279670302</v>
+        <v>0.52189511601675398</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2375,31 +2380,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.75483219693367498</v>
+        <v>0.75246098988562604</v>
       </c>
       <c r="C15">
-        <v>8.8587343496622104E-2</v>
+        <v>0.122325447718581</v>
       </c>
       <c r="D15">
-        <v>1.42107705037073</v>
+        <v>1.3825965320526701</v>
       </c>
       <c r="E15">
-        <v>0.31948300682059499</v>
+        <v>0.26764090483902397</v>
       </c>
       <c r="F15">
-        <v>0.220199887379915</v>
+        <v>0.207371410859824</v>
       </c>
       <c r="G15">
-        <v>0.41876612626127402</v>
+        <v>0.32791039881822398</v>
       </c>
       <c r="H15">
-        <v>0.31481510353552999</v>
+        <v>0.30397861102322898</v>
       </c>
       <c r="I15">
-        <v>0.168276277770393</v>
+        <v>0.16933557703559099</v>
       </c>
       <c r="J15">
-        <v>0.46135392930066699</v>
+        <v>0.43862164501086698</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2407,31 +2412,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.59002632111840203</v>
+        <v>0.57855893544532</v>
       </c>
       <c r="C16">
-        <v>0.19027295546681799</v>
+        <v>0.138660179583184</v>
       </c>
       <c r="D16">
-        <v>0.98977968676998596</v>
+        <v>1.0184576913074599</v>
       </c>
       <c r="E16">
-        <v>0.41283440445632602</v>
+        <v>0.40666095811889202</v>
       </c>
       <c r="F16">
-        <v>0.31819208709170399</v>
+        <v>0.30535407874881998</v>
       </c>
       <c r="G16">
-        <v>0.50747672182094805</v>
+        <v>0.50796783748896401</v>
       </c>
       <c r="H16">
-        <v>0.20437169047843301</v>
+        <v>0.10434175667777</v>
       </c>
       <c r="I16">
-        <v>-3.0099264097678501E-2</v>
+        <v>-1.2135527849500101E-2</v>
       </c>
       <c r="J16">
-        <v>0.43884264505454501</v>
+        <v>0.22081904120503901</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2439,31 +2444,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.53121695945207403</v>
+        <v>0.52298959300064496</v>
       </c>
       <c r="C17">
-        <v>0.40937038354364202</v>
+        <v>0.41614659566534401</v>
       </c>
       <c r="D17">
-        <v>0.65306353536050599</v>
+        <v>0.62983259033594496</v>
       </c>
       <c r="E17">
-        <v>0.229890962554439</v>
+        <v>0.23707388645092201</v>
       </c>
       <c r="F17">
-        <v>9.1130670102377201E-2</v>
+        <v>0.11079741333990301</v>
       </c>
       <c r="G17">
-        <v>0.36865125500649998</v>
+        <v>0.36335035956194101</v>
       </c>
       <c r="H17">
-        <v>0.65217895813711102</v>
+        <v>0.64492276420408201</v>
       </c>
       <c r="I17">
-        <v>0.194088443318502</v>
+        <v>0.17822704557821101</v>
       </c>
       <c r="J17">
-        <v>1.1102694729557201</v>
+        <v>1.11161848282995</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2471,31 +2476,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.41622862234089397</v>
+        <v>0.257723963387608</v>
       </c>
       <c r="C18">
-        <v>0.268496688064574</v>
+        <v>0.15464202986875</v>
       </c>
       <c r="D18">
-        <v>0.563960556617214</v>
+        <v>0.36080589690646597</v>
       </c>
       <c r="E18">
-        <v>0.26609613631038198</v>
+        <v>0.26360676056821303</v>
       </c>
       <c r="F18">
-        <v>0.12526151580167899</v>
+        <v>0.142018352605431</v>
       </c>
       <c r="G18">
-        <v>0.40693075681908403</v>
+        <v>0.385195168530995</v>
       </c>
       <c r="H18">
-        <v>0.420135848371262</v>
+        <v>0.37727533532869001</v>
       </c>
       <c r="I18">
-        <v>0.20505688591806201</v>
+        <v>0.226808890724367</v>
       </c>
       <c r="J18">
-        <v>0.63521481082446196</v>
+        <v>0.52774177993301297</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2503,31 +2508,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.73327466244950501</v>
+        <v>0.72557876822651901</v>
       </c>
       <c r="C19">
-        <v>0.26519455006734599</v>
+        <v>4.1704636608330597E-2</v>
       </c>
       <c r="D19">
-        <v>1.20135477483166</v>
+        <v>1.40945289984471</v>
       </c>
       <c r="E19">
-        <v>0.36459317393291302</v>
+        <v>0.35388237131901501</v>
       </c>
       <c r="F19">
-        <v>0.22724153969081701</v>
+        <v>0.24218623664470701</v>
       </c>
       <c r="G19">
-        <v>0.50194480817500897</v>
+        <v>0.46557850599332401</v>
       </c>
       <c r="H19">
-        <v>0.28540023045284502</v>
+        <v>0.28853598832712202</v>
       </c>
       <c r="I19">
-        <v>0.13783854853034599</v>
+        <v>0.15744963681011401</v>
       </c>
       <c r="J19">
-        <v>0.43296191237534398</v>
+        <v>0.419622339844131</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2535,31 +2540,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.43862450916747697</v>
+        <v>0.402227471509921</v>
       </c>
       <c r="C20">
-        <v>0.21494468738220501</v>
+        <v>8.7519404728928704E-2</v>
       </c>
       <c r="D20">
-        <v>0.66230433095274799</v>
+        <v>0.71693553829091405</v>
       </c>
       <c r="E20">
-        <v>0.58352407368790804</v>
+        <v>0.40435381551958899</v>
       </c>
       <c r="F20">
-        <v>0.36671430643643399</v>
+        <v>0.220875970197981</v>
       </c>
       <c r="G20">
-        <v>0.80033384093938098</v>
+        <v>0.58783166084119698</v>
       </c>
       <c r="H20">
-        <v>0.284415537444202</v>
+        <v>0.28465795807641597</v>
       </c>
       <c r="I20">
-        <v>0.13330780159208999</v>
+        <v>0.15196063939691201</v>
       </c>
       <c r="J20">
-        <v>0.43552327329631402</v>
+        <v>0.41735527675591999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2567,31 +2572,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.42432029222268403</v>
+        <v>0.33357601883365501</v>
       </c>
       <c r="C21">
-        <v>0.21334329118030801</v>
+        <v>0.17727329660681801</v>
       </c>
       <c r="D21">
-        <v>0.63529729326506101</v>
+        <v>0.48987874106049201</v>
       </c>
       <c r="E21">
-        <v>0.29597539382336302</v>
+        <v>0.29857180337691402</v>
       </c>
       <c r="F21">
-        <v>0.18902235277689</v>
+        <v>0.19971706721582699</v>
       </c>
       <c r="G21">
-        <v>0.40292843486983598</v>
+        <v>0.397426539538001</v>
       </c>
       <c r="H21">
-        <v>0.33495245779469202</v>
+        <v>0.31769504665751302</v>
       </c>
       <c r="I21">
-        <v>8.3693017459836802E-2</v>
+        <v>9.2384756998092496E-2</v>
       </c>
       <c r="J21">
-        <v>0.58621189812954599</v>
+        <v>0.54300533631693304</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2599,31 +2604,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.77994958953136995</v>
+        <v>0.53031317966055802</v>
       </c>
       <c r="C22">
-        <v>0.45315417375442302</v>
+        <v>0.23034004594901</v>
       </c>
       <c r="D22">
-        <v>1.1067450053083201</v>
+        <v>0.83028631337210601</v>
       </c>
       <c r="E22">
-        <v>0.28571333507234498</v>
+        <v>0.28966148125236801</v>
       </c>
       <c r="F22">
-        <v>0.196079226000344</v>
+        <v>0.207729646722146</v>
       </c>
       <c r="G22">
-        <v>0.37534744414434601</v>
+        <v>0.37159331578258897</v>
       </c>
       <c r="H22">
-        <v>0.46054558683724001</v>
+        <v>0.45754559767564001</v>
       </c>
       <c r="I22">
-        <v>0.35064467489506601</v>
+        <v>0.353500029462263</v>
       </c>
       <c r="J22">
-        <v>0.570446498779413</v>
+        <v>0.56159116588901703</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2631,31 +2636,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.62073292920806999</v>
+        <v>0.61838857047609497</v>
       </c>
       <c r="C23">
-        <v>0.43372362397456998</v>
+        <v>0.43417331791526897</v>
       </c>
       <c r="D23">
-        <v>0.80774223444157101</v>
+        <v>0.80260382303692201</v>
       </c>
       <c r="E23">
-        <v>0.24032090706881601</v>
+        <v>0.20805953264795399</v>
       </c>
       <c r="F23">
-        <v>8.51959807503119E-2</v>
+        <v>9.1660696141413603E-2</v>
       </c>
       <c r="G23">
-        <v>0.39544583338732098</v>
+        <v>0.324458369154494</v>
       </c>
       <c r="H23">
-        <v>0.47108993400209898</v>
+        <v>0.46107475480793197</v>
       </c>
       <c r="I23">
-        <v>0.21943978932026201</v>
+        <v>0.20717933846009001</v>
       </c>
       <c r="J23">
-        <v>0.72274007868393597</v>
+        <v>0.71497017115577399</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2663,31 +2668,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.44515331303379402</v>
+        <v>0.43575952471491702</v>
       </c>
       <c r="C24">
-        <v>0.35553306199336498</v>
+        <v>0.30428581181623299</v>
       </c>
       <c r="D24">
-        <v>0.53477356407422405</v>
+        <v>0.567233237613601</v>
       </c>
       <c r="E24">
-        <v>0.29717901901661797</v>
+        <v>0.297502596534993</v>
       </c>
       <c r="F24">
-        <v>0.217403950312788</v>
+        <v>0.22775325043434799</v>
       </c>
       <c r="G24">
-        <v>0.37695408772044797</v>
+        <v>0.36725194263563699</v>
       </c>
       <c r="H24">
-        <v>0.36992919584233902</v>
+        <v>0.27695250632068402</v>
       </c>
       <c r="I24">
-        <v>-5.96727882045964E-2</v>
+        <v>-0.10274410582658</v>
       </c>
       <c r="J24">
-        <v>0.79953117988927402</v>
+        <v>0.65664911846794805</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2695,31 +2700,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.51954943025906297</v>
+        <v>0.51574252007015198</v>
       </c>
       <c r="C25">
-        <v>0.31216115727386601</v>
+        <v>0.32339930080412199</v>
       </c>
       <c r="D25">
-        <v>0.72693770324426099</v>
+        <v>0.70808573933618102</v>
       </c>
       <c r="E25">
-        <v>0.40730696934670602</v>
+        <v>0.361832559539218</v>
       </c>
       <c r="F25">
-        <v>0.291535010894165</v>
+        <v>0.27928738222079902</v>
       </c>
       <c r="G25">
-        <v>0.52307892779924803</v>
+        <v>0.44437773685763698</v>
       </c>
       <c r="H25">
-        <v>0.23513703008266101</v>
+        <v>0.218440025968685</v>
       </c>
       <c r="I25">
-        <v>0.13931857309513901</v>
+        <v>0.136857195577783</v>
       </c>
       <c r="J25">
-        <v>0.33095548707018402</v>
+        <v>0.30002285635958698</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2727,31 +2732,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.34955263542210802</v>
+        <v>0.34489615457165101</v>
       </c>
       <c r="C26">
-        <v>0.211539983518785</v>
+        <v>0.220770633757291</v>
       </c>
       <c r="D26">
-        <v>0.48756528732543197</v>
+        <v>0.46902167538601203</v>
       </c>
       <c r="E26">
-        <v>-8.33619829115613E-2</v>
+        <v>-2.0646931066832502E-2</v>
       </c>
       <c r="F26">
-        <v>-0.434724364240063</v>
+        <v>-0.305348399956275</v>
       </c>
       <c r="G26">
-        <v>0.26800039841694001</v>
+        <v>0.26405453782261001</v>
       </c>
       <c r="H26">
-        <v>0.15516234226898001</v>
+        <v>0.16211897232984099</v>
       </c>
       <c r="I26">
-        <v>1.7987852142618201E-2</v>
+        <v>3.5590976182978198E-2</v>
       </c>
       <c r="J26">
-        <v>0.29233683239534303</v>
+        <v>0.28864696847670401</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2759,31 +2764,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.40390799221137103</v>
+        <v>0.38355387517727801</v>
       </c>
       <c r="C27">
-        <v>0.25179195858491898</v>
+        <v>0.197978096239146</v>
       </c>
       <c r="D27">
-        <v>0.55602402583782295</v>
+        <v>0.56912965411541006</v>
       </c>
       <c r="E27">
-        <v>0.23744024263035399</v>
+        <v>0.22773467056083099</v>
       </c>
       <c r="F27">
-        <v>0.12234800182809299</v>
+        <v>0.13101959218518699</v>
       </c>
       <c r="G27">
-        <v>0.35253248343261501</v>
+        <v>0.32444974893647599</v>
       </c>
       <c r="H27">
-        <v>0.44977277893074102</v>
+        <v>0.44987741312223201</v>
       </c>
       <c r="I27">
-        <v>0.16917169930992501</v>
+        <v>0.19951934468027399</v>
       </c>
       <c r="J27">
-        <v>0.73037385855155601</v>
+        <v>0.70023548156419102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2792,19 +2797,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.4868331018195759</v>
+        <v>0.43717581785399368</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.27207578655006215</v>
+        <v>0.25094621130106143</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.3426633458100305</v>
+        <v>0.3001912550353299</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2815,19 +2820,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.16536181068015482</v>
+        <v>0.1746469328437586</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.13948414491543126</v>
+        <v>0.11589319445767407</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.12952658460937272</v>
+        <v>0.1486598623034143</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2858,19 +2863,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>9.2503396894478604E-2</v>
+        <v>9.7697494232798568E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>7.802743066569226E-2</v>
+        <v>6.4830652979622885E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>7.2457171430483108E-2</v>
+        <v>8.3160326972529966E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2895,7 +2900,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2955,31 +2960,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.547903413464494</v>
+        <v>0.61887525463302995</v>
       </c>
       <c r="C3">
-        <v>-5.0030380608910401E-2</v>
+        <v>-0.19122399705027801</v>
       </c>
       <c r="D3">
-        <v>1.1458372075379</v>
+        <v>1.4289745063163399</v>
       </c>
       <c r="E3">
-        <v>0.80154891529634797</v>
+        <v>0.80284427835267602</v>
       </c>
       <c r="F3">
-        <v>0.174491708432434</v>
+        <v>8.5544680724884498E-2</v>
       </c>
       <c r="G3">
-        <v>1.42860612216026</v>
+        <v>1.52014387598047</v>
       </c>
       <c r="H3">
-        <v>0.36478753911678002</v>
+        <v>0.82110222080122297</v>
       </c>
       <c r="I3">
-        <v>5.1530984285329998E-2</v>
+        <v>4.4657037934055802E-2</v>
       </c>
       <c r="J3">
-        <v>0.67804409394822995</v>
+        <v>1.5975474036683901</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2987,31 +2992,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.32306746690681198</v>
+        <v>1.7660783312561099</v>
       </c>
       <c r="C4">
-        <v>-0.32161689007402799</v>
+        <v>-7.0139464773497702</v>
       </c>
       <c r="D4">
-        <v>0.96775182388765202</v>
+        <v>10.546103139862</v>
       </c>
       <c r="E4">
-        <v>0.85530894051152795</v>
+        <v>1.18511110333271</v>
       </c>
       <c r="F4">
-        <v>0.36094368822056</v>
+        <v>0.85349572440945398</v>
       </c>
       <c r="G4">
-        <v>1.3496741928025</v>
+        <v>1.5167264822559701</v>
       </c>
       <c r="H4">
-        <v>0.557484902462692</v>
+        <v>0.79245480788389999</v>
       </c>
       <c r="I4">
-        <v>0.15507692548261801</v>
+        <v>0.20962092141275901</v>
       </c>
       <c r="J4">
-        <v>0.95989287944276602</v>
+        <v>1.37528869435504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3019,31 +3024,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.109600445669259</v>
+        <v>0.402585774745775</v>
       </c>
       <c r="C5">
-        <v>-0.180520730657074</v>
+        <v>-0.31164366835885399</v>
       </c>
       <c r="D5">
-        <v>0.39972162199559202</v>
+        <v>1.1168152178504001</v>
       </c>
       <c r="E5">
-        <v>0.68856990725846401</v>
+        <v>0.70193786242353995</v>
       </c>
       <c r="F5">
-        <v>0.16822228555400401</v>
+        <v>0.258957393449531</v>
       </c>
       <c r="G5">
-        <v>1.2089175289629199</v>
+        <v>1.1449183313975499</v>
       </c>
       <c r="H5">
-        <v>0.940077222668802</v>
+        <v>0.940138047593302</v>
       </c>
       <c r="I5">
-        <v>0.47799530810823998</v>
+        <v>0.41136500885082</v>
       </c>
       <c r="J5">
-        <v>1.40215913722936</v>
+        <v>1.4689110863357799</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3051,31 +3056,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.36876116980561102</v>
+        <v>0.74326854247209995</v>
       </c>
       <c r="C6">
-        <v>5.74097529167856E-2</v>
+        <v>3.8872871065082602E-2</v>
       </c>
       <c r="D6">
-        <v>0.68011258669443597</v>
+        <v>1.44766421387912</v>
       </c>
       <c r="E6">
-        <v>0.71606007839977703</v>
+        <v>0.71588679417530898</v>
       </c>
       <c r="F6">
-        <v>0.227522693669923</v>
+        <v>0.15671857156114599</v>
       </c>
       <c r="G6">
-        <v>1.2045974631296299</v>
+        <v>1.2750550167894701</v>
       </c>
       <c r="H6">
-        <v>0.554652410259315</v>
+        <v>0.56014639593307003</v>
       </c>
       <c r="I6">
-        <v>0.24576575452913399</v>
+        <v>0.21001209321692199</v>
       </c>
       <c r="J6">
-        <v>0.86353906598949604</v>
+        <v>0.91028069864921801</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3083,31 +3088,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.56869293135391397</v>
+        <v>0.841339490116501</v>
       </c>
       <c r="C7">
-        <v>-0.41464882892871202</v>
+        <v>-1.3829714175610499</v>
       </c>
       <c r="D7">
-        <v>1.55203469163654</v>
+        <v>3.0656503977940601</v>
       </c>
       <c r="E7">
-        <v>0.77569068781616302</v>
+        <v>0.78030946752937902</v>
       </c>
       <c r="F7">
-        <v>0.28618501529787999</v>
+        <v>0.25806442321348799</v>
       </c>
       <c r="G7">
-        <v>1.26519636033445</v>
+        <v>1.3025545118452699</v>
       </c>
       <c r="H7">
-        <v>0.37247366543657801</v>
+        <v>0.41238665423291798</v>
       </c>
       <c r="I7">
-        <v>-7.0072249658836003E-2</v>
+        <v>-0.133174512834349</v>
       </c>
       <c r="J7">
-        <v>0.81501958053199197</v>
+        <v>0.95794782130018497</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3115,31 +3120,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.41046345749656399</v>
+        <v>0.50945473224561699</v>
       </c>
       <c r="C8">
-        <v>-2.4468649594114801E-2</v>
+        <v>-0.33757797405346301</v>
       </c>
       <c r="D8">
-        <v>0.84539556458724197</v>
+        <v>1.3564874385447001</v>
       </c>
       <c r="E8">
-        <v>0.50518281064770798</v>
+        <v>0.51523596698500695</v>
       </c>
       <c r="F8">
-        <v>0.15171078354002901</v>
+        <v>0.112054078677185</v>
       </c>
       <c r="G8">
-        <v>0.85865483775538798</v>
+        <v>0.91841785529282904</v>
       </c>
       <c r="H8">
-        <v>0.63002910855592598</v>
+        <v>0.64540108227039605</v>
       </c>
       <c r="I8">
-        <v>0.13543659974081201</v>
+        <v>0.133618586199619</v>
       </c>
       <c r="J8">
-        <v>1.1246216173710399</v>
+        <v>1.1571835783411699</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3147,31 +3152,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.34375054261131699</v>
+        <v>0.81895124516669004</v>
       </c>
       <c r="C9">
-        <v>0.14828577165597001</v>
+        <v>0.21637146061894799</v>
       </c>
       <c r="D9">
-        <v>0.53921531356666397</v>
+        <v>1.4215310297144299</v>
       </c>
       <c r="E9">
-        <v>0.63519685033971196</v>
+        <v>0.672158400478155</v>
       </c>
       <c r="F9">
-        <v>-0.19567435846673101</v>
+        <v>-0.235995242018322</v>
       </c>
       <c r="G9">
-        <v>1.4660680591461499</v>
+        <v>1.58031204297463</v>
       </c>
       <c r="H9">
-        <v>1.00673554837003</v>
+        <v>1.01331894669935</v>
       </c>
       <c r="I9">
-        <v>-0.62028759026267499</v>
+        <v>-0.31591030869486603</v>
       </c>
       <c r="J9">
-        <v>2.6337586870027399</v>
+        <v>2.34254820209356</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3179,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.119219927089889</v>
+        <v>1.5810676370296199</v>
       </c>
       <c r="C10">
-        <v>-0.27529626465785501</v>
+        <v>-5.0400403381366399</v>
       </c>
       <c r="D10">
-        <v>0.51373611883763304</v>
+        <v>8.2021756121958802</v>
       </c>
       <c r="E10">
-        <v>0.59874966020354004</v>
+        <v>0.60561314507473396</v>
       </c>
       <c r="F10">
-        <v>0.17131679063184399</v>
+        <v>0.12339514355433399</v>
       </c>
       <c r="G10">
-        <v>1.02618252977524</v>
+        <v>1.08783114659513</v>
       </c>
       <c r="H10">
-        <v>0.73841175979211704</v>
+        <v>0.81796499295699898</v>
       </c>
       <c r="I10">
-        <v>0.288610617253858</v>
+        <v>0.29619678744459099</v>
       </c>
       <c r="J10">
-        <v>1.18821290233038</v>
+        <v>1.3397331984694101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3211,31 +3216,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.36854663749695998</v>
+        <v>0.71874611291280299</v>
       </c>
       <c r="C11">
-        <v>-0.28393937951875298</v>
+        <v>0.34634269078765501</v>
       </c>
       <c r="D11">
-        <v>1.02103265451267</v>
+        <v>1.0911495350379501</v>
       </c>
       <c r="E11">
-        <v>0.79539650853826804</v>
+        <v>0.93254419161192004</v>
       </c>
       <c r="F11">
-        <v>0.15319129584463301</v>
+        <v>0.153744029672091</v>
       </c>
       <c r="G11">
-        <v>1.4376017212319001</v>
+        <v>1.7113443535517501</v>
       </c>
       <c r="H11">
-        <v>0.44597823608494602</v>
+        <v>0.45002468048427002</v>
       </c>
       <c r="I11">
-        <v>0.11800956809268</v>
+        <v>6.8268156947862396E-2</v>
       </c>
       <c r="J11">
-        <v>0.77394690407721101</v>
+        <v>0.83178120402067801</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3243,31 +3248,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.1443497987754401</v>
+        <v>1.2027288553212101</v>
       </c>
       <c r="C12">
-        <v>-0.74525559768875105</v>
+        <v>0.13034055550655399</v>
       </c>
       <c r="D12">
-        <v>3.03395519523963</v>
+        <v>2.2751171551358702</v>
       </c>
       <c r="E12">
-        <v>0.33749538995310102</v>
+        <v>0.73182546058640396</v>
       </c>
       <c r="F12">
-        <v>9.6491747236877298E-2</v>
+        <v>0.191026237278549</v>
       </c>
       <c r="G12">
-        <v>0.57849903266932601</v>
+        <v>1.2726246838942601</v>
       </c>
       <c r="H12">
-        <v>0.84121525235055905</v>
+        <v>0.84239144719565295</v>
       </c>
       <c r="I12">
-        <v>0.349595957270048</v>
+        <v>0.28517048551256502</v>
       </c>
       <c r="J12">
-        <v>1.3328345474310701</v>
+        <v>1.3996124088787401</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3275,31 +3280,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.45383984020410201</v>
+        <v>0.93330837061829097</v>
       </c>
       <c r="C13">
-        <v>-6.6106615728327198E-2</v>
+        <v>0.14140945667062099</v>
       </c>
       <c r="D13">
-        <v>0.973786296136531</v>
+        <v>1.7252072845659601</v>
       </c>
       <c r="E13">
-        <v>1.0540098062618799</v>
+        <v>1.05447008080593</v>
       </c>
       <c r="F13">
-        <v>-0.25078700849727598</v>
+        <v>-0.43636130239063298</v>
       </c>
       <c r="G13">
-        <v>2.3588066210210399</v>
+        <v>2.54530146400249</v>
       </c>
       <c r="H13">
-        <v>0.46770207928913199</v>
+        <v>0.47810574130185801</v>
       </c>
       <c r="I13">
-        <v>0.21427190256030601</v>
+        <v>0.203616681079621</v>
       </c>
       <c r="J13">
-        <v>0.72113225601795905</v>
+        <v>0.75259480152409497</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3307,31 +3312,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.2871149892442197</v>
+        <v>6.4822666589174798</v>
       </c>
       <c r="C14">
-        <v>-278.066750302652</v>
+        <v>-470.82119187099198</v>
       </c>
       <c r="D14">
-        <v>290.64098028114</v>
+        <v>483.78572518882697</v>
       </c>
       <c r="E14">
-        <v>0.89900064981755801</v>
+        <v>0.90201466973100997</v>
       </c>
       <c r="F14">
-        <v>0.186661171514549</v>
+        <v>0.147146066734299</v>
       </c>
       <c r="G14">
-        <v>1.6113401281205699</v>
+        <v>1.6568832727277201</v>
       </c>
       <c r="H14">
-        <v>1.18436486753227</v>
+        <v>1.18438293336085</v>
       </c>
       <c r="I14">
-        <v>0.42113624356097501</v>
+        <v>0.311050267954189</v>
       </c>
       <c r="J14">
-        <v>1.94759349150356</v>
+        <v>2.0577155987675102</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3339,31 +3344,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.0992980203157099</v>
+        <v>1.1191176214343399</v>
       </c>
       <c r="C15">
-        <v>-0.74489595684677301</v>
+        <v>-0.98625055809343398</v>
       </c>
       <c r="D15">
-        <v>2.9434919974781901</v>
+        <v>3.22448580096211</v>
       </c>
       <c r="E15">
-        <v>1.0295494215980301</v>
+        <v>1.0309020517944001</v>
       </c>
       <c r="F15">
-        <v>0.431188594335564</v>
+        <v>0.457691327165553</v>
       </c>
       <c r="G15">
-        <v>1.62791024886049</v>
+        <v>1.6041127764232399</v>
       </c>
       <c r="H15">
-        <v>0.82677453593442995</v>
+        <v>0.82677118975987895</v>
       </c>
       <c r="I15">
-        <v>0.57617939516580596</v>
+        <v>0.53997226350689798</v>
       </c>
       <c r="J15">
-        <v>1.0773696767030501</v>
+        <v>1.1135701160128599</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3371,31 +3376,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.56830550128518298</v>
+        <v>0.80242202216446301</v>
       </c>
       <c r="C16">
-        <v>-0.37455035773987799</v>
+        <v>-0.86944720811035603</v>
       </c>
       <c r="D16">
-        <v>1.5111613603102401</v>
+        <v>2.4742912524392802</v>
       </c>
       <c r="E16">
-        <v>0.33420228669199697</v>
+        <v>0.61136749707976101</v>
       </c>
       <c r="F16">
-        <v>0.107819591334299</v>
+        <v>0.20884948468874001</v>
       </c>
       <c r="G16">
-        <v>0.56058498204969598</v>
+        <v>1.0138855094707799</v>
       </c>
       <c r="H16">
-        <v>0.644436994857009</v>
+        <v>0.64793881508304196</v>
       </c>
       <c r="I16">
-        <v>0.384428962145065</v>
+        <v>0.36799432432102402</v>
       </c>
       <c r="J16">
-        <v>0.90444502756895295</v>
+        <v>0.92788330584505996</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3403,31 +3408,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.8443027947282098E-2</v>
+        <v>0.249151050002277</v>
       </c>
       <c r="C17">
-        <v>-0.218098317939944</v>
+        <v>-0.70294092641535699</v>
       </c>
       <c r="D17">
-        <v>0.374984373834508</v>
+        <v>1.2012430264199101</v>
       </c>
       <c r="E17">
-        <v>0.65200057203930795</v>
+        <v>0.66216140980923699</v>
       </c>
       <c r="F17">
-        <v>0.136812497914025</v>
+        <v>0.10945999325467599</v>
       </c>
       <c r="G17">
-        <v>1.1671886461645899</v>
+        <v>1.2148628263637999</v>
       </c>
       <c r="H17">
-        <v>0.54461969976694302</v>
+        <v>0.55312403519947295</v>
       </c>
       <c r="I17">
-        <v>0.39356257459844501</v>
+        <v>0.44075030366734202</v>
       </c>
       <c r="J17">
-        <v>0.69567682493544003</v>
+        <v>0.66549776673160399</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3435,31 +3440,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4091548649407999</v>
+        <v>1.41686646567648</v>
       </c>
       <c r="C18">
-        <v>-1.2143609693977599</v>
+        <v>-1.9990031648395501</v>
       </c>
       <c r="D18">
-        <v>4.0326706992793699</v>
+        <v>4.8327360961924999</v>
       </c>
       <c r="E18">
-        <v>0.64847080000062796</v>
+        <v>0.66373809828955499</v>
       </c>
       <c r="F18">
-        <v>0.149967203574918</v>
+        <v>0.20463717891793401</v>
       </c>
       <c r="G18">
-        <v>1.1469743964263399</v>
+        <v>1.12283901766118</v>
       </c>
       <c r="H18">
-        <v>0.91894037491771996</v>
+        <v>0.92173730353993599</v>
       </c>
       <c r="I18">
-        <v>0.30451632858556199</v>
+        <v>0.40329970107231999</v>
       </c>
       <c r="J18">
-        <v>1.53336442124988</v>
+        <v>1.4401749060075499</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3467,31 +3472,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.38490560362647702</v>
+        <v>0.49230850096247297</v>
       </c>
       <c r="C19">
-        <v>3.1553772444390303E-2</v>
+        <v>-0.26858654219431199</v>
       </c>
       <c r="D19">
-        <v>0.73825743480856398</v>
+        <v>1.2532035441192599</v>
       </c>
       <c r="E19">
-        <v>1.5151188937309099</v>
+        <v>1.5151498820895799</v>
       </c>
       <c r="F19">
-        <v>0.24240102200654001</v>
+        <v>7.5532947676402798E-2</v>
       </c>
       <c r="G19">
-        <v>2.7878367654552898</v>
+        <v>2.9547668165027599</v>
       </c>
       <c r="H19">
-        <v>0.95840258410026402</v>
+        <v>1.0620455251940999</v>
       </c>
       <c r="I19">
-        <v>0.39880130076109599</v>
+        <v>0.44537728121577502</v>
       </c>
       <c r="J19">
-        <v>1.5180038674394301</v>
+        <v>1.6787137691724301</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3499,31 +3504,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.20490361668412</v>
+        <v>1.5340191936385099</v>
       </c>
       <c r="C20">
-        <v>-0.56556245060678101</v>
+        <v>-2.2215830574028401</v>
       </c>
       <c r="D20">
-        <v>2.9753696839750199</v>
+        <v>5.2896214446798497</v>
       </c>
       <c r="E20">
-        <v>0.89053935161157705</v>
+        <v>0.89211062227024196</v>
       </c>
       <c r="F20">
-        <v>0.44782693226289899</v>
+        <v>0.41763001264417099</v>
       </c>
       <c r="G20">
-        <v>1.33325177096026</v>
+        <v>1.36659123189631</v>
       </c>
       <c r="H20">
-        <v>0.50997885676340804</v>
+        <v>0.54607355509732203</v>
       </c>
       <c r="I20">
-        <v>0.273926380242764</v>
+        <v>0.26678167414391002</v>
       </c>
       <c r="J20">
-        <v>0.74603133328405102</v>
+        <v>0.82536543605073398</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3531,31 +3536,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.26848490048163198</v>
+        <v>0.64598512222482896</v>
       </c>
       <c r="C21">
-        <v>7.5185919149935901E-2</v>
+        <v>0.11650735619163</v>
       </c>
       <c r="D21">
-        <v>0.46178388181332802</v>
+        <v>1.17546288825803</v>
       </c>
       <c r="E21">
-        <v>0.51897867979057</v>
+        <v>0.52829513440539699</v>
       </c>
       <c r="F21">
-        <v>0.24619387153086</v>
+        <v>0.22889498050677901</v>
       </c>
       <c r="G21">
-        <v>0.79176348805027896</v>
+        <v>0.82769528830401495</v>
       </c>
       <c r="H21">
-        <v>0.36741743406497501</v>
+        <v>0.4562937421835</v>
       </c>
       <c r="I21">
-        <v>0.18448022327584801</v>
+        <v>0.204077242001802</v>
       </c>
       <c r="J21">
-        <v>0.55035464485410202</v>
+        <v>0.708510242365197</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3563,31 +3568,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.22108668563120301</v>
+        <v>0.48798962448842298</v>
       </c>
       <c r="C22">
-        <v>-0.10161083030271099</v>
+        <v>5.8660793675850899E-2</v>
       </c>
       <c r="D22">
-        <v>0.54378420156511798</v>
+        <v>0.91731845530099498</v>
       </c>
       <c r="E22">
-        <v>0.50663321108564696</v>
+        <v>0.51727966491241695</v>
       </c>
       <c r="F22">
-        <v>0.13456479762381701</v>
+        <v>9.3947418419353501E-2</v>
       </c>
       <c r="G22">
-        <v>0.87870162454747702</v>
+        <v>0.94061191140548095</v>
       </c>
       <c r="H22">
-        <v>0.54217503593738103</v>
+        <v>0.54545918725126596</v>
       </c>
       <c r="I22">
-        <v>0.38715216585434498</v>
+        <v>0.37536968654178299</v>
       </c>
       <c r="J22">
-        <v>0.69719790602041698</v>
+        <v>0.715548687960749</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3595,31 +3600,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.221759370971714</v>
+        <v>1.78968006110344</v>
       </c>
       <c r="C23">
-        <v>-7.6391296481621004E-2</v>
+        <v>-1.5424492406368799</v>
       </c>
       <c r="D23">
-        <v>0.51991003842504901</v>
+        <v>5.1218093628437602</v>
       </c>
       <c r="E23">
-        <v>0.48848698881684399</v>
+        <v>0.51084319375814202</v>
       </c>
       <c r="F23">
-        <v>0.136087425504164</v>
+        <v>0.17096007449009801</v>
       </c>
       <c r="G23">
-        <v>0.84088655212952501</v>
+        <v>0.85072631302618495</v>
       </c>
       <c r="H23">
-        <v>0.56308307998182505</v>
+        <v>0.56459437002912205</v>
       </c>
       <c r="I23">
-        <v>0.30164354251743603</v>
+        <v>0.26451530768549902</v>
       </c>
       <c r="J23">
-        <v>0.82452261744621402</v>
+        <v>0.86467343237274497</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3627,31 +3632,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.9425922173344601</v>
+        <v>1.9447678272862301</v>
       </c>
       <c r="C24">
-        <v>-2.2787283870165198</v>
+        <v>-3.9737856792451298</v>
       </c>
       <c r="D24">
-        <v>6.1639128216854502</v>
+        <v>7.8633213338175896</v>
       </c>
       <c r="E24">
-        <v>1.4153209968016001</v>
+        <v>1.4149026543544201</v>
       </c>
       <c r="F24">
-        <v>-6.0837097264081902E-2</v>
+        <v>-0.20057411617376</v>
       </c>
       <c r="G24">
-        <v>2.8914790908672701</v>
+        <v>3.0303794248825899</v>
       </c>
       <c r="H24">
-        <v>1.4131451368840899</v>
+        <v>1.4836630481451201</v>
       </c>
       <c r="I24">
-        <v>0.116561156482894</v>
+        <v>-7.4890412246655397E-3</v>
       </c>
       <c r="J24">
-        <v>2.7097291172852902</v>
+        <v>2.9748151375148999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3659,31 +3664,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.29834224264698</v>
+        <v>2.0190807355190699</v>
       </c>
       <c r="C25">
-        <v>-0.25279473133082703</v>
+        <v>-7.1000257313542097</v>
       </c>
       <c r="D25">
-        <v>0.84947921662478698</v>
+        <v>11.1381872023924</v>
       </c>
       <c r="E25">
-        <v>1.4056564341915501</v>
+        <v>1.40538801868894</v>
       </c>
       <c r="F25">
-        <v>-0.123681721094774</v>
+        <v>-0.19881632949786801</v>
       </c>
       <c r="G25">
-        <v>2.9349945894778702</v>
+        <v>3.0095923668757498</v>
       </c>
       <c r="H25">
-        <v>0.73248127404316699</v>
+        <v>0.73331044169746895</v>
       </c>
       <c r="I25">
-        <v>0.45229533084321899</v>
+        <v>0.414246806658289</v>
       </c>
       <c r="J25">
-        <v>1.0126672172431199</v>
+        <v>1.0523740767366501</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3691,31 +3696,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.31945174567460299</v>
+        <v>0.43208007083572703</v>
       </c>
       <c r="C26">
-        <v>-2.44880937667292E-2</v>
+        <v>-0.284025871018798</v>
       </c>
       <c r="D26">
-        <v>0.66339158511593599</v>
+        <v>1.1481860126902499</v>
       </c>
       <c r="E26">
-        <v>0.60845187285973401</v>
+        <v>0.62864259531130695</v>
       </c>
       <c r="F26">
-        <v>0.211866030480833</v>
+        <v>0.38634462048117402</v>
       </c>
       <c r="G26">
-        <v>1.0050377152386301</v>
+        <v>0.870940570141439</v>
       </c>
       <c r="H26">
-        <v>0.53304594785846804</v>
+        <v>0.56633975509725498</v>
       </c>
       <c r="I26">
-        <v>0.42806391042651998</v>
+        <v>0.435910137184987</v>
       </c>
       <c r="J26">
-        <v>0.63802798529041704</v>
+        <v>0.69676937300952302</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3723,31 +3728,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.14636891140222E-2</v>
+        <v>0.17319644489845601</v>
       </c>
       <c r="C27">
-        <v>-0.32739060298033601</v>
+        <v>-1.0386768747284201</v>
       </c>
       <c r="D27">
-        <v>0.49031798120837999</v>
+        <v>1.38506976452534</v>
       </c>
       <c r="E27">
-        <v>1.3892739342054701</v>
+        <v>1.3894901356493099</v>
       </c>
       <c r="F27">
-        <v>-0.13422596529389</v>
+        <v>-0.30337805974172199</v>
       </c>
       <c r="G27">
-        <v>2.9127738337048199</v>
+        <v>3.0823583310403402</v>
       </c>
       <c r="H27">
-        <v>0.44575424810374698</v>
+        <v>0.70545584237279402</v>
       </c>
       <c r="I27">
-        <v>0.22056910765489801</v>
+        <v>0.42589968106939502</v>
       </c>
       <c r="J27">
-        <v>0.67093938855259605</v>
+        <v>0.98501200367619302</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3756,19 +3761,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.76574008427091089</v>
+        <v>1.1890134298267978</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.80259574593871652</v>
+        <v>0.85480889517997927</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.68416671180530297</v>
+        <v>0.74282499045456263</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3779,19 +3784,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.2409972687134805</v>
+        <v>1.2308524991859375</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.33487240182499184</v>
+        <v>0.31145569524439271</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.26898530347396477</v>
+        <v>0.25804048279931419</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3822,19 +3827,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.69421387211832097</v>
+        <v>0.6885388880446135</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.18732762158090044</v>
+        <v>0.17422831591971327</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.15047037876333588</v>
+        <v>0.14434784607793635</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3858,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4799,6 +4804,971 @@
       <c r="H31" s="1">
         <f>H30*H29/5</f>
         <v>7.0248354745305719E-2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.53833384921755201</v>
+      </c>
+      <c r="C3">
+        <v>-0.13833073166253301</v>
+      </c>
+      <c r="D3">
+        <v>1.21499843009764</v>
+      </c>
+      <c r="E3">
+        <v>0.512789941258185</v>
+      </c>
+      <c r="F3">
+        <v>6.7741301832954202E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.01880575233307</v>
+      </c>
+      <c r="H3">
+        <v>0.54588531244005201</v>
+      </c>
+      <c r="I3">
+        <v>-0.12856294998603501</v>
+      </c>
+      <c r="J3">
+        <v>1.2203335748661399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.2598106598902801</v>
+      </c>
+      <c r="C4">
+        <v>-34.011176332677898</v>
+      </c>
+      <c r="D4">
+        <v>40.530797652458403</v>
+      </c>
+      <c r="E4">
+        <v>1.1786671873897701</v>
+      </c>
+      <c r="F4">
+        <v>0.62801185819971495</v>
+      </c>
+      <c r="G4">
+        <v>1.7293225165798201</v>
+      </c>
+      <c r="H4">
+        <v>0.64694913041430702</v>
+      </c>
+      <c r="I4">
+        <v>0.10628859124873399</v>
+      </c>
+      <c r="J4">
+        <v>1.1876096695798799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.36421368275288002</v>
+      </c>
+      <c r="C5">
+        <v>-0.76554172672294896</v>
+      </c>
+      <c r="D5">
+        <v>1.4939690922287101</v>
+      </c>
+      <c r="E5">
+        <v>0.60693509748978403</v>
+      </c>
+      <c r="F5">
+        <v>0.141609209301503</v>
+      </c>
+      <c r="G5">
+        <v>1.07226098567807</v>
+      </c>
+      <c r="H5">
+        <v>1.06775427220418</v>
+      </c>
+      <c r="I5">
+        <v>0.23171641900090401</v>
+      </c>
+      <c r="J5">
+        <v>1.9037921254074499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.55140999458669704</v>
+      </c>
+      <c r="C6">
+        <v>8.8202048867283195E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.01461794030611</v>
+      </c>
+      <c r="E6">
+        <v>0.97350828152494095</v>
+      </c>
+      <c r="F6">
+        <v>0.22516023855585199</v>
+      </c>
+      <c r="G6">
+        <v>1.7218563244940299</v>
+      </c>
+      <c r="H6">
+        <v>0.60805205481786895</v>
+      </c>
+      <c r="I6">
+        <v>0.188894565916985</v>
+      </c>
+      <c r="J6">
+        <v>1.0272095437187501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.35578653165222901</v>
+      </c>
+      <c r="C7">
+        <v>-0.63860522469407899</v>
+      </c>
+      <c r="D7">
+        <v>1.35017828799854</v>
+      </c>
+      <c r="E7">
+        <v>0.66002026254160395</v>
+      </c>
+      <c r="F7">
+        <v>5.0406378449764297E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.26963414663344</v>
+      </c>
+      <c r="H7">
+        <v>0.66650049865583505</v>
+      </c>
+      <c r="I7">
+        <v>-0.37638482175633198</v>
+      </c>
+      <c r="J7">
+        <v>1.709385819068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.46582179607491803</v>
+      </c>
+      <c r="C8">
+        <v>-0.53303085370602499</v>
+      </c>
+      <c r="D8">
+        <v>1.46467444585586</v>
+      </c>
+      <c r="E8">
+        <v>0.61091566949473597</v>
+      </c>
+      <c r="F8">
+        <v>3.6185318831409102E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.1856460201580601</v>
+      </c>
+      <c r="H8">
+        <v>0.63866807810974202</v>
+      </c>
+      <c r="I8">
+        <v>-8.3764165284081496E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.36110032150357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.49000582803439802</v>
+      </c>
+      <c r="C9">
+        <v>0.111238907247572</v>
+      </c>
+      <c r="D9">
+        <v>0.86877274882122502</v>
+      </c>
+      <c r="E9">
+        <v>1.04384238885069</v>
+      </c>
+      <c r="F9">
+        <v>-0.22746880916774001</v>
+      </c>
+      <c r="G9">
+        <v>2.3151535868691102</v>
+      </c>
+      <c r="H9">
+        <v>1.0767680333622101</v>
+      </c>
+      <c r="I9">
+        <v>9.5095258013811301E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.0584408087106199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.86663439854867197</v>
+      </c>
+      <c r="C10">
+        <v>-1.45609768256864</v>
+      </c>
+      <c r="D10">
+        <v>3.1893664796659902</v>
+      </c>
+      <c r="E10">
+        <v>0.61959064828240495</v>
+      </c>
+      <c r="F10">
+        <v>0.20165821621612201</v>
+      </c>
+      <c r="G10">
+        <v>1.0375230803486899</v>
+      </c>
+      <c r="H10">
+        <v>0.67057080896709098</v>
+      </c>
+      <c r="I10">
+        <v>0.120820832287999</v>
+      </c>
+      <c r="J10">
+        <v>1.22032078564618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.36110697327913799</v>
+      </c>
+      <c r="C11">
+        <v>-0.32532771676753303</v>
+      </c>
+      <c r="D11">
+        <v>1.0475416633258099</v>
+      </c>
+      <c r="E11">
+        <v>0.91914379004532798</v>
+      </c>
+      <c r="F11">
+        <v>5.98471566406431E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.77844042345001</v>
+      </c>
+      <c r="H11">
+        <v>0.40789493077785899</v>
+      </c>
+      <c r="I11">
+        <v>8.3617644331000301E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.73217221722471804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48923856115325598</v>
+      </c>
+      <c r="C12">
+        <v>-2.5036100434106E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.00351322274062</v>
+      </c>
+      <c r="E12">
+        <v>0.63240538415013103</v>
+      </c>
+      <c r="F12">
+        <v>9.0323376271706501E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.1744873920285599</v>
+      </c>
+      <c r="H12">
+        <v>0.83364145619615804</v>
+      </c>
+      <c r="I12">
+        <v>0.28155019995372998</v>
+      </c>
+      <c r="J12">
+        <v>1.3857327124385801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.82902316906486995</v>
+      </c>
+      <c r="C13">
+        <v>-1.0347300182261601</v>
+      </c>
+      <c r="D13">
+        <v>2.6927763563559002</v>
+      </c>
+      <c r="E13">
+        <v>0.76864537681285094</v>
+      </c>
+      <c r="F13">
+        <v>-0.28549271245402202</v>
+      </c>
+      <c r="G13">
+        <v>1.82278346607972</v>
+      </c>
+      <c r="H13">
+        <v>0.51366220930448803</v>
+      </c>
+      <c r="I13">
+        <v>0.306349196064573</v>
+      </c>
+      <c r="J13">
+        <v>0.72097522254440305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.22667543543691501</v>
+      </c>
+      <c r="C14">
+        <v>-0.40273137166822998</v>
+      </c>
+      <c r="D14">
+        <v>0.85608224254206</v>
+      </c>
+      <c r="E14">
+        <v>0.466453789197531</v>
+      </c>
+      <c r="F14">
+        <v>-5.09104821051675E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.98381806050023002</v>
+      </c>
+      <c r="H14">
+        <v>0.78956790546509303</v>
+      </c>
+      <c r="I14">
+        <v>-1.3605801214672301E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.5804963910516501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.97895732935751301</v>
+      </c>
+      <c r="C15">
+        <v>-0.53775666658099097</v>
+      </c>
+      <c r="D15">
+        <v>2.4956713252960201</v>
+      </c>
+      <c r="E15">
+        <v>0.67232437537040202</v>
+      </c>
+      <c r="F15">
+        <v>5.8297173821536097E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.2863515769192699</v>
+      </c>
+      <c r="H15">
+        <v>0.7486250180738</v>
+      </c>
+      <c r="I15">
+        <v>0.30183021367084101</v>
+      </c>
+      <c r="J15">
+        <v>1.19541982247676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.36388613734776198</v>
+      </c>
+      <c r="C16">
+        <v>-0.29648810809354498</v>
+      </c>
+      <c r="D16">
+        <v>1.0242603827890699</v>
+      </c>
+      <c r="E16">
+        <v>0.54081264187786204</v>
+      </c>
+      <c r="F16">
+        <v>0.142222251284993</v>
+      </c>
+      <c r="G16">
+        <v>0.93940303247073098</v>
+      </c>
+      <c r="H16">
+        <v>0.63407718085623799</v>
+      </c>
+      <c r="I16">
+        <v>0.357902564354244</v>
+      </c>
+      <c r="J16">
+        <v>0.91025179735823103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.358796343465554</v>
+      </c>
+      <c r="C17">
+        <v>-0.10408268641104899</v>
+      </c>
+      <c r="D17">
+        <v>0.82167537334215701</v>
+      </c>
+      <c r="E17">
+        <v>0.31836243568535799</v>
+      </c>
+      <c r="F17">
+        <v>-0.17314286392731801</v>
+      </c>
+      <c r="G17">
+        <v>0.80986773529803402</v>
+      </c>
+      <c r="H17">
+        <v>0.62997759368245798</v>
+      </c>
+      <c r="I17">
+        <v>0.36366083954184197</v>
+      </c>
+      <c r="J17">
+        <v>0.89629434782307404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.80712573853847</v>
+      </c>
+      <c r="C18">
+        <v>-2.6440267265428101</v>
+      </c>
+      <c r="D18">
+        <v>6.2582782036197502</v>
+      </c>
+      <c r="E18">
+        <v>0.68340086502727604</v>
+      </c>
+      <c r="F18">
+        <v>0.18735444077829</v>
+      </c>
+      <c r="G18">
+        <v>1.17944728927626</v>
+      </c>
+      <c r="H18">
+        <v>0.75567218213992104</v>
+      </c>
+      <c r="I18">
+        <v>0.29448987865257897</v>
+      </c>
+      <c r="J18">
+        <v>1.2168544856272601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.349937176097116</v>
+      </c>
+      <c r="C19">
+        <v>-0.23537815298322201</v>
+      </c>
+      <c r="D19">
+        <v>0.93525250517745395</v>
+      </c>
+      <c r="E19">
+        <v>0.62463228035079499</v>
+      </c>
+      <c r="F19">
+        <v>-5.81339597950601E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.3073985204966501</v>
+      </c>
+      <c r="H19">
+        <v>1.15176271000144</v>
+      </c>
+      <c r="I19">
+        <v>0.51934302768289897</v>
+      </c>
+      <c r="J19">
+        <v>1.78418239231999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.0918361416482898</v>
+      </c>
+      <c r="C20">
+        <v>-3.90992037457135</v>
+      </c>
+      <c r="D20">
+        <v>8.0935926578679407</v>
+      </c>
+      <c r="E20">
+        <v>0.85339292531753597</v>
+      </c>
+      <c r="F20">
+        <v>0.25254861075441898</v>
+      </c>
+      <c r="G20">
+        <v>1.45423723988065</v>
+      </c>
+      <c r="H20">
+        <v>0.43143100446212401</v>
+      </c>
+      <c r="I20">
+        <v>0.13085784786663099</v>
+      </c>
+      <c r="J20">
+        <v>0.73200416105761701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.40873174948364599</v>
+      </c>
+      <c r="C21">
+        <v>8.2849850607943296E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.73461364835934795</v>
+      </c>
+      <c r="E21">
+        <v>0.63884133189389003</v>
+      </c>
+      <c r="F21">
+        <v>0.21349253404066201</v>
+      </c>
+      <c r="G21">
+        <v>1.0641901297471199</v>
+      </c>
+      <c r="H21">
+        <v>0.54457727923508603</v>
+      </c>
+      <c r="I21">
+        <v>0.234871383656576</v>
+      </c>
+      <c r="J21">
+        <v>0.85428317481359595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.0363993769812401</v>
+      </c>
+      <c r="C22">
+        <v>-2.29688119714229</v>
+      </c>
+      <c r="D22">
+        <v>4.3696799511047697</v>
+      </c>
+      <c r="E22">
+        <v>0.50125734173710301</v>
+      </c>
+      <c r="F22">
+        <v>0.119859362872756</v>
+      </c>
+      <c r="G22">
+        <v>0.88265532060145002</v>
+      </c>
+      <c r="H22">
+        <v>0.50438419471130302</v>
+      </c>
+      <c r="I22">
+        <v>0.36417337663289401</v>
+      </c>
+      <c r="J22">
+        <v>0.64459501278971298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.72092921235726704</v>
+      </c>
+      <c r="C23">
+        <v>-0.41421075650448602</v>
+      </c>
+      <c r="D23">
+        <v>1.85606918121902</v>
+      </c>
+      <c r="E23">
+        <v>0.30767393279949401</v>
+      </c>
+      <c r="F23">
+        <v>-9.02973990079841E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.70564526460697297</v>
+      </c>
+      <c r="H23">
+        <v>0.67046392482879302</v>
+      </c>
+      <c r="I23">
+        <v>0.28520983607834</v>
+      </c>
+      <c r="J23">
+        <v>1.0557180135792501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.73036415793884901</v>
+      </c>
+      <c r="C24">
+        <v>-0.885086266148429</v>
+      </c>
+      <c r="D24">
+        <v>2.3458145820261298</v>
+      </c>
+      <c r="E24">
+        <v>1.72712471719608</v>
+      </c>
+      <c r="F24">
+        <v>-0.356892544038587</v>
+      </c>
+      <c r="G24">
+        <v>3.8111419784307499</v>
+      </c>
+      <c r="H24">
+        <v>1.1880481210854901</v>
+      </c>
+      <c r="I24">
+        <v>-0.157853053724402</v>
+      </c>
+      <c r="J24">
+        <v>2.53394929589538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.116200547923135</v>
+      </c>
+      <c r="C25">
+        <v>-0.50825167049091302</v>
+      </c>
+      <c r="D25">
+        <v>0.74065276633718302</v>
+      </c>
+      <c r="E25">
+        <v>2.2264336747190598</v>
+      </c>
+      <c r="F25">
+        <v>-3.21724191348174</v>
+      </c>
+      <c r="G25">
+        <v>7.6701092629198602</v>
+      </c>
+      <c r="H25">
+        <v>0.59102632725945803</v>
+      </c>
+      <c r="I25">
+        <v>0.23641383266222399</v>
+      </c>
+      <c r="J25">
+        <v>0.94563882185669201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.16913961738319599</v>
+      </c>
+      <c r="C26">
+        <v>-0.36977301636441701</v>
+      </c>
+      <c r="D26">
+        <v>0.70805225113080805</v>
+      </c>
+      <c r="E26">
+        <v>0.88300597476171805</v>
+      </c>
+      <c r="F26">
+        <v>5.9597718796705598E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.70641423072673</v>
+      </c>
+      <c r="H26">
+        <v>0.62283865411231898</v>
+      </c>
+      <c r="I26">
+        <v>0.38012432548265601</v>
+      </c>
+      <c r="J26">
+        <v>0.865552982741982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.22036835484783901</v>
+      </c>
+      <c r="C27">
+        <v>-0.56495314953188602</v>
+      </c>
+      <c r="D27">
+        <v>1.00568985922756</v>
+      </c>
+      <c r="E27">
+        <v>1.83415316503314</v>
+      </c>
+      <c r="F27">
+        <v>-2.9537625351671601</v>
+      </c>
+      <c r="G27">
+        <v>6.6220688652334498</v>
+      </c>
+      <c r="H27">
+        <v>0.61637870713350795</v>
+      </c>
+      <c r="I27">
+        <v>0.316401831164835</v>
+      </c>
+      <c r="J27">
+        <v>0.91635558310218101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f>AVERAGE(B3:B27)</f>
+        <v>0.72602931052246722</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>AVERAGE(E3:E27)</f>
+        <v>0.83217333915230685</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <f>AVERAGE(H3:H27)</f>
+        <v>0.70220710353187288</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <f>STDEV(B3:B27)</f>
+        <v>0.7067098200314843</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>STDEV(E3:E27)</f>
+        <v>0.46815893658803698</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <f>STDEV(H3:H27)</f>
+        <v>0.21223155398986995</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <f>B30*B29/5</f>
+        <v>0.39533347332561231</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f>E30*E29/5</f>
+        <v>0.26188810912734789</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <f>H30*H29/5</f>
+        <v>0.11872233130193326</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>

--- a/data/summary/22_22_36.xlsx
+++ b/data/summary/22_22_36.xlsx
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="B3:J27"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3864,7 +3864,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="B3:J27"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4829,7 +4829,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/summary/22_22_36.xlsx
+++ b/data/summary/22_22_36.xlsx
@@ -973,7 +973,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1031,31 +1031,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.44047643447092</v>
+        <v>1.7618201355074901</v>
       </c>
       <c r="C3">
-        <v>-3.21377219747448</v>
+        <v>1.27890786460946</v>
       </c>
       <c r="D3">
-        <v>8.0947250664163199</v>
+        <v>2.2447324064055199</v>
       </c>
       <c r="E3">
-        <v>7.3780515107987696</v>
+        <v>2.0576359753495899</v>
       </c>
       <c r="F3">
-        <v>-5458.3483223182402</v>
+        <v>0.27343600986358002</v>
       </c>
       <c r="G3">
-        <v>5473.1044253398404</v>
+        <v>3.8418359408356002</v>
       </c>
       <c r="H3">
-        <v>0.69356272583674905</v>
+        <v>1.60110066192788</v>
       </c>
       <c r="I3">
-        <v>-2.4785704816110798</v>
+        <v>0.96447002554477002</v>
       </c>
       <c r="J3">
-        <v>3.8656959332845702</v>
+        <v>2.2377312983109898</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1063,31 +1063,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.08546051354219</v>
+        <v>2.4362857861524598</v>
       </c>
       <c r="C4">
-        <v>-0.88102548056570595</v>
+        <v>-1.6604748354262601E-2</v>
       </c>
       <c r="D4">
-        <v>3.05194650765009</v>
+        <v>4.8891763206591898</v>
       </c>
       <c r="E4">
-        <v>1.42099160790635</v>
+        <v>2.4928778566404302</v>
       </c>
       <c r="F4">
-        <v>-3.7341975007953301</v>
+        <v>2.1934727551469502</v>
       </c>
       <c r="G4">
-        <v>6.5761807166080404</v>
+        <v>2.7922829581338999</v>
       </c>
       <c r="H4">
-        <v>1.57539787240628</v>
+        <v>3.9787961389887299</v>
       </c>
       <c r="I4">
-        <v>1.20431707841882</v>
+        <v>-13.294114529039099</v>
       </c>
       <c r="J4">
-        <v>1.9464786663937499</v>
+        <v>21.2517068070165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1095,31 +1095,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.757415713458232</v>
+        <v>1.9787954878643499</v>
       </c>
       <c r="C5">
-        <v>-2.6874231589366002</v>
+        <v>0.89307897372719103</v>
       </c>
       <c r="D5">
-        <v>4.20225458585307</v>
+        <v>3.0645120020015</v>
       </c>
       <c r="E5">
-        <v>7.8072153463242797</v>
+        <v>2.5468373222259602</v>
       </c>
       <c r="F5">
-        <v>-10561.749561423499</v>
+        <v>-0.66599871566985802</v>
       </c>
       <c r="G5">
-        <v>10577.363992116199</v>
+        <v>5.7596733601217798</v>
       </c>
       <c r="H5">
-        <v>0.901423873834026</v>
+        <v>1.5862714487796401</v>
       </c>
       <c r="I5">
-        <v>-5.9478531081049697</v>
+        <v>0.78813108294460699</v>
       </c>
       <c r="J5">
-        <v>7.7507008557730197</v>
+        <v>2.3844118146146802</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1127,31 +1127,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.1267254587776501</v>
+        <v>1.8446286778535801</v>
       </c>
       <c r="C6">
-        <v>1.0202816366788701</v>
+        <v>1.3708809479914601</v>
       </c>
       <c r="D6">
-        <v>3.2331692808764201</v>
+        <v>2.3183764077157001</v>
       </c>
       <c r="E6">
-        <v>1.1244274459236001</v>
+        <v>1.4436604321203399</v>
       </c>
       <c r="F6">
-        <v>0.44219508515442302</v>
+        <v>-0.58572666245729899</v>
       </c>
       <c r="G6">
-        <v>1.8066598066927799</v>
+        <v>3.4730475266979899</v>
       </c>
       <c r="H6">
-        <v>1.0968915075880199</v>
+        <v>1.9465676496140201</v>
       </c>
       <c r="I6">
-        <v>-1.3320033049698801</v>
+        <v>1.15243081446988</v>
       </c>
       <c r="J6">
-        <v>3.5257863201459099</v>
+        <v>2.7407044847581599</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1159,31 +1159,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.22572066246623</v>
+        <v>1.8631583270650101</v>
       </c>
       <c r="C7">
-        <v>-2.4925760615588599</v>
+        <v>0.93661582634760499</v>
       </c>
       <c r="D7">
-        <v>4.9440173864913204</v>
+        <v>2.7897008277824198</v>
       </c>
       <c r="E7">
-        <v>0.80708085755752201</v>
+        <v>2.1852397004221502</v>
       </c>
       <c r="F7">
-        <v>-1.30707458855851</v>
+        <v>1.18664884819297</v>
       </c>
       <c r="G7">
-        <v>2.92123630367356</v>
+        <v>3.18383055265133</v>
       </c>
       <c r="H7">
-        <v>0.80352304437583699</v>
+        <v>1.7703870811344899</v>
       </c>
       <c r="I7">
-        <v>-1.7496377849567699</v>
+        <v>0.78752605069717596</v>
       </c>
       <c r="J7">
-        <v>3.3566838737084499</v>
+        <v>2.7532481115717999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1191,31 +1191,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.605336461759585</v>
+        <v>1.88865720887022</v>
       </c>
       <c r="C8">
-        <v>-1.29343704320298</v>
+        <v>0.50309684120180698</v>
       </c>
       <c r="D8">
-        <v>2.50410996672215</v>
+        <v>3.2742175765386299</v>
       </c>
       <c r="E8">
-        <v>0.83802403070505904</v>
+        <v>3.1638778144266402</v>
       </c>
       <c r="F8">
-        <v>-3.0628369564157101</v>
+        <v>2.7866627952874099</v>
       </c>
       <c r="G8">
-        <v>4.7388850178258304</v>
+        <v>3.5410928335658598</v>
       </c>
       <c r="H8">
-        <v>7.24219442825299</v>
+        <v>2.1884804039669401</v>
       </c>
       <c r="I8">
-        <v>-3404.3359296500598</v>
+        <v>-1.0446260944275301</v>
       </c>
       <c r="J8">
-        <v>3418.8203185065599</v>
+        <v>5.4215869023614101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1223,31 +1223,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.86700713845005195</v>
+        <v>1.1305239727756899</v>
       </c>
       <c r="C9">
-        <v>-0.735456023706898</v>
+        <v>0.25989413728210597</v>
       </c>
       <c r="D9">
-        <v>2.469470300607</v>
+        <v>2.0011538082692799</v>
       </c>
       <c r="E9">
-        <v>2.367374985748</v>
+        <v>1.6163397047281201</v>
       </c>
       <c r="F9">
-        <v>-14.4449290675227</v>
+        <v>0.816204248908449</v>
       </c>
       <c r="G9">
-        <v>19.179679039018701</v>
+        <v>2.4164751605477899</v>
       </c>
       <c r="H9">
-        <v>1.1789872668514001</v>
+        <v>1.8917407168206799</v>
       </c>
       <c r="I9">
-        <v>-1.1276363099143301</v>
+        <v>0.97792034150524199</v>
       </c>
       <c r="J9">
-        <v>3.4856108436171298</v>
+        <v>2.80556109213612</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1255,31 +1255,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.51950374949843</v>
+        <v>1.9300966356234699</v>
       </c>
       <c r="C10">
-        <v>1.0157441502628499</v>
+        <v>1.8436917871056999</v>
       </c>
       <c r="D10">
-        <v>2.0232633487340199</v>
+        <v>2.0165014841412399</v>
       </c>
       <c r="E10">
-        <v>1.48679176939987</v>
+        <v>2.0435867077321999</v>
       </c>
       <c r="F10">
-        <v>-7.4559620759230301</v>
+        <v>-4.1402808847576203E-2</v>
       </c>
       <c r="G10">
-        <v>10.4295456147228</v>
+        <v>4.1285762243119803</v>
       </c>
       <c r="H10">
-        <v>2.7518434154264799</v>
+        <v>1.9316180539979699</v>
       </c>
       <c r="I10">
-        <v>-23.115267124717601</v>
+        <v>0.70844632060607304</v>
       </c>
       <c r="J10">
-        <v>28.6189539555706</v>
+        <v>3.1547897873898698</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1287,31 +1287,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.5822894883787599</v>
+        <v>2.0133274970108102</v>
       </c>
       <c r="C11">
-        <v>-3.07313350387623</v>
+        <v>0.99384443293399705</v>
       </c>
       <c r="D11">
-        <v>6.2377124806337401</v>
+        <v>3.0328105610876301</v>
       </c>
       <c r="E11">
-        <v>8.0381283466666407</v>
+        <v>1.4663168212983999</v>
       </c>
       <c r="F11">
-        <v>-2328.3483182672098</v>
+        <v>9.5126993677671301E-2</v>
       </c>
       <c r="G11">
-        <v>2344.4245749605502</v>
+        <v>2.8375066489191298</v>
       </c>
       <c r="H11">
-        <v>0.48043294145597598</v>
+        <v>2.6016075343694198</v>
       </c>
       <c r="I11">
-        <v>-3.0299484534585002</v>
+        <v>0.84205260651913205</v>
       </c>
       <c r="J11">
-        <v>3.9908143363704598</v>
+        <v>4.3611624622197098</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1319,31 +1319,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.72122468447737098</v>
+        <v>1.7647333572025801</v>
       </c>
       <c r="C12">
-        <v>-2.5409737923229501</v>
+        <v>0.69985290535951705</v>
       </c>
       <c r="D12">
-        <v>3.98342316127769</v>
+        <v>2.82961380904564</v>
       </c>
       <c r="E12">
-        <v>2.25102801458902</v>
+        <v>1.6543659525160199</v>
       </c>
       <c r="F12">
-        <v>-14.2862867808375</v>
+        <v>-8.2988212737559894E-2</v>
       </c>
       <c r="G12">
-        <v>18.7883428100155</v>
+        <v>3.3917201177696001</v>
       </c>
       <c r="H12">
-        <v>3.4358210703743799</v>
+        <v>2.4818370715711202</v>
       </c>
       <c r="I12">
-        <v>-33.899602660304097</v>
+        <v>2.1248578225223702</v>
       </c>
       <c r="J12">
-        <v>40.771244801052902</v>
+        <v>2.8388163206198702</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1351,31 +1351,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.77503910974215995</v>
+        <v>1.71558292005768</v>
       </c>
       <c r="C13">
-        <v>-0.74187332778219095</v>
+        <v>0.27421707215772201</v>
       </c>
       <c r="D13">
-        <v>2.29195154726651</v>
+        <v>3.15694876795764</v>
       </c>
       <c r="E13">
-        <v>7.4449282793171099</v>
+        <v>1.8111025234962499</v>
       </c>
       <c r="F13">
-        <v>-2995.6557777477801</v>
+        <v>0.56060945554934005</v>
       </c>
       <c r="G13">
-        <v>3010.5456343064202</v>
+        <v>3.0615955914431501</v>
       </c>
       <c r="H13">
-        <v>3.2701788081497098</v>
+        <v>2.6245935729641601</v>
       </c>
       <c r="I13">
-        <v>-87.780341487043799</v>
+        <v>1.49084931969436</v>
       </c>
       <c r="J13">
-        <v>94.320699103343202</v>
+        <v>3.75833782623396</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1383,31 +1383,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.72650840923618</v>
+        <v>1.7890896967074199</v>
       </c>
       <c r="C14">
-        <v>-0.980555151777047</v>
+        <v>1.2807878945615101</v>
       </c>
       <c r="D14">
-        <v>4.4335719702494103</v>
+        <v>2.2973914988533202</v>
       </c>
       <c r="E14">
-        <v>0.96280811584637205</v>
+        <v>1.84735090921468</v>
       </c>
       <c r="F14">
-        <v>-0.285344452903741</v>
+        <v>0.59616774440153697</v>
       </c>
       <c r="G14">
-        <v>2.2109606845964902</v>
+        <v>3.09853407402783</v>
       </c>
       <c r="H14">
-        <v>0.93667939202552397</v>
+        <v>1.9332603198471401</v>
       </c>
       <c r="I14">
-        <v>-1.4679361583275301</v>
+        <v>0.22911206739314899</v>
       </c>
       <c r="J14">
-        <v>3.34129494237858</v>
+        <v>3.6374085723011298</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1415,31 +1415,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.83323084192179897</v>
+        <v>1.9054626429224699</v>
       </c>
       <c r="C15">
-        <v>-3.24671627975358</v>
+        <v>0.59075467629692702</v>
       </c>
       <c r="D15">
-        <v>4.91317796359718</v>
+        <v>3.2201706095480098</v>
       </c>
       <c r="E15">
-        <v>7.34100531212846</v>
+        <v>1.5936122952515299</v>
       </c>
       <c r="F15">
-        <v>-3000.4061941858799</v>
+        <v>0.22351765629634299</v>
       </c>
       <c r="G15">
-        <v>3015.0882048101398</v>
+        <v>2.9637069342067099</v>
       </c>
       <c r="H15">
-        <v>1.73616035649399</v>
+        <v>1.8086988889876801</v>
       </c>
       <c r="I15">
-        <v>-0.61111671848377003</v>
+        <v>0.178591728743141</v>
       </c>
       <c r="J15">
-        <v>4.0834374314717499</v>
+        <v>3.4388060492322201</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1447,31 +1447,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3426323782369201</v>
+        <v>2.1517348968055998</v>
       </c>
       <c r="C16">
-        <v>-6.2213701496318397</v>
+        <v>-0.24907877567348399</v>
       </c>
       <c r="D16">
-        <v>8.9066349061056709</v>
+        <v>4.5525485692846797</v>
       </c>
       <c r="E16">
-        <v>1.47602259352945</v>
+        <v>2.5722251595853201</v>
       </c>
       <c r="F16">
-        <v>-2.1457296727583799</v>
+        <v>-0.81414976574404896</v>
       </c>
       <c r="G16">
-        <v>5.0977748598172798</v>
+        <v>5.9586000849146803</v>
       </c>
       <c r="H16">
-        <v>7.9615190669423201</v>
+        <v>1.7496266466499799</v>
       </c>
       <c r="I16">
-        <v>-1612.6979137129599</v>
+        <v>0.73318526423261199</v>
       </c>
       <c r="J16">
-        <v>1628.6209518468499</v>
+        <v>2.7660680290673398</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1479,31 +1479,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2055308284030699</v>
+        <v>1.65789469335368</v>
       </c>
       <c r="C17">
-        <v>-1.94943208402409</v>
+        <v>0.85081161818169904</v>
       </c>
       <c r="D17">
-        <v>4.36049374083023</v>
+        <v>2.4649777685256602</v>
       </c>
       <c r="E17">
-        <v>0.80903514449269698</v>
+        <v>2.6551982284946698</v>
       </c>
       <c r="F17">
-        <v>-0.44045116420365799</v>
+        <v>-0.590379800119747</v>
       </c>
       <c r="G17">
-        <v>2.0585214531890501</v>
+        <v>5.90077625710909</v>
       </c>
       <c r="H17">
-        <v>1.1213609173724199</v>
+        <v>1.8744094904823001</v>
       </c>
       <c r="I17">
-        <v>-0.94031682567863795</v>
+        <v>-2.3297617393795499E-2</v>
       </c>
       <c r="J17">
-        <v>3.1830386604234699</v>
+        <v>3.7721165983584002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1511,31 +1511,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4605211057321601</v>
+        <v>1.6817485127867</v>
       </c>
       <c r="C18">
-        <v>-5.5181754476857101</v>
+        <v>0.64417974040316905</v>
       </c>
       <c r="D18">
-        <v>8.4392176591500405</v>
+        <v>2.7193172851702299</v>
       </c>
       <c r="E18">
-        <v>1.2081320942826901</v>
+        <v>2.0636304360855799</v>
       </c>
       <c r="F18">
-        <v>-5.1394775999946596</v>
+        <v>0.89906060759998896</v>
       </c>
       <c r="G18">
-        <v>7.5557417885600504</v>
+        <v>3.22820026457117</v>
       </c>
       <c r="H18">
-        <v>1.13067298022166</v>
+        <v>3.6719481988784</v>
       </c>
       <c r="I18">
-        <v>-7.5623414699133802</v>
+        <v>1.31776460571596</v>
       </c>
       <c r="J18">
-        <v>9.8236874303566992</v>
+        <v>6.0261317920408501</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1543,31 +1543,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.1847822741690202</v>
+        <v>1.56225193257915</v>
       </c>
       <c r="C19">
-        <v>-1.08870371558596</v>
+        <v>0.28733294117026398</v>
       </c>
       <c r="D19">
-        <v>5.4582682639239897</v>
+        <v>2.8371709239880398</v>
       </c>
       <c r="E19">
-        <v>1.1287019839130801</v>
+        <v>1.8257754803699</v>
       </c>
       <c r="F19">
-        <v>-4.1111864748241498</v>
+        <v>0.22872966567693501</v>
       </c>
       <c r="G19">
-        <v>6.3685904426502997</v>
+        <v>3.4228212950628598</v>
       </c>
       <c r="H19">
-        <v>0.73741087276701101</v>
+        <v>2.01339094170216</v>
       </c>
       <c r="I19">
-        <v>-7.04450942916489</v>
+        <v>0.12177476392607001</v>
       </c>
       <c r="J19">
-        <v>8.5193311746989195</v>
+        <v>3.9050071194782499</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1575,31 +1575,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.87835723680689803</v>
+        <v>1.7825287191067001</v>
       </c>
       <c r="C20">
-        <v>-0.44717243490977299</v>
+        <v>0.13804240686865701</v>
       </c>
       <c r="D20">
-        <v>2.2038869085235699</v>
+        <v>3.4270150313447498</v>
       </c>
       <c r="E20">
-        <v>0.55815562621679504</v>
+        <v>2.1607105206904702</v>
       </c>
       <c r="F20">
-        <v>-5.32036619489425</v>
+        <v>-0.41125474378634602</v>
       </c>
       <c r="G20">
-        <v>6.4366774473278401</v>
+        <v>4.73267578516728</v>
       </c>
       <c r="H20">
-        <v>0.69377630248268995</v>
+        <v>1.32769854766592</v>
       </c>
       <c r="I20">
-        <v>-1.13133200265222</v>
+        <v>0.176812849730901</v>
       </c>
       <c r="J20">
-        <v>2.5188846076176001</v>
+        <v>2.4785842456009402</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1607,31 +1607,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.940787213369076</v>
+        <v>1.5522937745655601</v>
       </c>
       <c r="C21">
-        <v>-0.29104197587519298</v>
+        <v>8.4671643454734102E-2</v>
       </c>
       <c r="D21">
-        <v>2.1726164026133499</v>
+        <v>3.01991590567639</v>
       </c>
       <c r="E21">
-        <v>2.32668753276179</v>
+        <v>3.3667661507444802</v>
       </c>
       <c r="F21">
-        <v>-1.67462637484766</v>
+        <v>2.27801511351023</v>
       </c>
       <c r="G21">
-        <v>6.3280014403712403</v>
+        <v>4.4555171879787201</v>
       </c>
       <c r="H21">
-        <v>0.85522674986979097</v>
+        <v>1.4061893162525201</v>
       </c>
       <c r="I21">
-        <v>-2.0829519169818198</v>
+        <v>0.85592139371848697</v>
       </c>
       <c r="J21">
-        <v>3.7934054167214</v>
+        <v>1.95645723878656</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1639,31 +1639,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.1185128608475901</v>
+        <v>1.6908526051236299</v>
       </c>
       <c r="C22">
-        <v>-3.10803806291967</v>
+        <v>0.87231876453864199</v>
       </c>
       <c r="D22">
-        <v>5.3450637846148599</v>
+        <v>2.5093864457086101</v>
       </c>
       <c r="E22">
-        <v>0.930684438037641</v>
+        <v>1.8559326673172001</v>
       </c>
       <c r="F22">
-        <v>-1.76989350434879</v>
+        <v>1.7397245020829</v>
       </c>
       <c r="G22">
-        <v>3.6312623804240798</v>
+        <v>1.97214083255151</v>
       </c>
       <c r="H22">
-        <v>7.5664460911381202</v>
+        <v>2.0617988998400398</v>
       </c>
       <c r="I22">
-        <v>-4687.06512301363</v>
+        <v>1.25075411459038</v>
       </c>
       <c r="J22">
-        <v>4702.1980151959096</v>
+        <v>2.8728436850897001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1671,31 +1671,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.8108911487209003</v>
+        <v>1.96384441107833</v>
       </c>
       <c r="C23">
-        <v>-9551.4955091662905</v>
+        <v>1.07391260485142</v>
       </c>
       <c r="D23">
-        <v>9567.11729146373</v>
+        <v>2.8537762173052301</v>
       </c>
       <c r="E23">
-        <v>1.3625758882007699</v>
+        <v>1.72294995550726</v>
       </c>
       <c r="F23">
-        <v>-1.32520742947922</v>
+        <v>1.17419963931948</v>
       </c>
       <c r="G23">
-        <v>4.0503592058807598</v>
+        <v>2.2717002716950399</v>
       </c>
       <c r="H23">
-        <v>1.0353991168416801</v>
+        <v>1.5006652485138201</v>
       </c>
       <c r="I23">
-        <v>-3.0460485145026701</v>
+        <v>0.55816820567591696</v>
       </c>
       <c r="J23">
-        <v>5.1168467481860302</v>
+        <v>2.4431622913517099</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1703,31 +1703,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.9711612974292201</v>
+        <v>1.89970914700092</v>
       </c>
       <c r="C24">
-        <v>-9.0271687190510495</v>
+        <v>0.28271017147816402</v>
       </c>
       <c r="D24">
-        <v>12.969491313909501</v>
+        <v>3.5167081225236698</v>
       </c>
       <c r="E24">
-        <v>1.3082015931711699</v>
+        <v>1.94386668276298</v>
       </c>
       <c r="F24">
-        <v>-2.9937013358153299</v>
+        <v>-1.5611813445431899</v>
       </c>
       <c r="G24">
-        <v>5.6101045221576804</v>
+        <v>5.4489147100691504</v>
       </c>
       <c r="H24">
-        <v>3.7080960470993798</v>
+        <v>2.15144598746092</v>
       </c>
       <c r="I24">
-        <v>-18.4273092345063</v>
+        <v>0.60329571865768905</v>
       </c>
       <c r="J24">
-        <v>25.843501328704999</v>
+        <v>3.69959625626415</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1735,31 +1735,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.17421844620224</v>
+        <v>1.3822115380492599</v>
       </c>
       <c r="C25">
-        <v>-2.5205002460221402</v>
+        <v>0.45311784498285601</v>
       </c>
       <c r="D25">
-        <v>4.8689371384266096</v>
+        <v>2.3113052311156701</v>
       </c>
       <c r="E25">
-        <v>0.49815963838880201</v>
+        <v>1.53815615742754</v>
       </c>
       <c r="F25">
-        <v>-2.4108892014632399</v>
+        <v>0.83138457523774001</v>
       </c>
       <c r="G25">
-        <v>3.4072084782408498</v>
+        <v>2.2449277396173399</v>
       </c>
       <c r="H25">
-        <v>2.0165760890400999</v>
+        <v>1.59814461174829</v>
       </c>
       <c r="I25">
-        <v>-24.352522741382302</v>
+        <v>-0.18592680305235801</v>
       </c>
       <c r="J25">
-        <v>28.385674919462499</v>
+        <v>3.38221602654894</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1767,31 +1767,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.82969998083872</v>
+        <v>2.0502155528835901</v>
       </c>
       <c r="C26">
-        <v>-9.9702344527046396</v>
+        <v>0.61579880964535705</v>
       </c>
       <c r="D26">
-        <v>13.6296344143821</v>
+        <v>3.4846322961218301</v>
       </c>
       <c r="E26">
-        <v>7.0952234280854896</v>
+        <v>1.7159447910362</v>
       </c>
       <c r="F26">
-        <v>-5084.3886029018604</v>
+        <v>1.3268277782859501</v>
       </c>
       <c r="G26">
-        <v>5098.5790497580301</v>
+        <v>2.1050618037864499</v>
       </c>
       <c r="H26">
-        <v>0.85307723466752905</v>
+        <v>1.7324767379471</v>
       </c>
       <c r="I26">
-        <v>-7.9862936087093201</v>
+        <v>1.4503789612236699</v>
       </c>
       <c r="J26">
-        <v>9.6924480780443805</v>
+        <v>2.0145745146705298</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1799,31 +1799,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.70400574040187003</v>
+        <v>1.8939017701813901</v>
       </c>
       <c r="C27">
-        <v>-1.1371302852207299</v>
+        <v>1.3348527632597</v>
       </c>
       <c r="D27">
-        <v>2.5451417660244702</v>
+        <v>2.4529507771030898</v>
       </c>
       <c r="E27">
-        <v>1.33825705552716</v>
+        <v>1.5673196516199299</v>
       </c>
       <c r="F27">
-        <v>-3.85816193916961</v>
+        <v>0.52381942242848201</v>
       </c>
       <c r="G27">
-        <v>6.5346760502239203</v>
+        <v>2.6108198808113698</v>
       </c>
       <c r="H27">
-        <v>6.74721929266821</v>
+        <v>2.2328089396755102</v>
       </c>
       <c r="I27">
-        <v>-2428.7272548595802</v>
+        <v>0.77100979814383397</v>
       </c>
       <c r="J27">
-        <v>2442.2216934449102</v>
+        <v>3.69460808120719</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1832,19 +1832,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>1.5554815670934898</v>
+        <v>1.8116539959651095</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>2.7723077055807432</v>
+        <v>2.0364511958825533</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>2.4211950985672912</v>
+        <v>2.0666225243914731</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1855,19 +1855,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.4017766424804392</v>
+        <v>0.25411029264371332</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>2.7668303179889051</v>
+        <v>0.51050968628637183</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>2.3907255630198225</v>
+        <v>0.62947475418710308</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1898,19 +1898,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.78415385380355773</v>
+        <v>0.14214929770489323</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>1.5477648798829935</v>
+        <v>0.28557911850859641</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>1.3373718799532888</v>
+        <v>0.35212817749226549</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1996,31 +1996,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.35217993580690898</v>
+        <v>0.46206917789211499</v>
       </c>
       <c r="C3">
-        <v>0.25373426383577802</v>
+        <v>0.44541537395136699</v>
       </c>
       <c r="D3">
-        <v>0.45062560777804</v>
+        <v>0.47872298183286199</v>
       </c>
       <c r="E3">
-        <v>-5.6644890956958703E-2</v>
+        <v>0.41217970648760699</v>
       </c>
       <c r="F3">
-        <v>-0.34271392004418499</v>
+        <v>0.34718469654609602</v>
       </c>
       <c r="G3">
-        <v>0.22942413813026699</v>
+        <v>0.47717471642911702</v>
       </c>
       <c r="H3">
-        <v>0.35639817851178102</v>
+        <v>0.178304971693176</v>
       </c>
       <c r="I3">
-        <v>0.25029453419396303</v>
+        <v>0.14405750447777699</v>
       </c>
       <c r="J3">
-        <v>0.46250182282959901</v>
+        <v>0.212552438908575</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2028,31 +2028,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.26358390039430202</v>
+        <v>0.42246442121781203</v>
       </c>
       <c r="C4">
-        <v>0.18501344748652401</v>
+        <v>0.35851687560136902</v>
       </c>
       <c r="D4">
-        <v>0.342154353302079</v>
+        <v>0.48641196683425397</v>
       </c>
       <c r="E4">
-        <v>0.23547477434657199</v>
+        <v>0.38659726836877201</v>
       </c>
       <c r="F4">
-        <v>0.12185716965443499</v>
+        <v>0.33606740667957502</v>
       </c>
       <c r="G4">
-        <v>0.34909237903870899</v>
+        <v>0.43712713005796899</v>
       </c>
       <c r="H4">
-        <v>0.23956372234665599</v>
+        <v>0.24282258253137101</v>
       </c>
       <c r="I4">
-        <v>0.15319895155688701</v>
+        <v>0.21751130688467901</v>
       </c>
       <c r="J4">
-        <v>0.32592849313642602</v>
+        <v>0.26813385817806301</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2060,31 +2060,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.40437928584954902</v>
+        <v>0.42319262303531302</v>
       </c>
       <c r="C5">
-        <v>0.34390099967752802</v>
+        <v>0.37637411203584997</v>
       </c>
       <c r="D5">
-        <v>0.46485757202157002</v>
+        <v>0.47001113403477701</v>
       </c>
       <c r="E5">
-        <v>0.31158002966385001</v>
+        <v>0.26752422664595399</v>
       </c>
       <c r="F5">
-        <v>0.241604228187974</v>
+        <v>0.23751091965279</v>
       </c>
       <c r="G5">
-        <v>0.38155583113972602</v>
+        <v>0.297537533639117</v>
       </c>
       <c r="H5">
-        <v>0.376101912863816</v>
+        <v>0.28391498219144701</v>
       </c>
       <c r="I5">
-        <v>0.23123368830118099</v>
+        <v>0.25430244068644597</v>
       </c>
       <c r="J5">
-        <v>0.52097013742645104</v>
+        <v>0.31352752369644699</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2092,31 +2092,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.376073585834723</v>
+        <v>0.55576825681877695</v>
       </c>
       <c r="C6">
-        <v>0.26018843119791402</v>
+        <v>0.52666023718960198</v>
       </c>
       <c r="D6">
-        <v>0.49195874047153199</v>
+        <v>0.58487627644795204</v>
       </c>
       <c r="E6">
-        <v>0.25810278071439802</v>
+        <v>0.32473030049864898</v>
       </c>
       <c r="F6">
-        <v>0.17558377939436001</v>
+        <v>0.29420085509529098</v>
       </c>
       <c r="G6">
-        <v>0.34062178203443599</v>
+        <v>0.35525974590200798</v>
       </c>
       <c r="H6">
-        <v>0.20964826616847701</v>
+        <v>0.22571667177577101</v>
       </c>
       <c r="I6">
-        <v>7.2064376756229301E-2</v>
+        <v>0.20460985208813801</v>
       </c>
       <c r="J6">
-        <v>0.34723215558072601</v>
+        <v>0.24682349146340499</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2124,31 +2124,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.89894993166457005</v>
+        <v>0.35791369962196701</v>
       </c>
       <c r="C7">
-        <v>4.2131588847830498E-2</v>
+        <v>0.33447432997508503</v>
       </c>
       <c r="D7">
-        <v>1.7557682744813099</v>
+        <v>0.38135306926884899</v>
       </c>
       <c r="E7">
-        <v>0.29778366105785298</v>
+        <v>0.43345637020544697</v>
       </c>
       <c r="F7">
-        <v>0.17353649471549201</v>
+        <v>0.33310861507288098</v>
       </c>
       <c r="G7">
-        <v>0.42203082740021303</v>
+        <v>0.53380412533801203</v>
       </c>
       <c r="H7">
-        <v>0.17362991332654201</v>
+        <v>0.340296589166873</v>
       </c>
       <c r="I7">
-        <v>2.4094110669408399E-2</v>
+        <v>0.31050306720898102</v>
       </c>
       <c r="J7">
-        <v>0.32316571598367599</v>
+        <v>0.37009011112476498</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2156,31 +2156,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.40133785956217199</v>
+        <v>0.40167530410470398</v>
       </c>
       <c r="C8">
-        <v>0.31260204911759898</v>
+        <v>0.37332524277033902</v>
       </c>
       <c r="D8">
-        <v>0.49007367000674601</v>
+        <v>0.430025365439068</v>
       </c>
       <c r="E8">
-        <v>0.23855108314696</v>
+        <v>0.34722620678944899</v>
       </c>
       <c r="F8">
-        <v>0.151562362866728</v>
+        <v>0.33006607861930498</v>
       </c>
       <c r="G8">
-        <v>0.32553980342719202</v>
+        <v>0.364386334959592</v>
       </c>
       <c r="H8">
-        <v>0.22192259352131</v>
+        <v>0.27276612242957599</v>
       </c>
       <c r="I8">
-        <v>0.14963144739390699</v>
+        <v>0.240174815039984</v>
       </c>
       <c r="J8">
-        <v>0.294213739648713</v>
+        <v>0.30535742981916802</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2188,31 +2188,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.478179296620245</v>
+        <v>0.44616513858161799</v>
       </c>
       <c r="C9">
-        <v>0.30750800665147099</v>
+        <v>0.41195105723750203</v>
       </c>
       <c r="D9">
-        <v>0.64885058658901895</v>
+        <v>0.48037921992573401</v>
       </c>
       <c r="E9">
-        <v>0.25428460526047902</v>
+        <v>0.37351299186113501</v>
       </c>
       <c r="F9">
-        <v>0.13570430690199001</v>
+        <v>0.331774847878539</v>
       </c>
       <c r="G9">
-        <v>0.37286490361896701</v>
+        <v>0.41525113584373202</v>
       </c>
       <c r="H9">
-        <v>0.204021052867119</v>
+        <v>0.368580920980493</v>
       </c>
       <c r="I9">
-        <v>-0.14139236141933301</v>
+        <v>0.328054160834718</v>
       </c>
       <c r="J9">
-        <v>0.54943446715357003</v>
+        <v>0.409107681126268</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2220,31 +2220,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.33014380970173202</v>
+        <v>0.382527150353284</v>
       </c>
       <c r="C10">
-        <v>0.258104904805387</v>
+        <v>0.35774105211743301</v>
       </c>
       <c r="D10">
-        <v>0.40218271459807797</v>
+        <v>0.40731324858913398</v>
       </c>
       <c r="E10">
-        <v>0.266826049417064</v>
+        <v>0.247771986122483</v>
       </c>
       <c r="F10">
-        <v>0.165040470490077</v>
+        <v>0.220303843333296</v>
       </c>
       <c r="G10">
-        <v>0.36861162834405098</v>
+        <v>0.27524012891167099</v>
       </c>
       <c r="H10">
-        <v>0.43098866503072603</v>
+        <v>0.32516034393243898</v>
       </c>
       <c r="I10">
-        <v>0.230222566884</v>
+        <v>0.30672173604529401</v>
       </c>
       <c r="J10">
-        <v>0.63175476317745105</v>
+        <v>0.343598951819584</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2252,31 +2252,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.33904394914880498</v>
+        <v>0.54585110546204996</v>
       </c>
       <c r="C11">
-        <v>0.20924852780436501</v>
+        <v>0.48970783206614299</v>
       </c>
       <c r="D11">
-        <v>0.46883937049324498</v>
+        <v>0.60199437885795704</v>
       </c>
       <c r="E11">
-        <v>2.1923890257886401E-2</v>
+        <v>0.226702197736488</v>
       </c>
       <c r="F11">
-        <v>-0.279786986936711</v>
+        <v>0.20719490172841901</v>
       </c>
       <c r="G11">
-        <v>0.32363476745248398</v>
+        <v>0.246209493744557</v>
       </c>
       <c r="H11">
-        <v>-0.117782608040284</v>
+        <v>0.27395129942323398</v>
       </c>
       <c r="I11">
-        <v>-0.40878968727936499</v>
+        <v>0.24059184001203901</v>
       </c>
       <c r="J11">
-        <v>0.173224471198797</v>
+        <v>0.30731075883442799</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2284,31 +2284,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.29109238469513798</v>
+        <v>0.51356343889392597</v>
       </c>
       <c r="C12">
-        <v>0.134270222805559</v>
+        <v>0.48441423795755101</v>
       </c>
       <c r="D12">
-        <v>0.44791454658471702</v>
+        <v>0.54271263983030105</v>
       </c>
       <c r="E12">
-        <v>0.255029743231308</v>
+        <v>0.39710325529985002</v>
       </c>
       <c r="F12">
-        <v>0.15972896797988201</v>
+        <v>0.36654802710489798</v>
       </c>
       <c r="G12">
-        <v>0.350330518482733</v>
+        <v>0.42765848349480201</v>
       </c>
       <c r="H12">
-        <v>0.41119537015720298</v>
+        <v>0.18338333469419199</v>
       </c>
       <c r="I12">
-        <v>0.20441149621718899</v>
+        <v>0.15121413677946999</v>
       </c>
       <c r="J12">
-        <v>0.61797924409721805</v>
+        <v>0.21555253260891399</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2316,31 +2316,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.16423376449552801</v>
+        <v>0.36474808637093198</v>
       </c>
       <c r="C13">
-        <v>3.06884345243481E-2</v>
+        <v>0.342367424527456</v>
       </c>
       <c r="D13">
-        <v>0.29777909446670903</v>
+        <v>0.38712874821440901</v>
       </c>
       <c r="E13">
-        <v>0.22325810815977801</v>
+        <v>0.31379249088806899</v>
       </c>
       <c r="F13">
-        <v>0.117382138401254</v>
+        <v>0.27983975003429501</v>
       </c>
       <c r="G13">
-        <v>0.32913407791830301</v>
+        <v>0.34774523174184402</v>
       </c>
       <c r="H13">
-        <v>0.256611235175633</v>
+        <v>0.36114927731697499</v>
       </c>
       <c r="I13">
-        <v>0.169979097321698</v>
+        <v>0.278304357086603</v>
       </c>
       <c r="J13">
-        <v>0.34324337302956798</v>
+        <v>0.44399419754734698</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2348,31 +2348,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.228428177616223</v>
+        <v>0.35319382546073802</v>
       </c>
       <c r="C14">
-        <v>-0.114281766711089</v>
+        <v>0.319916485871096</v>
       </c>
       <c r="D14">
-        <v>0.57113812194353497</v>
+        <v>0.38647116505038098</v>
       </c>
       <c r="E14">
-        <v>0.37155103856624599</v>
+        <v>0.281295122095579</v>
       </c>
       <c r="F14">
-        <v>0.231063454721603</v>
+        <v>0.23162736812597501</v>
       </c>
       <c r="G14">
-        <v>0.51203862241088904</v>
+        <v>0.33096287606518299</v>
       </c>
       <c r="H14">
-        <v>0.39506634343443298</v>
+        <v>0.23871897612503101</v>
       </c>
       <c r="I14">
-        <v>0.26823757085211197</v>
+        <v>0.219690813876674</v>
       </c>
       <c r="J14">
-        <v>0.52189511601675398</v>
+        <v>0.25774713837338897</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2380,31 +2380,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.75246098988562604</v>
+        <v>0.41691700076900101</v>
       </c>
       <c r="C15">
-        <v>0.122325447718581</v>
+        <v>0.37014980113650597</v>
       </c>
       <c r="D15">
-        <v>1.3825965320526701</v>
+        <v>0.46368420040149599</v>
       </c>
       <c r="E15">
-        <v>0.26764090483902397</v>
+        <v>0.24749220184042001</v>
       </c>
       <c r="F15">
-        <v>0.207371410859824</v>
+        <v>0.22674113207483201</v>
       </c>
       <c r="G15">
-        <v>0.32791039881822398</v>
+        <v>0.26824327160600803</v>
       </c>
       <c r="H15">
-        <v>0.30397861102322898</v>
+        <v>0.34982974724539101</v>
       </c>
       <c r="I15">
-        <v>0.16933557703559099</v>
+        <v>0.28447184183330698</v>
       </c>
       <c r="J15">
-        <v>0.43862164501086698</v>
+        <v>0.41518765265747598</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2412,31 +2412,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.57855893544532</v>
+        <v>0.46284489949827501</v>
       </c>
       <c r="C16">
-        <v>0.138660179583184</v>
+        <v>0.416106618536564</v>
       </c>
       <c r="D16">
-        <v>1.0184576913074599</v>
+        <v>0.50958318045998696</v>
       </c>
       <c r="E16">
-        <v>0.40666095811889202</v>
+        <v>0.241031596522255</v>
       </c>
       <c r="F16">
-        <v>0.30535407874881998</v>
+        <v>0.215752984374082</v>
       </c>
       <c r="G16">
-        <v>0.50796783748896401</v>
+        <v>0.26631020867042698</v>
       </c>
       <c r="H16">
-        <v>0.10434175667777</v>
+        <v>0.18583019185333399</v>
       </c>
       <c r="I16">
-        <v>-1.2135527849500101E-2</v>
+        <v>0.15103973032047899</v>
       </c>
       <c r="J16">
-        <v>0.22081904120503901</v>
+        <v>0.220620653386188</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2444,31 +2444,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.52298959300064496</v>
+        <v>0.45801088062030698</v>
       </c>
       <c r="C17">
-        <v>0.41614659566534401</v>
+        <v>0.38954944429243099</v>
       </c>
       <c r="D17">
-        <v>0.62983259033594496</v>
+        <v>0.52647231694818397</v>
       </c>
       <c r="E17">
-        <v>0.23707388645092201</v>
+        <v>0.388461097065257</v>
       </c>
       <c r="F17">
-        <v>0.11079741333990301</v>
+        <v>0.33982241186735401</v>
       </c>
       <c r="G17">
-        <v>0.36335035956194101</v>
+        <v>0.43709978226316099</v>
       </c>
       <c r="H17">
-        <v>0.64492276420408201</v>
+        <v>0.24470457624717101</v>
       </c>
       <c r="I17">
-        <v>0.17822704557821101</v>
+        <v>0.21544661191221601</v>
       </c>
       <c r="J17">
-        <v>1.11161848282995</v>
+        <v>0.27396254058212699</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2476,31 +2476,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.257723963387608</v>
+        <v>0.23178239228637501</v>
       </c>
       <c r="C18">
-        <v>0.15464202986875</v>
+        <v>0.18866823220391199</v>
       </c>
       <c r="D18">
-        <v>0.36080589690646597</v>
+        <v>0.27489655236883898</v>
       </c>
       <c r="E18">
-        <v>0.26360676056821303</v>
+        <v>0.33868734762317099</v>
       </c>
       <c r="F18">
-        <v>0.142018352605431</v>
+        <v>0.31200013760725698</v>
       </c>
       <c r="G18">
-        <v>0.385195168530995</v>
+        <v>0.365374557639086</v>
       </c>
       <c r="H18">
-        <v>0.37727533532869001</v>
+        <v>0.27551505954807298</v>
       </c>
       <c r="I18">
-        <v>0.226808890724367</v>
+        <v>0.22653167394710499</v>
       </c>
       <c r="J18">
-        <v>0.52774177993301297</v>
+        <v>0.32449844514904103</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2508,31 +2508,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.72557876822651901</v>
+        <v>0.37095543653421098</v>
       </c>
       <c r="C19">
-        <v>4.1704636608330597E-2</v>
+        <v>0.34452461663022199</v>
       </c>
       <c r="D19">
-        <v>1.40945289984471</v>
+        <v>0.39738625643820003</v>
       </c>
       <c r="E19">
-        <v>0.35388237131901501</v>
+        <v>0.27610004132817001</v>
       </c>
       <c r="F19">
-        <v>0.24218623664470701</v>
+        <v>0.26364219899897201</v>
       </c>
       <c r="G19">
-        <v>0.46557850599332401</v>
+        <v>0.28855788365736801</v>
       </c>
       <c r="H19">
-        <v>0.28853598832712202</v>
+        <v>0.239125470537459</v>
       </c>
       <c r="I19">
-        <v>0.15744963681011401</v>
+        <v>0.217160830988121</v>
       </c>
       <c r="J19">
-        <v>0.419622339844131</v>
+        <v>0.261090110086797</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2540,31 +2540,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.402227471509921</v>
+        <v>0.61998066488802095</v>
       </c>
       <c r="C20">
-        <v>8.7519404728928704E-2</v>
+        <v>0.52025567197559197</v>
       </c>
       <c r="D20">
-        <v>0.71693553829091405</v>
+        <v>0.71970565780044904</v>
       </c>
       <c r="E20">
-        <v>0.40435381551958899</v>
+        <v>0.42095653639569902</v>
       </c>
       <c r="F20">
-        <v>0.220875970197981</v>
+        <v>0.36317741507239998</v>
       </c>
       <c r="G20">
-        <v>0.58783166084119698</v>
+        <v>0.47873565771899901</v>
       </c>
       <c r="H20">
-        <v>0.28465795807641597</v>
+        <v>0.29100147656844999</v>
       </c>
       <c r="I20">
-        <v>0.15196063939691201</v>
+        <v>0.255139478705665</v>
       </c>
       <c r="J20">
-        <v>0.41735527675591999</v>
+        <v>0.32686347443123598</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2572,31 +2572,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.33357601883365501</v>
+        <v>0.46480331982124001</v>
       </c>
       <c r="C21">
-        <v>0.17727329660681801</v>
+        <v>0.43926679679451103</v>
       </c>
       <c r="D21">
-        <v>0.48987874106049201</v>
+        <v>0.490339842847968</v>
       </c>
       <c r="E21">
-        <v>0.29857180337691402</v>
+        <v>0.24088606708414501</v>
       </c>
       <c r="F21">
-        <v>0.19971706721582699</v>
+        <v>0.21128830547781499</v>
       </c>
       <c r="G21">
-        <v>0.397426539538001</v>
+        <v>0.27048382869047499</v>
       </c>
       <c r="H21">
-        <v>0.31769504665751302</v>
+        <v>0.20781784330025699</v>
       </c>
       <c r="I21">
-        <v>9.2384756998092496E-2</v>
+        <v>0.185123841970361</v>
       </c>
       <c r="J21">
-        <v>0.54300533631693304</v>
+        <v>0.23051184463015301</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2604,31 +2604,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.53031317966055802</v>
+        <v>0.358149902663842</v>
       </c>
       <c r="C22">
-        <v>0.23034004594901</v>
+        <v>0.30653090595848598</v>
       </c>
       <c r="D22">
-        <v>0.83028631337210601</v>
+        <v>0.40976889936919803</v>
       </c>
       <c r="E22">
-        <v>0.28966148125236801</v>
+        <v>0.45941805727472401</v>
       </c>
       <c r="F22">
-        <v>0.207729646722146</v>
+        <v>0.30636097955343</v>
       </c>
       <c r="G22">
-        <v>0.37159331578258897</v>
+        <v>0.61247513499601802</v>
       </c>
       <c r="H22">
-        <v>0.45754559767564001</v>
+        <v>0.23096993653608699</v>
       </c>
       <c r="I22">
-        <v>0.353500029462263</v>
+        <v>0.213797022843217</v>
       </c>
       <c r="J22">
-        <v>0.56159116588901703</v>
+        <v>0.24814285022895799</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2636,31 +2636,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.61838857047609497</v>
+        <v>0.53109480592901204</v>
       </c>
       <c r="C23">
-        <v>0.43417331791526897</v>
+        <v>0.48609885626948501</v>
       </c>
       <c r="D23">
-        <v>0.80260382303692201</v>
+        <v>0.57609075558853995</v>
       </c>
       <c r="E23">
-        <v>0.20805953264795399</v>
+        <v>0.226651863703625</v>
       </c>
       <c r="F23">
-        <v>9.1660696141413603E-2</v>
+        <v>0.201366693682898</v>
       </c>
       <c r="G23">
-        <v>0.324458369154494</v>
+        <v>0.251937033724353</v>
       </c>
       <c r="H23">
-        <v>0.46107475480793197</v>
+        <v>0.206157303238273</v>
       </c>
       <c r="I23">
-        <v>0.20717933846009001</v>
+        <v>0.180385238331183</v>
       </c>
       <c r="J23">
-        <v>0.71497017115577399</v>
+        <v>0.231929368145362</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2668,31 +2668,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.43575952471491702</v>
+        <v>0.31405090544007203</v>
       </c>
       <c r="C24">
-        <v>0.30428581181623299</v>
+        <v>0.29611070306938703</v>
       </c>
       <c r="D24">
-        <v>0.567233237613601</v>
+        <v>0.33199110781075802</v>
       </c>
       <c r="E24">
-        <v>0.297502596534993</v>
+        <v>0.241323174399241</v>
       </c>
       <c r="F24">
-        <v>0.22775325043434799</v>
+        <v>0.21750661053869799</v>
       </c>
       <c r="G24">
-        <v>0.36725194263563699</v>
+        <v>0.26513973825978498</v>
       </c>
       <c r="H24">
-        <v>0.27695250632068402</v>
+        <v>0.37374474961814402</v>
       </c>
       <c r="I24">
-        <v>-0.10274410582658</v>
+        <v>0.28139181287668502</v>
       </c>
       <c r="J24">
-        <v>0.65664911846794805</v>
+        <v>0.46609768635960203</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2700,31 +2700,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.51574252007015198</v>
+        <v>0.49390092386607798</v>
       </c>
       <c r="C25">
-        <v>0.32339930080412199</v>
+        <v>0.44355013833133999</v>
       </c>
       <c r="D25">
-        <v>0.70808573933618102</v>
+        <v>0.54425170940081602</v>
       </c>
       <c r="E25">
-        <v>0.361832559539218</v>
+        <v>0.27538166619744597</v>
       </c>
       <c r="F25">
-        <v>0.27928738222079902</v>
+        <v>0.24016194682314901</v>
       </c>
       <c r="G25">
-        <v>0.44437773685763698</v>
+        <v>0.31060138557174299</v>
       </c>
       <c r="H25">
-        <v>0.218440025968685</v>
+        <v>0.21388695570842101</v>
       </c>
       <c r="I25">
-        <v>0.136857195577783</v>
+        <v>0.18821102159952399</v>
       </c>
       <c r="J25">
-        <v>0.30002285635958698</v>
+        <v>0.23956288981731799</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2732,31 +2732,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.34489615457165101</v>
+        <v>0.37503055372549798</v>
       </c>
       <c r="C26">
-        <v>0.220770633757291</v>
+        <v>0.35528988551031099</v>
       </c>
       <c r="D26">
-        <v>0.46902167538601203</v>
+        <v>0.39477122194068498</v>
       </c>
       <c r="E26">
-        <v>-2.0646931066832502E-2</v>
+        <v>0.30329282778876698</v>
       </c>
       <c r="F26">
-        <v>-0.305348399956275</v>
+        <v>0.27457740870174702</v>
       </c>
       <c r="G26">
-        <v>0.26405453782261001</v>
+        <v>0.33200824687578601</v>
       </c>
       <c r="H26">
-        <v>0.16211897232984099</v>
+        <v>0.44315597175796101</v>
       </c>
       <c r="I26">
-        <v>3.5590976182978198E-2</v>
+        <v>0.37002091379843199</v>
       </c>
       <c r="J26">
-        <v>0.28864696847670401</v>
+        <v>0.51629102971748897</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2764,31 +2764,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.38355387517727801</v>
+        <v>0.38383578987419098</v>
       </c>
       <c r="C27">
-        <v>0.197978096239146</v>
+        <v>0.35507731014105298</v>
       </c>
       <c r="D27">
-        <v>0.56912965411541006</v>
+        <v>0.41259426960732898</v>
       </c>
       <c r="E27">
-        <v>0.22773467056083099</v>
+        <v>0.45120048138345897</v>
       </c>
       <c r="F27">
-        <v>0.13101959218518699</v>
+        <v>0.34627602562229198</v>
       </c>
       <c r="G27">
-        <v>0.32444974893647599</v>
+        <v>0.55612493714462496</v>
       </c>
       <c r="H27">
-        <v>0.44987741312223201</v>
+        <v>0.356155729933682</v>
       </c>
       <c r="I27">
-        <v>0.19951934468027399</v>
+        <v>0.30749156243054898</v>
       </c>
       <c r="J27">
-        <v>0.70023548156419102</v>
+        <v>0.40481989743681401</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2797,19 +2797,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.43717581785399368</v>
+        <v>0.42841958814917436</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.25094621130106143</v>
+        <v>0.3249110032642345</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.3001912550353299</v>
+        <v>0.27650644337413122</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2820,19 +2820,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.1746469328437586</v>
+        <v>8.5668853923128854E-2</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.11589319445767407</v>
+        <v>7.6843546792484049E-2</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.1486598623034143</v>
+        <v>7.1023171901611226E-2</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2863,19 +2863,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>9.7697494232798568E-2</v>
+        <v>4.7923156884598285E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>6.4830652979622885E-2</v>
+        <v>4.2986280075715574E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>8.3160326972529966E-2</v>
+        <v>3.9730362361761321E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2959,821 +2959,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.61887525463302995</v>
-      </c>
-      <c r="C3">
-        <v>-0.19122399705027801</v>
-      </c>
-      <c r="D3">
-        <v>1.4289745063163399</v>
-      </c>
-      <c r="E3">
-        <v>0.80284427835267602</v>
-      </c>
-      <c r="F3">
-        <v>8.5544680724884498E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.52014387598047</v>
-      </c>
-      <c r="H3">
-        <v>0.82110222080122297</v>
-      </c>
-      <c r="I3">
-        <v>4.4657037934055802E-2</v>
-      </c>
-      <c r="J3">
-        <v>1.5975474036683901</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.7660783312561099</v>
-      </c>
-      <c r="C4">
-        <v>-7.0139464773497702</v>
-      </c>
-      <c r="D4">
-        <v>10.546103139862</v>
-      </c>
-      <c r="E4">
-        <v>1.18511110333271</v>
-      </c>
-      <c r="F4">
-        <v>0.85349572440945398</v>
-      </c>
-      <c r="G4">
-        <v>1.5167264822559701</v>
-      </c>
-      <c r="H4">
-        <v>0.79245480788389999</v>
-      </c>
-      <c r="I4">
-        <v>0.20962092141275901</v>
-      </c>
-      <c r="J4">
-        <v>1.37528869435504</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.402585774745775</v>
-      </c>
-      <c r="C5">
-        <v>-0.31164366835885399</v>
-      </c>
-      <c r="D5">
-        <v>1.1168152178504001</v>
-      </c>
-      <c r="E5">
-        <v>0.70193786242353995</v>
-      </c>
-      <c r="F5">
-        <v>0.258957393449531</v>
-      </c>
-      <c r="G5">
-        <v>1.1449183313975499</v>
-      </c>
-      <c r="H5">
-        <v>0.940138047593302</v>
-      </c>
-      <c r="I5">
-        <v>0.41136500885082</v>
-      </c>
-      <c r="J5">
-        <v>1.4689110863357799</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.74326854247209995</v>
-      </c>
-      <c r="C6">
-        <v>3.8872871065082602E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.44766421387912</v>
-      </c>
-      <c r="E6">
-        <v>0.71588679417530898</v>
-      </c>
-      <c r="F6">
-        <v>0.15671857156114599</v>
-      </c>
-      <c r="G6">
-        <v>1.2750550167894701</v>
-      </c>
-      <c r="H6">
-        <v>0.56014639593307003</v>
-      </c>
-      <c r="I6">
-        <v>0.21001209321692199</v>
-      </c>
-      <c r="J6">
-        <v>0.91028069864921801</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.841339490116501</v>
-      </c>
-      <c r="C7">
-        <v>-1.3829714175610499</v>
-      </c>
-      <c r="D7">
-        <v>3.0656503977940601</v>
-      </c>
-      <c r="E7">
-        <v>0.78030946752937902</v>
-      </c>
-      <c r="F7">
-        <v>0.25806442321348799</v>
-      </c>
-      <c r="G7">
-        <v>1.3025545118452699</v>
-      </c>
-      <c r="H7">
-        <v>0.41238665423291798</v>
-      </c>
-      <c r="I7">
-        <v>-0.133174512834349</v>
-      </c>
-      <c r="J7">
-        <v>0.95794782130018497</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.50945473224561699</v>
-      </c>
-      <c r="C8">
-        <v>-0.33757797405346301</v>
-      </c>
-      <c r="D8">
-        <v>1.3564874385447001</v>
-      </c>
-      <c r="E8">
-        <v>0.51523596698500695</v>
-      </c>
-      <c r="F8">
-        <v>0.112054078677185</v>
-      </c>
-      <c r="G8">
-        <v>0.91841785529282904</v>
-      </c>
-      <c r="H8">
-        <v>0.64540108227039605</v>
-      </c>
-      <c r="I8">
-        <v>0.133618586199619</v>
-      </c>
-      <c r="J8">
-        <v>1.1571835783411699</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.81895124516669004</v>
-      </c>
-      <c r="C9">
-        <v>0.21637146061894799</v>
-      </c>
-      <c r="D9">
-        <v>1.4215310297144299</v>
-      </c>
-      <c r="E9">
-        <v>0.672158400478155</v>
-      </c>
-      <c r="F9">
-        <v>-0.235995242018322</v>
-      </c>
-      <c r="G9">
-        <v>1.58031204297463</v>
-      </c>
-      <c r="H9">
-        <v>1.01331894669935</v>
-      </c>
-      <c r="I9">
-        <v>-0.31591030869486603</v>
-      </c>
-      <c r="J9">
-        <v>2.34254820209356</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.5810676370296199</v>
-      </c>
-      <c r="C10">
-        <v>-5.0400403381366399</v>
-      </c>
-      <c r="D10">
-        <v>8.2021756121958802</v>
-      </c>
-      <c r="E10">
-        <v>0.60561314507473396</v>
-      </c>
-      <c r="F10">
-        <v>0.12339514355433399</v>
-      </c>
-      <c r="G10">
-        <v>1.08783114659513</v>
-      </c>
-      <c r="H10">
-        <v>0.81796499295699898</v>
-      </c>
-      <c r="I10">
-        <v>0.29619678744459099</v>
-      </c>
-      <c r="J10">
-        <v>1.3397331984694101</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.71874611291280299</v>
-      </c>
-      <c r="C11">
-        <v>0.34634269078765501</v>
-      </c>
-      <c r="D11">
-        <v>1.0911495350379501</v>
-      </c>
-      <c r="E11">
-        <v>0.93254419161192004</v>
-      </c>
-      <c r="F11">
-        <v>0.153744029672091</v>
-      </c>
-      <c r="G11">
-        <v>1.7113443535517501</v>
-      </c>
-      <c r="H11">
-        <v>0.45002468048427002</v>
-      </c>
-      <c r="I11">
-        <v>6.8268156947862396E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.83178120402067801</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.2027288553212101</v>
-      </c>
-      <c r="C12">
-        <v>0.13034055550655399</v>
-      </c>
-      <c r="D12">
-        <v>2.2751171551358702</v>
-      </c>
-      <c r="E12">
-        <v>0.73182546058640396</v>
-      </c>
-      <c r="F12">
-        <v>0.191026237278549</v>
-      </c>
-      <c r="G12">
-        <v>1.2726246838942601</v>
-      </c>
-      <c r="H12">
-        <v>0.84239144719565295</v>
-      </c>
-      <c r="I12">
-        <v>0.28517048551256502</v>
-      </c>
-      <c r="J12">
-        <v>1.3996124088787401</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.93330837061829097</v>
-      </c>
-      <c r="C13">
-        <v>0.14140945667062099</v>
-      </c>
-      <c r="D13">
-        <v>1.7252072845659601</v>
-      </c>
-      <c r="E13">
-        <v>1.05447008080593</v>
-      </c>
-      <c r="F13">
-        <v>-0.43636130239063298</v>
-      </c>
-      <c r="G13">
-        <v>2.54530146400249</v>
-      </c>
-      <c r="H13">
-        <v>0.47810574130185801</v>
-      </c>
-      <c r="I13">
-        <v>0.203616681079621</v>
-      </c>
-      <c r="J13">
-        <v>0.75259480152409497</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>6.4822666589174798</v>
-      </c>
-      <c r="C14">
-        <v>-470.82119187099198</v>
-      </c>
-      <c r="D14">
-        <v>483.78572518882697</v>
-      </c>
-      <c r="E14">
-        <v>0.90201466973100997</v>
-      </c>
-      <c r="F14">
-        <v>0.147146066734299</v>
-      </c>
-      <c r="G14">
-        <v>1.6568832727277201</v>
-      </c>
-      <c r="H14">
-        <v>1.18438293336085</v>
-      </c>
-      <c r="I14">
-        <v>0.311050267954189</v>
-      </c>
-      <c r="J14">
-        <v>2.0577155987675102</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.1191176214343399</v>
-      </c>
-      <c r="C15">
-        <v>-0.98625055809343398</v>
-      </c>
-      <c r="D15">
-        <v>3.22448580096211</v>
-      </c>
-      <c r="E15">
-        <v>1.0309020517944001</v>
-      </c>
-      <c r="F15">
-        <v>0.457691327165553</v>
-      </c>
-      <c r="G15">
-        <v>1.6041127764232399</v>
-      </c>
-      <c r="H15">
-        <v>0.82677118975987895</v>
-      </c>
-      <c r="I15">
-        <v>0.53997226350689798</v>
-      </c>
-      <c r="J15">
-        <v>1.1135701160128599</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.80242202216446301</v>
-      </c>
-      <c r="C16">
-        <v>-0.86944720811035603</v>
-      </c>
-      <c r="D16">
-        <v>2.4742912524392802</v>
-      </c>
-      <c r="E16">
-        <v>0.61136749707976101</v>
-      </c>
-      <c r="F16">
-        <v>0.20884948468874001</v>
-      </c>
-      <c r="G16">
-        <v>1.0138855094707799</v>
-      </c>
-      <c r="H16">
-        <v>0.64793881508304196</v>
-      </c>
-      <c r="I16">
-        <v>0.36799432432102402</v>
-      </c>
-      <c r="J16">
-        <v>0.92788330584505996</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.249151050002277</v>
-      </c>
-      <c r="C17">
-        <v>-0.70294092641535699</v>
-      </c>
-      <c r="D17">
-        <v>1.2012430264199101</v>
-      </c>
-      <c r="E17">
-        <v>0.66216140980923699</v>
-      </c>
-      <c r="F17">
-        <v>0.10945999325467599</v>
-      </c>
-      <c r="G17">
-        <v>1.2148628263637999</v>
-      </c>
-      <c r="H17">
-        <v>0.55312403519947295</v>
-      </c>
-      <c r="I17">
-        <v>0.44075030366734202</v>
-      </c>
-      <c r="J17">
-        <v>0.66549776673160399</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.41686646567648</v>
-      </c>
-      <c r="C18">
-        <v>-1.9990031648395501</v>
-      </c>
-      <c r="D18">
-        <v>4.8327360961924999</v>
-      </c>
-      <c r="E18">
-        <v>0.66373809828955499</v>
-      </c>
-      <c r="F18">
-        <v>0.20463717891793401</v>
-      </c>
-      <c r="G18">
-        <v>1.12283901766118</v>
-      </c>
-      <c r="H18">
-        <v>0.92173730353993599</v>
-      </c>
-      <c r="I18">
-        <v>0.40329970107231999</v>
-      </c>
-      <c r="J18">
-        <v>1.4401749060075499</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.49230850096247297</v>
-      </c>
-      <c r="C19">
-        <v>-0.26858654219431199</v>
-      </c>
-      <c r="D19">
-        <v>1.2532035441192599</v>
-      </c>
-      <c r="E19">
-        <v>1.5151498820895799</v>
-      </c>
-      <c r="F19">
-        <v>7.5532947676402798E-2</v>
-      </c>
-      <c r="G19">
-        <v>2.9547668165027599</v>
-      </c>
-      <c r="H19">
-        <v>1.0620455251940999</v>
-      </c>
-      <c r="I19">
-        <v>0.44537728121577502</v>
-      </c>
-      <c r="J19">
-        <v>1.6787137691724301</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.5340191936385099</v>
-      </c>
-      <c r="C20">
-        <v>-2.2215830574028401</v>
-      </c>
-      <c r="D20">
-        <v>5.2896214446798497</v>
-      </c>
-      <c r="E20">
-        <v>0.89211062227024196</v>
-      </c>
-      <c r="F20">
-        <v>0.41763001264417099</v>
-      </c>
-      <c r="G20">
-        <v>1.36659123189631</v>
-      </c>
-      <c r="H20">
-        <v>0.54607355509732203</v>
-      </c>
-      <c r="I20">
-        <v>0.26678167414391002</v>
-      </c>
-      <c r="J20">
-        <v>0.82536543605073398</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.64598512222482896</v>
-      </c>
-      <c r="C21">
-        <v>0.11650735619163</v>
-      </c>
-      <c r="D21">
-        <v>1.17546288825803</v>
-      </c>
-      <c r="E21">
-        <v>0.52829513440539699</v>
-      </c>
-      <c r="F21">
-        <v>0.22889498050677901</v>
-      </c>
-      <c r="G21">
-        <v>0.82769528830401495</v>
-      </c>
-      <c r="H21">
-        <v>0.4562937421835</v>
-      </c>
-      <c r="I21">
-        <v>0.204077242001802</v>
-      </c>
-      <c r="J21">
-        <v>0.708510242365197</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.48798962448842298</v>
-      </c>
-      <c r="C22">
-        <v>5.8660793675850899E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.91731845530099498</v>
-      </c>
-      <c r="E22">
-        <v>0.51727966491241695</v>
-      </c>
-      <c r="F22">
-        <v>9.3947418419353501E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.94061191140548095</v>
-      </c>
-      <c r="H22">
-        <v>0.54545918725126596</v>
-      </c>
-      <c r="I22">
-        <v>0.37536968654178299</v>
-      </c>
-      <c r="J22">
-        <v>0.715548687960749</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.78968006110344</v>
-      </c>
-      <c r="C23">
-        <v>-1.5424492406368799</v>
-      </c>
-      <c r="D23">
-        <v>5.1218093628437602</v>
-      </c>
-      <c r="E23">
-        <v>0.51084319375814202</v>
-      </c>
-      <c r="F23">
-        <v>0.17096007449009801</v>
-      </c>
-      <c r="G23">
-        <v>0.85072631302618495</v>
-      </c>
-      <c r="H23">
-        <v>0.56459437002912205</v>
-      </c>
-      <c r="I23">
-        <v>0.26451530768549902</v>
-      </c>
-      <c r="J23">
-        <v>0.86467343237274497</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.9447678272862301</v>
-      </c>
-      <c r="C24">
-        <v>-3.9737856792451298</v>
-      </c>
-      <c r="D24">
-        <v>7.8633213338175896</v>
-      </c>
-      <c r="E24">
-        <v>1.4149026543544201</v>
-      </c>
-      <c r="F24">
-        <v>-0.20057411617376</v>
-      </c>
-      <c r="G24">
-        <v>3.0303794248825899</v>
-      </c>
-      <c r="H24">
-        <v>1.4836630481451201</v>
-      </c>
-      <c r="I24">
-        <v>-7.4890412246655397E-3</v>
-      </c>
-      <c r="J24">
-        <v>2.9748151375148999</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>2.0190807355190699</v>
-      </c>
-      <c r="C25">
-        <v>-7.1000257313542097</v>
-      </c>
-      <c r="D25">
-        <v>11.1381872023924</v>
-      </c>
-      <c r="E25">
-        <v>1.40538801868894</v>
-      </c>
-      <c r="F25">
-        <v>-0.19881632949786801</v>
-      </c>
-      <c r="G25">
-        <v>3.0095923668757498</v>
-      </c>
-      <c r="H25">
-        <v>0.73331044169746895</v>
-      </c>
-      <c r="I25">
-        <v>0.414246806658289</v>
-      </c>
-      <c r="J25">
-        <v>1.0523740767366501</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.43208007083572703</v>
-      </c>
-      <c r="C26">
-        <v>-0.284025871018798</v>
-      </c>
-      <c r="D26">
-        <v>1.1481860126902499</v>
-      </c>
-      <c r="E26">
-        <v>0.62864259531130695</v>
-      </c>
-      <c r="F26">
-        <v>0.38634462048117402</v>
-      </c>
-      <c r="G26">
-        <v>0.870940570141439</v>
-      </c>
-      <c r="H26">
-        <v>0.56633975509725498</v>
-      </c>
-      <c r="I26">
-        <v>0.435910137184987</v>
-      </c>
-      <c r="J26">
-        <v>0.69676937300952302</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.17319644489845601</v>
-      </c>
-      <c r="C27">
-        <v>-1.0386768747284201</v>
-      </c>
-      <c r="D27">
-        <v>1.38506976452534</v>
-      </c>
-      <c r="E27">
-        <v>1.3894901356493099</v>
-      </c>
-      <c r="F27">
-        <v>-0.30337805974172199</v>
-      </c>
-      <c r="G27">
-        <v>3.0823583310403402</v>
-      </c>
-      <c r="H27">
-        <v>0.70545584237279402</v>
-      </c>
-      <c r="I27">
-        <v>0.42589968106939502</v>
-      </c>
-      <c r="J27">
-        <v>0.98501200367619302</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>1.1890134298267978</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.85480889517997927</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.74282499045456263</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3782,21 +3107,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>1.2308524991859375</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>0.31145569524439271</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.25804048279931419</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3825,21 +3150,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>0.6885388880446135</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>0.17422831591971327</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>0.14434784607793635</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3923,821 +3248,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6.96105734488522E-2</v>
-      </c>
-      <c r="C3">
-        <v>-0.42085224851552999</v>
-      </c>
-      <c r="D3">
-        <v>0.56007339541323498</v>
-      </c>
-      <c r="E3">
-        <v>-0.16017017982697901</v>
-      </c>
-      <c r="F3">
-        <v>-0.482750084412294</v>
-      </c>
-      <c r="G3">
-        <v>0.16240972475833601</v>
-      </c>
-      <c r="H3">
-        <v>2.8991682266530198E-2</v>
-      </c>
-      <c r="I3">
-        <v>-0.27099971190366501</v>
-      </c>
-      <c r="J3">
-        <v>0.32898307643672497</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>9.6712809620581999E-2</v>
-      </c>
-      <c r="C4">
-        <v>-0.26578984492250202</v>
-      </c>
-      <c r="D4">
-        <v>0.45921546416366599</v>
-      </c>
-      <c r="E4">
-        <v>-0.10578778395505101</v>
-      </c>
-      <c r="F4">
-        <v>-0.33664909782302699</v>
-      </c>
-      <c r="G4">
-        <v>0.125073529912925</v>
-      </c>
-      <c r="H4">
-        <v>-1.7214071451549299E-2</v>
-      </c>
-      <c r="I4">
-        <v>-0.28436984666020398</v>
-      </c>
-      <c r="J4">
-        <v>0.249941703757106</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-6.2530143456226303E-2</v>
-      </c>
-      <c r="C5">
-        <v>-0.34840957401087802</v>
-      </c>
-      <c r="D5">
-        <v>0.223349287098425</v>
-      </c>
-      <c r="E5">
-        <v>3.3932271611425903E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.25059355756497298</v>
-      </c>
-      <c r="G5">
-        <v>0.31845810078782499</v>
-      </c>
-      <c r="H5">
-        <v>6.9120979883215194E-2</v>
-      </c>
-      <c r="I5">
-        <v>-0.14943610718924299</v>
-      </c>
-      <c r="J5">
-        <v>0.287678066955673</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-5.2861967520690103E-3</v>
-      </c>
-      <c r="C6">
-        <v>-0.36273804384438402</v>
-      </c>
-      <c r="D6">
-        <v>0.35216565034024599</v>
-      </c>
-      <c r="E6">
-        <v>3.2424735429947803E-2</v>
-      </c>
-      <c r="F6">
-        <v>-0.30919157441494199</v>
-      </c>
-      <c r="G6">
-        <v>0.374041045274837</v>
-      </c>
-      <c r="H6">
-        <v>0.32355051966236198</v>
-      </c>
-      <c r="I6">
-        <v>4.6494956824890903E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.60060608249983405</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2.1225259009718101E-2</v>
-      </c>
-      <c r="C7">
-        <v>-0.27009514105047999</v>
-      </c>
-      <c r="D7">
-        <v>0.31254565906991699</v>
-      </c>
-      <c r="E7">
-        <v>7.3127985165886394E-2</v>
-      </c>
-      <c r="F7">
-        <v>-0.16109799638153</v>
-      </c>
-      <c r="G7">
-        <v>0.30735396671330301</v>
-      </c>
-      <c r="H7">
-        <v>2.3946918098298801E-2</v>
-      </c>
-      <c r="I7">
-        <v>-0.19254207463387099</v>
-      </c>
-      <c r="J7">
-        <v>0.240435910830468</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-8.5717951957180807E-3</v>
-      </c>
-      <c r="C8">
-        <v>-0.32406036731520199</v>
-      </c>
-      <c r="D8">
-        <v>0.30691677692376501</v>
-      </c>
-      <c r="E8">
-        <v>-6.6743474035511299E-2</v>
-      </c>
-      <c r="F8">
-        <v>-0.31383988813298602</v>
-      </c>
-      <c r="G8">
-        <v>0.18035294006196401</v>
-      </c>
-      <c r="H8">
-        <v>-3.1529244283423297E-2</v>
-      </c>
-      <c r="I8">
-        <v>-0.23349954121285099</v>
-      </c>
-      <c r="J8">
-        <v>0.17044105264600501</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-0.11352013403957199</v>
-      </c>
-      <c r="C9">
-        <v>-0.392814322788759</v>
-      </c>
-      <c r="D9">
-        <v>0.16577405470961601</v>
-      </c>
-      <c r="E9">
-        <v>0.13541001901834299</v>
-      </c>
-      <c r="F9">
-        <v>-0.207989956335005</v>
-      </c>
-      <c r="G9">
-        <v>0.47880999437168997</v>
-      </c>
-      <c r="H9">
-        <v>-0.17780542474637201</v>
-      </c>
-      <c r="I9">
-        <v>-0.57567255357245894</v>
-      </c>
-      <c r="J9">
-        <v>0.22006170407971501</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>-8.81005179342709E-2</v>
-      </c>
-      <c r="C10">
-        <v>-0.32203489544292502</v>
-      </c>
-      <c r="D10">
-        <v>0.145833859574383</v>
-      </c>
-      <c r="E10">
-        <v>-4.03703395345432E-2</v>
-      </c>
-      <c r="F10">
-        <v>-0.231360358463228</v>
-      </c>
-      <c r="G10">
-        <v>0.150619679394142</v>
-      </c>
-      <c r="H10">
-        <v>-5.3111170146491797E-2</v>
-      </c>
-      <c r="I10">
-        <v>-0.30443643693593703</v>
-      </c>
-      <c r="J10">
-        <v>0.198214096642953</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.49598649091705E-3</v>
-      </c>
-      <c r="C11">
-        <v>-0.33107556942128802</v>
-      </c>
-      <c r="D11">
-        <v>0.33406754240312198</v>
-      </c>
-      <c r="E11">
-        <v>5.7193521175873903E-2</v>
-      </c>
-      <c r="F11">
-        <v>-0.15161429650953201</v>
-      </c>
-      <c r="G11">
-        <v>0.26600133886128002</v>
-      </c>
-      <c r="H11">
-        <v>5.6361504453812897E-2</v>
-      </c>
-      <c r="I11">
-        <v>-0.30537737632460699</v>
-      </c>
-      <c r="J11">
-        <v>0.41810038523223297</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.105729129229718</v>
-      </c>
-      <c r="C12">
-        <v>-0.341305032463945</v>
-      </c>
-      <c r="D12">
-        <v>0.55276329092338095</v>
-      </c>
-      <c r="E12">
-        <v>1.1170139990630901E-3</v>
-      </c>
-      <c r="F12">
-        <v>-0.42691581681499502</v>
-      </c>
-      <c r="G12">
-        <v>0.42914984481312102</v>
-      </c>
-      <c r="H12">
-        <v>-1.6848487571142198E-2</v>
-      </c>
-      <c r="I12">
-        <v>-0.40683425858692801</v>
-      </c>
-      <c r="J12">
-        <v>0.37313728344464397</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>-0.15594397910503199</v>
-      </c>
-      <c r="C13">
-        <v>-0.375728470232291</v>
-      </c>
-      <c r="D13">
-        <v>6.3840512022227902E-2</v>
-      </c>
-      <c r="E13">
-        <v>-4.1108596875749602E-2</v>
-      </c>
-      <c r="F13">
-        <v>-0.40155687862542699</v>
-      </c>
-      <c r="G13">
-        <v>0.319339684873928</v>
-      </c>
-      <c r="H13">
-        <v>-0.180318111288094</v>
-      </c>
-      <c r="I13">
-        <v>-0.37935785940301098</v>
-      </c>
-      <c r="J13">
-        <v>1.8721636826822999E-2</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-7.1299001223651598E-2</v>
-      </c>
-      <c r="C14">
-        <v>-0.33910045221544799</v>
-      </c>
-      <c r="D14">
-        <v>0.19650244976814399</v>
-      </c>
-      <c r="E14">
-        <v>-3.7582802863600197E-2</v>
-      </c>
-      <c r="F14">
-        <v>-0.33552546757131901</v>
-      </c>
-      <c r="G14">
-        <v>0.26035986184411802</v>
-      </c>
-      <c r="H14">
-        <v>0.25070832124300602</v>
-      </c>
-      <c r="I14">
-        <v>-5.3108613712166602E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.55452525619817805</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>9.4116522316198006E-2</v>
-      </c>
-      <c r="C15">
-        <v>-0.46029803016054299</v>
-      </c>
-      <c r="D15">
-        <v>0.64853107479293903</v>
-      </c>
-      <c r="E15">
-        <v>2.6242005711518499E-2</v>
-      </c>
-      <c r="F15">
-        <v>-0.23338060450256301</v>
-      </c>
-      <c r="G15">
-        <v>0.28586461592559997</v>
-      </c>
-      <c r="H15">
-        <v>7.7086637785305903E-2</v>
-      </c>
-      <c r="I15">
-        <v>-0.14094467902928501</v>
-      </c>
-      <c r="J15">
-        <v>0.29511795459989698</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>-0.107727603139966</v>
-      </c>
-      <c r="C16">
-        <v>-0.57743841040940902</v>
-      </c>
-      <c r="D16">
-        <v>0.36198320412947699</v>
-      </c>
-      <c r="E16">
-        <v>7.2209528119606001E-2</v>
-      </c>
-      <c r="F16">
-        <v>-0.188219094646838</v>
-      </c>
-      <c r="G16">
-        <v>0.33263815088604998</v>
-      </c>
-      <c r="H16">
-        <v>0.100000807847666</v>
-      </c>
-      <c r="I16">
-        <v>-0.105924887353904</v>
-      </c>
-      <c r="J16">
-        <v>0.30592650304923602</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.8849116964149499E-2</v>
-      </c>
-      <c r="C17">
-        <v>-0.357863736061999</v>
-      </c>
-      <c r="D17">
-        <v>0.39556196999029802</v>
-      </c>
-      <c r="E17">
-        <v>-0.127510476073491</v>
-      </c>
-      <c r="F17">
-        <v>-0.436778639685519</v>
-      </c>
-      <c r="G17">
-        <v>0.18175768753853799</v>
-      </c>
-      <c r="H17">
-        <v>-9.6464364230494606E-2</v>
-      </c>
-      <c r="I17">
-        <v>-0.32424331166155301</v>
-      </c>
-      <c r="J17">
-        <v>0.13131458320056399</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>2.3391599950260099E-2</v>
-      </c>
-      <c r="C18">
-        <v>-0.369587272151358</v>
-      </c>
-      <c r="D18">
-        <v>0.41637047205187899</v>
-      </c>
-      <c r="E18">
-        <v>-7.8389443517404594E-2</v>
-      </c>
-      <c r="F18">
-        <v>-0.33397056793411201</v>
-      </c>
-      <c r="G18">
-        <v>0.17719168089930301</v>
-      </c>
-      <c r="H18">
-        <v>-0.106568389430292</v>
-      </c>
-      <c r="I18">
-        <v>-0.481939405062353</v>
-      </c>
-      <c r="J18">
-        <v>0.26880262620176898</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.17900989878500401</v>
-      </c>
-      <c r="C19">
-        <v>-0.32731153381744299</v>
-      </c>
-      <c r="D19">
-        <v>0.68533133138744995</v>
-      </c>
-      <c r="E19">
-        <v>-3.3607239148539697E-4</v>
-      </c>
-      <c r="F19">
-        <v>-0.22601999547016899</v>
-      </c>
-      <c r="G19">
-        <v>0.22534785068719801</v>
-      </c>
-      <c r="H19">
-        <v>-0.12702145341200999</v>
-      </c>
-      <c r="I19">
-        <v>-0.37516669121715701</v>
-      </c>
-      <c r="J19">
-        <v>0.12112378439313699</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>-0.10612977226010099</v>
-      </c>
-      <c r="C20">
-        <v>-0.29030865716195497</v>
-      </c>
-      <c r="D20">
-        <v>7.8049112641752294E-2</v>
-      </c>
-      <c r="E20">
-        <v>-7.5097706399126801E-2</v>
-      </c>
-      <c r="F20">
-        <v>-0.43552771895595999</v>
-      </c>
-      <c r="G20">
-        <v>0.28533230615770699</v>
-      </c>
-      <c r="H20">
-        <v>0.143665098201327</v>
-      </c>
-      <c r="I20">
-        <v>-0.32262561046222699</v>
-      </c>
-      <c r="J20">
-        <v>0.60995580686488104</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.11936962328237601</v>
-      </c>
-      <c r="C21">
-        <v>-0.28863206654567197</v>
-      </c>
-      <c r="D21">
-        <v>0.52737131311042396</v>
-      </c>
-      <c r="E21">
-        <v>0.11323200297590801</v>
-      </c>
-      <c r="F21">
-        <v>-0.236597143881497</v>
-      </c>
-      <c r="G21">
-        <v>0.46306114983331298</v>
-      </c>
-      <c r="H21">
-        <v>2.5310076888235701E-2</v>
-      </c>
-      <c r="I21">
-        <v>-0.20718681723599999</v>
-      </c>
-      <c r="J21">
-        <v>0.25780697101247102</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>4.0971574933716601E-2</v>
-      </c>
-      <c r="C22">
-        <v>-0.22693434867988499</v>
-      </c>
-      <c r="D22">
-        <v>0.308877498547319</v>
-      </c>
-      <c r="E22">
-        <v>-5.5699432099034302E-2</v>
-      </c>
-      <c r="F22">
-        <v>-0.394598210222734</v>
-      </c>
-      <c r="G22">
-        <v>0.28319934602466601</v>
-      </c>
-      <c r="H22">
-        <v>-8.4374293709690795E-2</v>
-      </c>
-      <c r="I22">
-        <v>-0.36395969897614699</v>
-      </c>
-      <c r="J22">
-        <v>0.19521111155676499</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.15806943091615899</v>
-      </c>
-      <c r="C23">
-        <v>-0.24162745391669499</v>
-      </c>
-      <c r="D23">
-        <v>0.55776631574901303</v>
-      </c>
-      <c r="E23">
-        <v>0.123008172606695</v>
-      </c>
-      <c r="F23">
-        <v>-0.23341206779961299</v>
-      </c>
-      <c r="G23">
-        <v>0.47942841301300199</v>
-      </c>
-      <c r="H23">
-        <v>4.9219803531862998E-2</v>
-      </c>
-      <c r="I23">
-        <v>-0.30610620381852499</v>
-      </c>
-      <c r="J23">
-        <v>0.404545810882251</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>3.2354438865503897E-2</v>
-      </c>
-      <c r="C24">
-        <v>-0.26668609863396803</v>
-      </c>
-      <c r="D24">
-        <v>0.331394976364976</v>
-      </c>
-      <c r="E24">
-        <v>0.206029608675143</v>
-      </c>
-      <c r="F24">
-        <v>-0.32537228807143498</v>
-      </c>
-      <c r="G24">
-        <v>0.73743150542172098</v>
-      </c>
-      <c r="H24">
-        <v>0.21840391803571699</v>
-      </c>
-      <c r="I24">
-        <v>-1.2446663937582E-2</v>
-      </c>
-      <c r="J24">
-        <v>0.44925450000901601</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>-5.5931491929048803E-2</v>
-      </c>
-      <c r="C25">
-        <v>-0.32927617797229602</v>
-      </c>
-      <c r="D25">
-        <v>0.21741319411419799</v>
-      </c>
-      <c r="E25">
-        <v>3.9698365742690402E-2</v>
-      </c>
-      <c r="F25">
-        <v>-0.37658326492983202</v>
-      </c>
-      <c r="G25">
-        <v>0.45597999641521197</v>
-      </c>
-      <c r="H25">
-        <v>9.2327018991657503E-2</v>
-      </c>
-      <c r="I25">
-        <v>-0.23917467855610899</v>
-      </c>
-      <c r="J25">
-        <v>0.423828716539424</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.17043307220421</v>
-      </c>
-      <c r="C26">
-        <v>-7.7346464627556399E-2</v>
-      </c>
-      <c r="D26">
-        <v>0.41821260903597601</v>
-      </c>
-      <c r="E26">
-        <v>0.10410618938302101</v>
-      </c>
-      <c r="F26">
-        <v>-0.106326043860098</v>
-      </c>
-      <c r="G26">
-        <v>0.31453842262614001</v>
-      </c>
-      <c r="H26">
-        <v>-6.2269790903543197E-2</v>
-      </c>
-      <c r="I26">
-        <v>-0.50408397604058197</v>
-      </c>
-      <c r="J26">
-        <v>0.37954439423349501</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>5.9085023690364398E-2</v>
-      </c>
-      <c r="C27">
-        <v>-0.18345265732191099</v>
-      </c>
-      <c r="D27">
-        <v>0.30162270470264002</v>
-      </c>
-      <c r="E27">
-        <v>-0.17429305517885199</v>
-      </c>
-      <c r="F27">
-        <v>-0.62484089359473804</v>
-      </c>
-      <c r="G27">
-        <v>0.27625478323703401</v>
-      </c>
-      <c r="H27">
-        <v>2.4854010465248801E-2</v>
-      </c>
-      <c r="I27">
-        <v>-0.27266265510884202</v>
-      </c>
-      <c r="J27">
-        <v>0.32237067603934</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>1.6615336986882927E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>2.1856822745717442E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>2.1200899847245713E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4746,21 +3396,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>9.4712660916288285E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>9.6891982516648961E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.1255780385150263</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4789,21 +3439,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>5.2982262516571663E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>5.4201375019813439E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>7.0248354745305719E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4829,10 +3479,13 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
@@ -4889,31 +3542,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.53833384921755201</v>
+        <v>1.75519564136013</v>
       </c>
       <c r="C3">
-        <v>-0.13833073166253301</v>
+        <v>0.77217799996584502</v>
       </c>
       <c r="D3">
-        <v>1.21499843009764</v>
+        <v>2.7382132827544101</v>
       </c>
       <c r="E3">
-        <v>0.512789941258185</v>
+        <v>1.0161909621513701</v>
       </c>
       <c r="F3">
-        <v>6.7741301832954202E-3</v>
+        <v>0.88529867632418502</v>
       </c>
       <c r="G3">
-        <v>1.01880575233307</v>
+        <v>1.14708324797856</v>
       </c>
       <c r="H3">
-        <v>0.54588531244005201</v>
+        <v>0.94573412555360403</v>
       </c>
       <c r="I3">
-        <v>-0.12856294998603501</v>
+        <v>0.80251058468719105</v>
       </c>
       <c r="J3">
-        <v>1.2203335748661399</v>
+        <v>1.08895766642002</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4921,31 +3574,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.2598106598902801</v>
+        <v>1.5851798596117399</v>
       </c>
       <c r="C4">
-        <v>-34.011176332677898</v>
+        <v>1.26709340341041</v>
       </c>
       <c r="D4">
-        <v>40.530797652458403</v>
+        <v>1.9032663158130601</v>
       </c>
       <c r="E4">
-        <v>1.1786671873897701</v>
+        <v>1.04212163282727</v>
       </c>
       <c r="F4">
-        <v>0.62801185819971495</v>
+        <v>0.90846021402677402</v>
       </c>
       <c r="G4">
-        <v>1.7293225165798201</v>
+        <v>1.1757830516277701</v>
       </c>
       <c r="H4">
-        <v>0.64694913041430702</v>
+        <v>0.90493907857282396</v>
       </c>
       <c r="I4">
-        <v>0.10628859124873399</v>
+        <v>0.82520355470945805</v>
       </c>
       <c r="J4">
-        <v>1.1876096695798799</v>
+        <v>0.98467460243618998</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4953,31 +3606,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.36421368275288002</v>
+        <v>1.7934405987186901</v>
       </c>
       <c r="C5">
-        <v>-0.76554172672294896</v>
+        <v>1.15773614788983</v>
       </c>
       <c r="D5">
-        <v>1.4939690922287101</v>
+        <v>2.4291450495475599</v>
       </c>
       <c r="E5">
-        <v>0.60693509748978403</v>
+        <v>1.16692169430863</v>
       </c>
       <c r="F5">
-        <v>0.141609209301503</v>
+        <v>0.98850804794046498</v>
       </c>
       <c r="G5">
-        <v>1.07226098567807</v>
+        <v>1.3453353406768001</v>
       </c>
       <c r="H5">
-        <v>1.06775427220418</v>
+        <v>0.75527381495492996</v>
       </c>
       <c r="I5">
-        <v>0.23171641900090401</v>
+        <v>0.61677762928345903</v>
       </c>
       <c r="J5">
-        <v>1.9037921254074499</v>
+        <v>0.893770000626401</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4985,31 +3638,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.55140999458669704</v>
+        <v>1.6688285419789901</v>
       </c>
       <c r="C6">
-        <v>8.8202048867283195E-2</v>
+        <v>0.92762454311475895</v>
       </c>
       <c r="D6">
-        <v>1.01461794030611</v>
+        <v>2.4100325408432099</v>
       </c>
       <c r="E6">
-        <v>0.97350828152494095</v>
+        <v>1.14900662000391</v>
       </c>
       <c r="F6">
-        <v>0.22516023855585199</v>
+        <v>0.95795366660713399</v>
       </c>
       <c r="G6">
-        <v>1.7218563244940299</v>
+        <v>1.3400595734006899</v>
       </c>
       <c r="H6">
-        <v>0.60805205481786895</v>
+        <v>0.72915978853576902</v>
       </c>
       <c r="I6">
-        <v>0.188894565916985</v>
+        <v>0.619419444793334</v>
       </c>
       <c r="J6">
-        <v>1.0272095437187501</v>
+        <v>0.83890013227820304</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5017,31 +3670,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.35578653165222901</v>
+        <v>1.8013483109253901</v>
       </c>
       <c r="C7">
-        <v>-0.63860522469407899</v>
+        <v>0.82949181283135798</v>
       </c>
       <c r="D7">
-        <v>1.35017828799854</v>
+        <v>2.7732048090194201</v>
       </c>
       <c r="E7">
-        <v>0.66002026254160395</v>
+        <v>0.87267177373548799</v>
       </c>
       <c r="F7">
-        <v>5.0406378449764297E-2</v>
+        <v>0.66926936172740203</v>
       </c>
       <c r="G7">
-        <v>1.26963414663344</v>
+        <v>1.0760741857435701</v>
       </c>
       <c r="H7">
-        <v>0.66650049865583505</v>
+        <v>0.77511479070911704</v>
       </c>
       <c r="I7">
-        <v>-0.37638482175633198</v>
+        <v>0.63088010143856499</v>
       </c>
       <c r="J7">
-        <v>1.709385819068</v>
+        <v>0.91934947997966898</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5049,31 +3702,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.46582179607491803</v>
+        <v>1.55392815253105</v>
       </c>
       <c r="C8">
-        <v>-0.53303085370602499</v>
+        <v>1.26155275654107</v>
       </c>
       <c r="D8">
-        <v>1.46467444585586</v>
+        <v>1.84630354852103</v>
       </c>
       <c r="E8">
-        <v>0.61091566949473597</v>
+        <v>0.99285397558178501</v>
       </c>
       <c r="F8">
-        <v>3.6185318831409102E-2</v>
+        <v>0.82431190079038696</v>
       </c>
       <c r="G8">
-        <v>1.1856460201580601</v>
+        <v>1.1613960503731799</v>
       </c>
       <c r="H8">
-        <v>0.63866807810974202</v>
+        <v>0.88953217429807996</v>
       </c>
       <c r="I8">
-        <v>-8.3764165284081496E-2</v>
+        <v>0.70585693896097601</v>
       </c>
       <c r="J8">
-        <v>1.36110032150357</v>
+        <v>1.07320740963518</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5081,31 +3734,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.49000582803439802</v>
+        <v>1.42658535928945</v>
       </c>
       <c r="C9">
-        <v>0.111238907247572</v>
+        <v>0.99678241404019796</v>
       </c>
       <c r="D9">
-        <v>0.86877274882122502</v>
+        <v>1.8563883045387</v>
       </c>
       <c r="E9">
-        <v>1.04384238885069</v>
+        <v>1.0688834193086001</v>
       </c>
       <c r="F9">
-        <v>-0.22746880916774001</v>
+        <v>0.96808669552984195</v>
       </c>
       <c r="G9">
-        <v>2.3151535868691102</v>
+        <v>1.16968014308736</v>
       </c>
       <c r="H9">
-        <v>1.0767680333622101</v>
+        <v>0.78713104116925903</v>
       </c>
       <c r="I9">
-        <v>9.5095258013811301E-2</v>
+        <v>0.63548357472904704</v>
       </c>
       <c r="J9">
-        <v>2.0584408087106199</v>
+        <v>0.93877850760947101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5113,31 +3766,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.86663439854867197</v>
+        <v>2.2009331680201898</v>
       </c>
       <c r="C10">
-        <v>-1.45609768256864</v>
+        <v>0.51497205074816099</v>
       </c>
       <c r="D10">
-        <v>3.1893664796659902</v>
+        <v>3.8868942852922101</v>
       </c>
       <c r="E10">
-        <v>0.61959064828240495</v>
+        <v>0.93500613399948695</v>
       </c>
       <c r="F10">
-        <v>0.20165821621612201</v>
+        <v>0.75490464935611801</v>
       </c>
       <c r="G10">
-        <v>1.0375230803486899</v>
+        <v>1.1151076186428599</v>
       </c>
       <c r="H10">
-        <v>0.67057080896709098</v>
+        <v>0.87914888640762701</v>
       </c>
       <c r="I10">
-        <v>0.120820832287999</v>
+        <v>0.74249578917676196</v>
       </c>
       <c r="J10">
-        <v>1.22032078564618</v>
+        <v>1.0158019836384899</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5145,31 +3798,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.36110697327913799</v>
+        <v>2.2796868363192</v>
       </c>
       <c r="C11">
-        <v>-0.32532771676753303</v>
+        <v>1.68344200117583</v>
       </c>
       <c r="D11">
-        <v>1.0475416633258099</v>
+        <v>2.8759316714625802</v>
       </c>
       <c r="E11">
-        <v>0.91914379004532798</v>
+        <v>0.92850140972143302</v>
       </c>
       <c r="F11">
-        <v>5.98471566406431E-2</v>
+        <v>0.75066848766790895</v>
       </c>
       <c r="G11">
-        <v>1.77844042345001</v>
+        <v>1.1063343317749601</v>
       </c>
       <c r="H11">
-        <v>0.40789493077785899</v>
+        <v>0.97466514288028405</v>
       </c>
       <c r="I11">
-        <v>8.3617644331000301E-2</v>
+        <v>0.86820806787542903</v>
       </c>
       <c r="J11">
-        <v>0.73217221722471804</v>
+        <v>1.0811222178851401</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5177,31 +3830,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.48923856115325598</v>
+        <v>1.48049113906967</v>
       </c>
       <c r="C12">
-        <v>-2.5036100434106E-2</v>
+        <v>1.1294192498745399</v>
       </c>
       <c r="D12">
-        <v>1.00351322274062</v>
+        <v>1.8315630282648001</v>
       </c>
       <c r="E12">
-        <v>0.63240538415013103</v>
+        <v>1.0262298623147099</v>
       </c>
       <c r="F12">
-        <v>9.0323376271706501E-2</v>
+        <v>0.80776868651896905</v>
       </c>
       <c r="G12">
-        <v>1.1744873920285599</v>
+        <v>1.2446910381104499</v>
       </c>
       <c r="H12">
-        <v>0.83364145619615804</v>
+        <v>0.87411548801084604</v>
       </c>
       <c r="I12">
-        <v>0.28155019995372998</v>
+        <v>0.61069274636428905</v>
       </c>
       <c r="J12">
-        <v>1.3857327124385801</v>
+        <v>1.1375382296573999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5209,31 +3862,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.82902316906486995</v>
+        <v>1.7418007657110399</v>
       </c>
       <c r="C13">
-        <v>-1.0347300182261601</v>
+        <v>1.2120316483787501</v>
       </c>
       <c r="D13">
-        <v>2.6927763563559002</v>
+        <v>2.2715698830433202</v>
       </c>
       <c r="E13">
-        <v>0.76864537681285094</v>
+        <v>1.08827102156639</v>
       </c>
       <c r="F13">
-        <v>-0.28549271245402202</v>
+        <v>0.94132558278400502</v>
       </c>
       <c r="G13">
-        <v>1.82278346607972</v>
+        <v>1.2352164603487801</v>
       </c>
       <c r="H13">
-        <v>0.51366220930448803</v>
+        <v>0.94013251700024503</v>
       </c>
       <c r="I13">
-        <v>0.306349196064573</v>
+        <v>0.82481801684816902</v>
       </c>
       <c r="J13">
-        <v>0.72097522254440305</v>
+        <v>1.05544701715232</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5241,31 +3894,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.22667543543691501</v>
+        <v>1.6410322072229799</v>
       </c>
       <c r="C14">
-        <v>-0.40273137166822998</v>
+        <v>0.63069034792798795</v>
       </c>
       <c r="D14">
-        <v>0.85608224254206</v>
+        <v>2.6513740665179601</v>
       </c>
       <c r="E14">
-        <v>0.466453789197531</v>
+        <v>1.0207092768341901</v>
       </c>
       <c r="F14">
-        <v>-5.09104821051675E-2</v>
+        <v>0.82363947743379096</v>
       </c>
       <c r="G14">
-        <v>0.98381806050023002</v>
+        <v>1.2177790762345899</v>
       </c>
       <c r="H14">
-        <v>0.78956790546509303</v>
+        <v>0.70821723690020999</v>
       </c>
       <c r="I14">
-        <v>-1.3605801214672301E-3</v>
+        <v>0.50888852303935705</v>
       </c>
       <c r="J14">
-        <v>1.5804963910516501</v>
+        <v>0.90754595076106204</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5273,31 +3926,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.97895732935751301</v>
+        <v>2.3073394755853101</v>
       </c>
       <c r="C15">
-        <v>-0.53775666658099097</v>
+        <v>0.71478178945399495</v>
       </c>
       <c r="D15">
-        <v>2.4956713252960201</v>
+        <v>3.89989716171663</v>
       </c>
       <c r="E15">
-        <v>0.67232437537040202</v>
+        <v>0.98070954567424296</v>
       </c>
       <c r="F15">
-        <v>5.8297173821536097E-2</v>
+        <v>0.85605681046024895</v>
       </c>
       <c r="G15">
-        <v>1.2863515769192699</v>
+        <v>1.10536228088824</v>
       </c>
       <c r="H15">
-        <v>0.7486250180738</v>
+        <v>0.888364138683573</v>
       </c>
       <c r="I15">
-        <v>0.30183021367084101</v>
+        <v>0.77817433120215795</v>
       </c>
       <c r="J15">
-        <v>1.19541982247676</v>
+        <v>0.99855394616498905</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5305,31 +3958,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.36388613734776198</v>
+        <v>2.1782623387340498</v>
       </c>
       <c r="C16">
-        <v>-0.29648810809354498</v>
+        <v>1.38276921856274</v>
       </c>
       <c r="D16">
-        <v>1.0242603827890699</v>
+        <v>2.9737554589053699</v>
       </c>
       <c r="E16">
-        <v>0.54081264187786204</v>
+        <v>0.914666932176737</v>
       </c>
       <c r="F16">
-        <v>0.142222251284993</v>
+        <v>0.74779452642719202</v>
       </c>
       <c r="G16">
-        <v>0.93940303247073098</v>
+        <v>1.0815393379262801</v>
       </c>
       <c r="H16">
-        <v>0.63407718085623799</v>
+        <v>0.90829111529035</v>
       </c>
       <c r="I16">
-        <v>0.357902564354244</v>
+        <v>0.74543573545879205</v>
       </c>
       <c r="J16">
-        <v>0.91025179735823103</v>
+        <v>1.0711464951219101</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5337,31 +3990,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.358796343465554</v>
+        <v>1.89297315534974</v>
       </c>
       <c r="C17">
-        <v>-0.10408268641104899</v>
+        <v>1.44743251898828</v>
       </c>
       <c r="D17">
-        <v>0.82167537334215701</v>
+        <v>2.3385137917112</v>
       </c>
       <c r="E17">
-        <v>0.31836243568535799</v>
+        <v>1.0149209615838899</v>
       </c>
       <c r="F17">
-        <v>-0.17314286392731801</v>
+        <v>0.88320843745556699</v>
       </c>
       <c r="G17">
-        <v>0.80986773529803402</v>
+        <v>1.14663348571222</v>
       </c>
       <c r="H17">
-        <v>0.62997759368245798</v>
+        <v>0.83875413693138701</v>
       </c>
       <c r="I17">
-        <v>0.36366083954184197</v>
+        <v>0.71291475719697395</v>
       </c>
       <c r="J17">
-        <v>0.89629434782307404</v>
+        <v>0.96459351666579995</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5369,31 +4022,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.80712573853847</v>
+        <v>1.5110794241747001</v>
       </c>
       <c r="C18">
-        <v>-2.6440267265428101</v>
+        <v>0.87669438717429704</v>
       </c>
       <c r="D18">
-        <v>6.2582782036197502</v>
+        <v>2.1454644611750999</v>
       </c>
       <c r="E18">
-        <v>0.68340086502727604</v>
+        <v>1.12611939710207</v>
       </c>
       <c r="F18">
-        <v>0.18735444077829</v>
+        <v>0.95780790548992201</v>
       </c>
       <c r="G18">
-        <v>1.17944728927626</v>
+        <v>1.29443088871422</v>
       </c>
       <c r="H18">
-        <v>0.75567218213992104</v>
+        <v>0.84361799692205997</v>
       </c>
       <c r="I18">
-        <v>0.29448987865257897</v>
+        <v>0.72545897983568297</v>
       </c>
       <c r="J18">
-        <v>1.2168544856272601</v>
+        <v>0.96177701400843596</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5401,31 +4054,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.349937176097116</v>
+        <v>1.88351251319261</v>
       </c>
       <c r="C19">
-        <v>-0.23537815298322201</v>
+        <v>0.95629169724169405</v>
       </c>
       <c r="D19">
-        <v>0.93525250517745395</v>
+        <v>2.8107333291435399</v>
       </c>
       <c r="E19">
-        <v>0.62463228035079499</v>
+        <v>1.1046741135134299</v>
       </c>
       <c r="F19">
-        <v>-5.81339597950601E-2</v>
+        <v>0.92176035196824502</v>
       </c>
       <c r="G19">
-        <v>1.3073985204966501</v>
+        <v>1.28758787505862</v>
       </c>
       <c r="H19">
-        <v>1.15176271000144</v>
+        <v>0.75847308031848204</v>
       </c>
       <c r="I19">
-        <v>0.51934302768289897</v>
+        <v>0.60988156339763699</v>
       </c>
       <c r="J19">
-        <v>1.78418239231999</v>
+        <v>0.90706459723932797</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5433,31 +4086,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.0918361416482898</v>
+        <v>1.8647734517146899</v>
       </c>
       <c r="C20">
-        <v>-3.90992037457135</v>
+        <v>1.17296575102279</v>
       </c>
       <c r="D20">
-        <v>8.0935926578679407</v>
+        <v>2.5565811524066002</v>
       </c>
       <c r="E20">
-        <v>0.85339292531753597</v>
+        <v>1.07633980812216</v>
       </c>
       <c r="F20">
-        <v>0.25254861075441898</v>
+        <v>0.93267231739055501</v>
       </c>
       <c r="G20">
-        <v>1.45423723988065</v>
+        <v>1.22000729885378</v>
       </c>
       <c r="H20">
-        <v>0.43143100446212401</v>
+        <v>0.83795639504066699</v>
       </c>
       <c r="I20">
-        <v>0.13085784786663099</v>
+        <v>0.74244618133253404</v>
       </c>
       <c r="J20">
-        <v>0.73200416105761701</v>
+        <v>0.93346660874880005</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5465,31 +4118,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.40873174948364599</v>
+        <v>1.7034513276104699</v>
       </c>
       <c r="C21">
-        <v>8.2849850607943296E-2</v>
+        <v>0.77464643961530799</v>
       </c>
       <c r="D21">
-        <v>0.73461364835934795</v>
+        <v>2.6322562156056399</v>
       </c>
       <c r="E21">
-        <v>0.63884133189389003</v>
+        <v>1.2102190604612899</v>
       </c>
       <c r="F21">
-        <v>0.21349253404066201</v>
+        <v>1.0352972761655099</v>
       </c>
       <c r="G21">
-        <v>1.0641901297471199</v>
+        <v>1.3851408447570801</v>
       </c>
       <c r="H21">
-        <v>0.54457727923508603</v>
+        <v>0.86942114213036303</v>
       </c>
       <c r="I21">
-        <v>0.234871383656576</v>
+        <v>0.76050345372047301</v>
       </c>
       <c r="J21">
-        <v>0.85428317481359595</v>
+        <v>0.97833883054025295</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5497,31 +4150,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0363993769812401</v>
+        <v>1.6184394489565701</v>
       </c>
       <c r="C22">
-        <v>-2.29688119714229</v>
+        <v>0.82108900297158605</v>
       </c>
       <c r="D22">
-        <v>4.3696799511047697</v>
+        <v>2.4157898949415602</v>
       </c>
       <c r="E22">
-        <v>0.50125734173710301</v>
+        <v>1.1553570364224199</v>
       </c>
       <c r="F22">
-        <v>0.119859362872756</v>
+        <v>0.96049997862464997</v>
       </c>
       <c r="G22">
-        <v>0.88265532060145002</v>
+        <v>1.3502140942201799</v>
       </c>
       <c r="H22">
-        <v>0.50438419471130302</v>
+        <v>0.92381139126963496</v>
       </c>
       <c r="I22">
-        <v>0.36417337663289401</v>
+        <v>0.779130763435115</v>
       </c>
       <c r="J22">
-        <v>0.64459501278971298</v>
+        <v>1.06849201910416</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5529,31 +4182,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.72092921235726704</v>
+        <v>1.4874101838424301</v>
       </c>
       <c r="C23">
-        <v>-0.41421075650448602</v>
+        <v>0.89192956464610795</v>
       </c>
       <c r="D23">
-        <v>1.85606918121902</v>
+        <v>2.0828908030387501</v>
       </c>
       <c r="E23">
-        <v>0.30767393279949401</v>
+        <v>1.0013151918029899</v>
       </c>
       <c r="F23">
-        <v>-9.02973990079841E-2</v>
+        <v>0.78226945479969701</v>
       </c>
       <c r="G23">
-        <v>0.70564526460697297</v>
+        <v>1.22036092880629</v>
       </c>
       <c r="H23">
-        <v>0.67046392482879302</v>
+        <v>0.83534125251992697</v>
       </c>
       <c r="I23">
-        <v>0.28520983607834</v>
+        <v>0.67118716681809798</v>
       </c>
       <c r="J23">
-        <v>1.0557180135792501</v>
+        <v>0.99949533822175596</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5561,31 +4214,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.73036415793884901</v>
+        <v>1.5710006229145099</v>
       </c>
       <c r="C24">
-        <v>-0.885086266148429</v>
+        <v>1.3232232551463201</v>
       </c>
       <c r="D24">
-        <v>2.3458145820261298</v>
+        <v>1.81877799068271</v>
       </c>
       <c r="E24">
-        <v>1.72712471719608</v>
+        <v>1.13571020369776</v>
       </c>
       <c r="F24">
-        <v>-0.356892544038587</v>
+        <v>0.92042391708074101</v>
       </c>
       <c r="G24">
-        <v>3.8111419784307499</v>
+        <v>1.35099649031479</v>
       </c>
       <c r="H24">
-        <v>1.1880481210854901</v>
+        <v>0.76757217135183897</v>
       </c>
       <c r="I24">
-        <v>-0.157853053724402</v>
+        <v>0.64251339180122002</v>
       </c>
       <c r="J24">
-        <v>2.53394929589538</v>
+        <v>0.89263095090245803</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5593,31 +4246,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.116200547923135</v>
+        <v>1.65434008813684</v>
       </c>
       <c r="C25">
-        <v>-0.50825167049091302</v>
+        <v>1.25431801821056</v>
       </c>
       <c r="D25">
-        <v>0.74065276633718302</v>
+        <v>2.0543621580631202</v>
       </c>
       <c r="E25">
-        <v>2.2264336747190598</v>
+        <v>1.05876429339514</v>
       </c>
       <c r="F25">
-        <v>-3.21724191348174</v>
+        <v>0.90177874374209999</v>
       </c>
       <c r="G25">
-        <v>7.6701092629198602</v>
+        <v>1.2157498430481799</v>
       </c>
       <c r="H25">
-        <v>0.59102632725945803</v>
+        <v>0.83005109587665105</v>
       </c>
       <c r="I25">
-        <v>0.23641383266222399</v>
+        <v>0.62533742192138897</v>
       </c>
       <c r="J25">
-        <v>0.94563882185669201</v>
+        <v>1.03476476983191</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5625,31 +4278,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.16913961738319599</v>
+        <v>1.8288778223326601</v>
       </c>
       <c r="C26">
-        <v>-0.36977301636441701</v>
+        <v>0.97752913077595305</v>
       </c>
       <c r="D26">
-        <v>0.70805225113080805</v>
+        <v>2.6802265138893802</v>
       </c>
       <c r="E26">
-        <v>0.88300597476171805</v>
+        <v>1.0016520035123799</v>
       </c>
       <c r="F26">
-        <v>5.9597718796705598E-2</v>
+        <v>0.84923991144418198</v>
       </c>
       <c r="G26">
-        <v>1.70641423072673</v>
+        <v>1.1540640955805801</v>
       </c>
       <c r="H26">
-        <v>0.62283865411231898</v>
+        <v>0.86909827462668798</v>
       </c>
       <c r="I26">
-        <v>0.38012432548265601</v>
+        <v>0.73712669210570103</v>
       </c>
       <c r="J26">
-        <v>0.865552982741982</v>
+        <v>1.0010698571476799</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5657,31 +4310,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.22036835484783901</v>
+        <v>1.4867820085872501</v>
       </c>
       <c r="C27">
-        <v>-0.56495314953188602</v>
+        <v>0.57592356379670695</v>
       </c>
       <c r="D27">
-        <v>1.00568985922756</v>
+        <v>2.3976404533778002</v>
       </c>
       <c r="E27">
-        <v>1.83415316503314</v>
+        <v>0.97665967754137695</v>
       </c>
       <c r="F27">
-        <v>-2.9537625351671601</v>
+        <v>0.76178704255382101</v>
       </c>
       <c r="G27">
-        <v>6.6220688652334498</v>
+        <v>1.1915323125289301</v>
       </c>
       <c r="H27">
-        <v>0.61637870713350795</v>
+        <v>0.87603796951691004</v>
       </c>
       <c r="I27">
-        <v>0.316401831164835</v>
+        <v>0.68043467980796102</v>
       </c>
       <c r="J27">
-        <v>0.91635558310218101</v>
+        <v>1.07164125922586</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5690,19 +4343,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.72602931052246722</v>
+        <v>1.7566676976756139</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.83217333915230685</v>
+        <v>1.042579040294366</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.70220710353187288</v>
+        <v>0.84839816981885319</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5713,19 +4366,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.7067098200314843</v>
+        <v>0.25465698069337889</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.46815893658803698</v>
+        <v>8.5961675260593284E-2</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.21223155398986995</v>
+        <v>7.066670787980045E-2</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5756,19 +4409,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.39533347332561231</v>
+        <v>0.14245511499987615</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.26188810912734789</v>
+        <v>4.8086961140775888E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.11872233130193326</v>
+        <v>3.9530956387960378E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>

--- a/data/summary/22_22_36.xlsx
+++ b/data/summary/22_22_36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="avg_plaquette" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D27"/>
     </sheetView>
   </sheetViews>
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.80606999999999995</v>
+        <v>0.80588899999999997</v>
       </c>
       <c r="C3">
-        <v>0.82950599999999997</v>
+        <v>0.82955500000000004</v>
       </c>
       <c r="D3">
-        <v>0.83866799999999997</v>
+        <v>0.83877299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -553,13 +553,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.80599200000000004</v>
+        <v>0.80589</v>
       </c>
       <c r="C4">
-        <v>0.82951699999999995</v>
+        <v>0.82948100000000002</v>
       </c>
       <c r="D4">
-        <v>0.83874300000000002</v>
+        <v>0.838897</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -567,13 +567,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.80587500000000001</v>
+        <v>0.80593899999999996</v>
       </c>
       <c r="C5">
-        <v>0.82960900000000004</v>
+        <v>0.82950400000000002</v>
       </c>
       <c r="D5">
-        <v>0.83885900000000002</v>
+        <v>0.83876700000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -581,13 +581,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.80591900000000005</v>
+        <v>0.80584699999999998</v>
       </c>
       <c r="C6">
-        <v>0.82963600000000004</v>
+        <v>0.82956700000000005</v>
       </c>
       <c r="D6">
-        <v>0.83860699999999999</v>
+        <v>0.83887500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -595,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.80598800000000004</v>
+        <v>0.80599100000000001</v>
       </c>
       <c r="C7">
-        <v>0.82949700000000004</v>
+        <v>0.82955500000000004</v>
       </c>
       <c r="D7">
-        <v>0.83874000000000004</v>
+        <v>0.83880600000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.80597099999999999</v>
+        <v>0.80594100000000002</v>
       </c>
       <c r="C8">
-        <v>0.82939600000000002</v>
+        <v>0.82958600000000005</v>
       </c>
       <c r="D8">
-        <v>0.83860599999999996</v>
+        <v>0.83866700000000005</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -623,13 +623,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.80591000000000002</v>
+        <v>0.80598199999999998</v>
       </c>
       <c r="C9">
-        <v>0.82957199999999998</v>
+        <v>0.82950100000000004</v>
       </c>
       <c r="D9">
-        <v>0.83868600000000004</v>
+        <v>0.83882000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -637,13 +637,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.80577100000000002</v>
+        <v>0.80589900000000003</v>
       </c>
       <c r="C10">
-        <v>0.82971499999999998</v>
+        <v>0.82977699999999999</v>
       </c>
       <c r="D10">
-        <v>0.838808</v>
+        <v>0.83873399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -651,13 +651,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.80607700000000004</v>
+        <v>0.80589599999999995</v>
       </c>
       <c r="C11">
-        <v>0.82961600000000002</v>
+        <v>0.82964800000000005</v>
       </c>
       <c r="D11">
-        <v>0.83859600000000001</v>
+        <v>0.83870199999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -665,13 +665,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.80621299999999996</v>
+        <v>0.806002</v>
       </c>
       <c r="C12">
-        <v>0.82947300000000002</v>
+        <v>0.82955400000000001</v>
       </c>
       <c r="D12">
-        <v>0.83872599999999997</v>
+        <v>0.83860699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -679,13 +679,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.805925</v>
+        <v>0.80599100000000001</v>
       </c>
       <c r="C13">
-        <v>0.82942000000000005</v>
+        <v>0.82956600000000003</v>
       </c>
       <c r="D13">
-        <v>0.83849099999999999</v>
+        <v>0.83855299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -693,13 +693,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.80578799999999995</v>
+        <v>0.805925</v>
       </c>
       <c r="C14">
-        <v>0.82944600000000002</v>
+        <v>0.82959700000000003</v>
       </c>
       <c r="D14">
-        <v>0.83882900000000005</v>
+        <v>0.83883700000000005</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -707,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.80583800000000005</v>
+        <v>0.80599100000000001</v>
       </c>
       <c r="C15">
-        <v>0.82950900000000005</v>
+        <v>0.829538</v>
       </c>
       <c r="D15">
-        <v>0.83860100000000004</v>
+        <v>0.83872999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -721,13 +721,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.80605899999999997</v>
+        <v>0.80590600000000001</v>
       </c>
       <c r="C16">
-        <v>0.82954499999999998</v>
+        <v>0.82959899999999998</v>
       </c>
       <c r="D16">
-        <v>0.83874800000000005</v>
+        <v>0.83881399999999995</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -735,13 +735,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.80596699999999999</v>
+        <v>0.80603100000000005</v>
       </c>
       <c r="C17">
-        <v>0.82955500000000004</v>
+        <v>0.82969099999999996</v>
       </c>
       <c r="D17">
-        <v>0.83876799999999996</v>
+        <v>0.839032</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -749,13 +749,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.80620199999999997</v>
+        <v>0.80596400000000001</v>
       </c>
       <c r="C18">
-        <v>0.829515</v>
+        <v>0.82936600000000005</v>
       </c>
       <c r="D18">
-        <v>0.83899400000000002</v>
+        <v>0.83893200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -763,13 +763,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.80606199999999995</v>
+        <v>0.80601500000000004</v>
       </c>
       <c r="C19">
-        <v>0.82941799999999999</v>
+        <v>0.82942499999999997</v>
       </c>
       <c r="D19">
-        <v>0.83888099999999999</v>
+        <v>0.83887400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -777,13 +777,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.80585700000000005</v>
+        <v>0.80596400000000001</v>
       </c>
       <c r="C20">
-        <v>0.82951799999999998</v>
+        <v>0.82942499999999997</v>
       </c>
       <c r="D20">
-        <v>0.83891300000000002</v>
+        <v>0.83856200000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -791,13 +791,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.805952</v>
+        <v>0.80593300000000001</v>
       </c>
       <c r="C21">
-        <v>0.82936900000000002</v>
+        <v>0.82957700000000001</v>
       </c>
       <c r="D21">
-        <v>0.83874599999999999</v>
+        <v>0.83872199999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -805,13 +805,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.80599299999999996</v>
+        <v>0.80584800000000001</v>
       </c>
       <c r="C22">
-        <v>0.82960800000000001</v>
+        <v>0.82943199999999995</v>
       </c>
       <c r="D22">
-        <v>0.838584</v>
+        <v>0.83858699999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -819,13 +819,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.80616600000000005</v>
+        <v>0.80585099999999998</v>
       </c>
       <c r="C23">
-        <v>0.82958699999999996</v>
+        <v>0.82964700000000002</v>
       </c>
       <c r="D23">
-        <v>0.83852700000000002</v>
+        <v>0.83875699999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -833,13 +833,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.80587600000000004</v>
+        <v>0.806029</v>
       </c>
       <c r="C24">
-        <v>0.82952400000000004</v>
+        <v>0.82945999999999998</v>
       </c>
       <c r="D24">
-        <v>0.83859799999999995</v>
+        <v>0.83874599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -847,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.80614699999999995</v>
+        <v>0.805979</v>
       </c>
       <c r="C25">
-        <v>0.82921500000000004</v>
+        <v>0.82947099999999996</v>
       </c>
       <c r="D25">
-        <v>0.83845700000000001</v>
+        <v>0.83877800000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -861,13 +861,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.80602700000000005</v>
+        <v>0.80593899999999996</v>
       </c>
       <c r="C26">
-        <v>0.82961499999999999</v>
+        <v>0.829484</v>
       </c>
       <c r="D26">
-        <v>0.83896000000000004</v>
+        <v>0.83874700000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -875,13 +875,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.80609900000000001</v>
+        <v>0.80581800000000003</v>
       </c>
       <c r="C27">
-        <v>0.82952199999999998</v>
+        <v>0.82940199999999997</v>
       </c>
       <c r="D27">
-        <v>0.83865599999999996</v>
+        <v>0.83867400000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -890,15 +890,15 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.80598976000000011</v>
+        <v>0.80593839999999983</v>
       </c>
       <c r="C28" s="1">
         <f>AVERAGE(C3:C27)</f>
-        <v>0.82951612000000008</v>
+        <v>0.82953632000000033</v>
       </c>
       <c r="D28" s="1">
         <f>AVERAGE(D3:D27)</f>
-        <v>0.83871168000000007</v>
+        <v>0.8387597200000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -907,15 +907,15 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.2268804614412832E-4</v>
+        <v>6.0524099883166122E-5</v>
       </c>
       <c r="C29" s="1">
         <f>STDEV(C3:C27)</f>
-        <v>1.029256689719906E-4</v>
+        <v>9.6186329590026702E-5</v>
       </c>
       <c r="D29" s="1">
         <f>STDEV(D3:D27)</f>
-        <v>1.4336541888940941E-4</v>
+        <v>1.158039003373133E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,15 +938,15 @@
       </c>
       <c r="B31" s="1">
         <f xml:space="preserve"> B30*B29/5</f>
-        <v>6.8631693013025384E-5</v>
+        <v>3.3857181474643131E-5</v>
       </c>
       <c r="C31" s="1">
         <f xml:space="preserve"> C30*C29/5</f>
-        <v>5.7576619222931549E-5</v>
+        <v>5.3806632772660942E-5</v>
       </c>
       <c r="D31" s="1">
         <f xml:space="preserve"> D30*D29/5</f>
-        <v>8.019861532673563E-5</v>
+        <v>6.4780701848693068E-5</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +968,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3478,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="B3:J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" activeCellId="1" sqref="B3:J27 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
